--- a/admin/ICT  - 25 - Marks.xlsx
+++ b/admin/ICT  - 25 - Marks.xlsx
@@ -8,18 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maireadmeagher/Documents/GitRepos/ICT-25/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9340D016-1F2E-D245-BBE9-39582866C43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BCC41E-332E-5B4F-85A0-13174AC903BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="760" windowWidth="25000" windowHeight="17720" tabRatio="750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3520" yWindow="760" windowWidth="25000" windowHeight="17720" tabRatio="750" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grade" sheetId="25" r:id="rId1"/>
     <sheet name="Word(20%)" sheetId="21" r:id="rId2"/>
     <sheet name="Excel(50%)" sheetId="24" r:id="rId3"/>
-    <sheet name="TODO" sheetId="29" r:id="rId4"/>
-    <sheet name="PowerPoint (20%)" sheetId="26" r:id="rId5"/>
-    <sheet name="Attendance" sheetId="27" r:id="rId6"/>
-    <sheet name="ProgressWeek 11" sheetId="28" r:id="rId7"/>
+    <sheet name="PowerPoint (20%)" sheetId="26" r:id="rId4"/>
+    <sheet name="Attendance" sheetId="27" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -45,59 +43,12 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Microsoft Office User</author>
-  </authors>
-  <commentList>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{88B1DA28-45E9-E14D-9C08-E6489DA77578}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">had the categories the wrong way round
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="130">
   <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Firstname</t>
-  </si>
-  <si>
     <t>Surname</t>
   </si>
   <si>
@@ -128,9 +79,6 @@
     <t>Q2</t>
   </si>
   <si>
-    <t>Mairead's Group</t>
-  </si>
-  <si>
     <t>Content</t>
   </si>
   <si>
@@ -164,315 +112,12 @@
     <t>Professionalism of presentation</t>
   </si>
   <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Introduction to ICT for Scientists-35561-[2023-2024]</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Ablett</t>
-  </si>
-  <si>
-    <t>Benjamin</t>
-  </si>
-  <si>
-    <t>Buchtelova</t>
-  </si>
-  <si>
-    <t>Tereza</t>
-  </si>
-  <si>
-    <t>Buckley</t>
-  </si>
-  <si>
-    <t>Kaitlyn</t>
-  </si>
-  <si>
-    <t>Butler</t>
-  </si>
-  <si>
-    <t>Holly</t>
-  </si>
-  <si>
-    <t>Carson</t>
-  </si>
-  <si>
-    <t>Toby</t>
-  </si>
-  <si>
-    <t>Cooney</t>
-  </si>
-  <si>
-    <t>Darragh</t>
-  </si>
-  <si>
-    <t>Corcoran</t>
-  </si>
-  <si>
-    <t>Lolo</t>
-  </si>
-  <si>
-    <t>Cosgrave</t>
-  </si>
-  <si>
-    <t>Tara</t>
-  </si>
-  <si>
-    <t>Cronin</t>
-  </si>
-  <si>
-    <t>Abbie</t>
-  </si>
-  <si>
-    <t>Crowley</t>
-  </si>
-  <si>
-    <t>Kieran</t>
-  </si>
-  <si>
-    <t>Cuthbert Savage</t>
-  </si>
-  <si>
-    <t>Ruby</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Nadtochiev</t>
-  </si>
-  <si>
-    <t>Dempsey</t>
-  </si>
-  <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>Dwan</t>
-  </si>
-  <si>
-    <t>Mya</t>
-  </si>
-  <si>
-    <t>Galvin</t>
-  </si>
-  <si>
-    <t>Dylan</t>
-  </si>
-  <si>
-    <t>Granger</t>
-  </si>
-  <si>
-    <t>Christy</t>
-  </si>
-  <si>
-    <t>Grant</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
-    <t>Halley</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>Hartnett</t>
-  </si>
-  <si>
-    <t>Alannah</t>
-  </si>
-  <si>
     <t>Student Number</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Shahparan</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Browne O Carroll</t>
-  </si>
-  <si>
-    <t>20110602@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>20112142@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>20106975@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>20113230@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>20107564@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>20112384@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>20113053@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>20112113@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>20112512@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>20112665@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>20113280@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>20112111@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>20112739@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>20113012@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>20112577@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>20112860@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>20112570@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>20111234@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>20112264@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>20111569@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>20111168@mail.wit.ie</t>
-  </si>
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>ID number</t>
-  </si>
-  <si>
-    <t>Email address</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>20110602@wit.ie</t>
-  </si>
-  <si>
-    <t>20112142@wit.ie</t>
-  </si>
-  <si>
-    <t>20106975@wit.ie</t>
-  </si>
-  <si>
-    <t>20113230@wit.ie</t>
-  </si>
-  <si>
-    <t>20107564@wit.ie</t>
-  </si>
-  <si>
-    <t>20112384@wit.ie</t>
-  </si>
-  <si>
-    <t>20113053@wit.ie</t>
-  </si>
-  <si>
-    <t>20112113@wit.ie</t>
-  </si>
-  <si>
-    <t>20112512@wit.ie</t>
-  </si>
-  <si>
-    <t>20112665@wit.ie</t>
-  </si>
-  <si>
-    <t>20113280@wit.ie</t>
-  </si>
-  <si>
-    <t>20112111@wit.ie</t>
-  </si>
-  <si>
-    <t>20112739@wit.ie</t>
-  </si>
-  <si>
-    <t>20113012@wit.ie</t>
-  </si>
-  <si>
-    <t>20112577@wit.ie</t>
-  </si>
-  <si>
-    <t>20112860@wit.ie</t>
-  </si>
-  <si>
-    <t>20112570@wit.ie</t>
-  </si>
-  <si>
-    <t>20111234@wit.ie</t>
-  </si>
-  <si>
-    <t>20112264@wit.ie</t>
-  </si>
-  <si>
-    <t>20111569@wit.ie</t>
-  </si>
-  <si>
-    <t>20111168@wit.ie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submitted </t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Going well, I put up the videos on youtube for him </t>
-  </si>
-  <si>
-    <t>Couldn't submit on Moodle emailed instead. All seems fine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presentation a little slow </t>
-  </si>
-  <si>
-    <t>A little behind but fine</t>
-  </si>
-  <si>
-    <t>All good</t>
-  </si>
-  <si>
-    <t>Not sure how far she is but seems fine</t>
-  </si>
-  <si>
-    <t>have emailed</t>
-  </si>
-  <si>
     <t>Holly Butler</t>
   </si>
   <si>
@@ -566,49 +211,10 @@
     <t>new sheet</t>
   </si>
   <si>
-    <t xml:space="preserve">no formulas just wrote in the values. </t>
-  </si>
-  <si>
-    <t>pdf was submitted - I have emailed her to ask her to email me with xls spreadsheet</t>
-  </si>
-  <si>
-    <t>have emailed - she has left the course</t>
-  </si>
-  <si>
-    <t>left the course</t>
-  </si>
-  <si>
     <t>marked</t>
   </si>
   <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>left?</t>
-  </si>
-  <si>
-    <t>could not see what animations were there</t>
-  </si>
-  <si>
-    <t>no submission</t>
-  </si>
-  <si>
-    <t>pdf sent - I have emailed Ali to ask for the pptx version</t>
-  </si>
-  <si>
     <t>seen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">left? </t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>Set test for Ben and ShahParan</t>
-  </si>
-  <si>
-    <t>move to 35</t>
   </si>
   <si>
     <t>W20117623</t>
@@ -834,7 +440,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -903,19 +509,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1148,17 +741,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1215,8 +797,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1228,9 +821,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1268,9 +860,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1303,21 +892,13 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1350,7 +931,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="11" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1366,7 +946,7 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1375,7 +955,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1384,50 +964,67 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1437,7 +1034,6 @@
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
@@ -1897,37 +1493,40 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView zoomScale="134" zoomScaleNormal="297" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
     <col min="3" max="6" width="9" style="3"/>
     <col min="7" max="10" width="8.83203125" style="3"/>
     <col min="12" max="12" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="C1" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55" t="s">
+      <c r="C1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.2">
@@ -1935,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
@@ -1952,10 +1551,10 @@
       <c r="I2" s="6">
         <v>1</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="16">
         <v>0.1</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="C3" s="4"/>
@@ -1965,15 +1564,15 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="2"/>
@@ -1982,21 +1581,21 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75">
         <f>D5+F5+H5+J5</f>
         <v>0</v>
       </c>
@@ -2004,1009 +1603,1119 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
-      <c r="C6" s="4">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" ref="D6:D23" si="0">C6*0.2</f>
-        <v>6.4</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="C6" s="76"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="18">
+        <f t="shared" ref="K6:K23" si="0">D6+F6+H6+J6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="76">
+        <f>'Word(20%)'!N3</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="30">
+        <f>C7/5</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="30">
+        <f>'Excel(50%)'!N5</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="30">
+        <f>E7/2</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="30">
+        <f>'PowerPoint (20%)'!N7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="30">
+        <f>G7/5</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="76">
+        <f>'Word(20%)'!N4</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="30">
+        <f t="shared" ref="D8:D35" si="1">C8/5</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="30">
+        <f>'Excel(50%)'!N6</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="30">
+        <f t="shared" ref="F8:F35" si="2">E8/2</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="30">
+        <f>'PowerPoint (20%)'!N8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="30">
+        <f t="shared" ref="H8:H35" si="3">G8/5</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="76">
+        <f>'Word(20%)'!N5</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="30">
         <f>'Excel(50%)'!N7</f>
-        <v>11</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" ref="F6:F26" si="1">E6*0.5</f>
-        <v>5.5</v>
-      </c>
-      <c r="G6" s="2">
-        <f>'PowerPoint (20%)'!O6</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="30">
+        <f>'PowerPoint (20%)'!N9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="76">
+        <f>'Word(20%)'!N6</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="30">
+        <f>'Excel(50%)'!N8</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="30">
+        <f>'PowerPoint (20%)'!N10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="76">
+        <f>'Word(20%)'!N7</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="30">
+        <f>'Excel(50%)'!N9</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="30">
+        <f>'PowerPoint (20%)'!N11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="76">
+        <f>'Word(20%)'!N8</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="30">
+        <f>'Excel(50%)'!N10</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="30">
+        <f>'PowerPoint (20%)'!N12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="76">
+        <f>'Word(20%)'!N9</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="30">
+        <f>'Excel(50%)'!N11</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="30">
+        <f>'PowerPoint (20%)'!N13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="76">
+        <f>'Word(20%)'!N10</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="30">
+        <f>'Excel(50%)'!N12</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="30">
+        <f>'PowerPoint (20%)'!N14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="76">
+        <f>'Word(20%)'!N11</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="30">
+        <f>'Excel(50%)'!N13</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="30">
+        <f>'PowerPoint (20%)'!N15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="76">
+        <f>'Word(20%)'!N12</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="30">
+        <f>'Excel(50%)'!N14</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="30">
+        <f>'PowerPoint (20%)'!N16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="76">
+        <f>'Word(20%)'!N13</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="30">
+        <f>'Excel(50%)'!N15</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="30">
+        <f>'PowerPoint (20%)'!N17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="76">
+        <f>'Word(20%)'!N14</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="30">
+        <f>'Excel(50%)'!N16</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="30">
+        <f>'PowerPoint (20%)'!N18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="2">
-        <f t="shared" ref="H6:H26" si="2">G6*0.2</f>
-        <v>16.2</v>
-      </c>
-      <c r="I6" s="32">
-        <f>Attendance!E6</f>
-        <v>57.1</v>
-      </c>
-      <c r="J6" s="18">
-        <f t="shared" ref="J6:J23" si="3">I6*0.1</f>
-        <v>5.7100000000000009</v>
-      </c>
-      <c r="K6" s="19">
-        <f t="shared" ref="K6:K23" si="4">D6+F6+H6+J6</f>
-        <v>33.81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="4">
-        <f>'Word(20%)'!N3</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B19" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="76">
+        <f>'Word(20%)'!N15</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="30">
+        <f>'Excel(50%)'!N17</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="30">
+        <f>'PowerPoint (20%)'!N19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="2">
-        <f>'Excel(50%)'!N8</f>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="2">
+      <c r="C20" s="76">
+        <f>'Word(20%)'!N16</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="30">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="G7" s="2">
-        <f>'PowerPoint (20%)'!O7</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="30">
+        <f>'Excel(50%)'!N18</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="30">
+        <f>'PowerPoint (20%)'!N20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="76">
+        <f>'Word(20%)'!N17</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="30">
+        <f>'Excel(50%)'!N19</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="30">
+        <f>'PowerPoint (20%)'!N21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="76">
+        <f>'Word(20%)'!N18</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="30">
+        <f>'Excel(50%)'!N20</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="30">
+        <f>'PowerPoint (20%)'!N22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="76">
+        <f>'Word(20%)'!N19</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="30">
+        <f>'Excel(50%)'!N21</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="30">
+        <f>'PowerPoint (20%)'!N23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="76">
+        <f>'Word(20%)'!N20</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="30">
+        <f>'Excel(50%)'!N22</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="30">
+        <f>'PowerPoint (20%)'!N24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="18">
+        <f t="shared" ref="K24:K35" si="4">D24+F24+H24+J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="76">
+        <f>'Word(20%)'!N21</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="30">
+        <f>'Excel(50%)'!N23</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="30">
+        <f>'PowerPoint (20%)'!N25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="18">
+      <c r="C26" s="76">
+        <f>'Word(20%)'!N22</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="30">
+        <f>'Excel(50%)'!N24</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="30">
         <f t="shared" si="2"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="I7" s="32">
-        <f>Attendance!E7</f>
-        <v>57.1</v>
-      </c>
-      <c r="J7" s="31">
+        <v>0</v>
+      </c>
+      <c r="G26" s="30">
+        <f>'PowerPoint (20%)'!N26</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="30">
         <f t="shared" si="3"/>
-        <v>5.7100000000000009</v>
-      </c>
-      <c r="K7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="18">
         <f t="shared" si="4"/>
-        <v>66.91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="4">
-        <f>'Word(20%)'!N4</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <f>'Excel(50%)'!N9</f>
-        <v>84</v>
-      </c>
-      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="76">
+        <f>'Word(20%)'!N23</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="30">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="G8" s="2">
-        <f>'PowerPoint (20%)'!O8</f>
-        <v>79</v>
-      </c>
-      <c r="H8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E27" s="30">
+        <f>'Excel(50%)'!N25</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="30">
         <f t="shared" si="2"/>
-        <v>15.8</v>
-      </c>
-      <c r="I8" s="32">
-        <f>Attendance!E8</f>
-        <v>60</v>
-      </c>
-      <c r="J8" s="31">
+        <v>0</v>
+      </c>
+      <c r="G27" s="30">
+        <f>'PowerPoint (20%)'!N27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="30">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="K8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="18">
         <f t="shared" si="4"/>
-        <v>63.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="4">
-        <f>'Word(20%)'!N5</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <f>'Excel(50%)'!N10</f>
-        <v>94</v>
-      </c>
-      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="76">
+        <f>'Word(20%)'!N24</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="30">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="G9" s="2">
-        <f>'PowerPoint (20%)'!O9</f>
-        <v>74</v>
-      </c>
-      <c r="H9" s="18">
+        <v>0</v>
+      </c>
+      <c r="E28" s="30">
+        <f>'Excel(50%)'!N26</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="30">
+        <f>E28/2</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="30">
+        <f>'PowerPoint (20%)'!N28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="76">
+        <f>'Word(20%)'!N25</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="30">
+        <f>'Excel(50%)'!N27</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="30">
         <f t="shared" si="2"/>
-        <v>14.8</v>
-      </c>
-      <c r="I9" s="32">
-        <f>Attendance!E9</f>
-        <v>100</v>
-      </c>
-      <c r="J9" s="31">
+        <v>0</v>
+      </c>
+      <c r="G29" s="30">
+        <f>'PowerPoint (20%)'!N29</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="30">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="18">
         <f t="shared" si="4"/>
-        <v>71.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="4">
-        <f>'Word(20%)'!N6</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <f>'Excel(50%)'!N11</f>
-        <v>46</v>
-      </c>
-      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="76">
+        <f>'Word(20%)'!N26</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="30">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="G10" s="2">
-        <f>'PowerPoint (20%)'!O10</f>
-        <v>65</v>
-      </c>
-      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="E30" s="30">
+        <f>'Excel(50%)'!N28</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="I10" s="32">
-        <f>Attendance!E10</f>
-        <v>33.299999999999997</v>
-      </c>
-      <c r="J10" s="31">
+        <v>0</v>
+      </c>
+      <c r="G30" s="30">
+        <f>'PowerPoint (20%)'!N30</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="30">
         <f t="shared" si="3"/>
-        <v>3.33</v>
-      </c>
-      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="18">
         <f t="shared" si="4"/>
-        <v>39.33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="4">
-        <f>'Word(20%)'!N7</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <f>'Excel(50%)'!N12</f>
-        <v>76</v>
-      </c>
-      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="76">
+        <f>'Word(20%)'!N27</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="30">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="G11" s="2">
-        <f>'PowerPoint (20%)'!O11</f>
-        <v>96</v>
-      </c>
-      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E31" s="30">
+        <f>'Excel(50%)'!N29</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="30">
         <f t="shared" si="2"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="I11" s="32">
-        <f>Attendance!E11</f>
-        <v>85.7</v>
-      </c>
-      <c r="J11" s="31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="30">
+        <f>'PowerPoint (20%)'!N31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="30">
         <f t="shared" si="3"/>
-        <v>8.57</v>
-      </c>
-      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="18">
         <f t="shared" si="4"/>
-        <v>65.77000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="4">
-        <f>'Word(20%)'!N8</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <f>'Excel(50%)'!N13</f>
-        <v>88</v>
-      </c>
-      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="76">
+        <f>'Word(20%)'!N28</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="30">
         <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="G12" s="2">
-        <f>'PowerPoint (20%)'!O12</f>
-        <v>65</v>
-      </c>
-      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E32" s="30">
+        <f>'Excel(50%)'!N30</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="I12" s="32">
-        <f>Attendance!E12</f>
-        <v>71.400000000000006</v>
-      </c>
-      <c r="J12" s="31">
+        <v>0</v>
+      </c>
+      <c r="G32" s="30">
+        <f>'PowerPoint (20%)'!N32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="30">
+        <f>G32/5</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="76">
+        <f>'Word(20%)'!N29</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="30">
+        <f>'Excel(50%)'!N31</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="30">
+        <f>'PowerPoint (20%)'!N33</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="30">
         <f t="shared" si="3"/>
-        <v>7.1400000000000006</v>
-      </c>
-      <c r="K12" s="19">
+        <v>0</v>
+      </c>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="18">
         <f t="shared" si="4"/>
-        <v>64.14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="4">
-        <f>'Word(20%)'!N9</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <f>'Excel(50%)'!N14</f>
-        <v>76</v>
-      </c>
-      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="76">
+        <f>'Word(20%)'!N30</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="30">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="G13" s="2">
-        <f>'PowerPoint (20%)'!O13</f>
-        <v>84</v>
-      </c>
-      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E34" s="30">
+        <f>'Excel(50%)'!N32</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="30">
         <f t="shared" si="2"/>
-        <v>16.8</v>
-      </c>
-      <c r="I13" s="32">
-        <f>Attendance!E13</f>
-        <v>85.7</v>
-      </c>
-      <c r="J13" s="31">
+        <v>0</v>
+      </c>
+      <c r="G34" s="30">
+        <f>'PowerPoint (20%)'!N34</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="30">
         <f t="shared" si="3"/>
-        <v>8.57</v>
-      </c>
-      <c r="K13" s="19">
+        <v>0</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="18">
         <f t="shared" si="4"/>
-        <v>63.37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="67" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="4">
-        <f>'Word(20%)'!N10</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <f>'Excel(50%)'!N15</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="76">
+        <f>'Word(20%)'!N31</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="2">
-        <f>'PowerPoint (20%)'!O14</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="18">
+      <c r="E35" s="30">
+        <f>'Excel(50%)'!N33</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I14" s="32">
-        <f>Attendance!E14</f>
-        <v>28.6</v>
-      </c>
-      <c r="J14" s="31">
+      <c r="G35" s="30">
+        <f>'PowerPoint (20%)'!N35</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="30">
         <f t="shared" si="3"/>
-        <v>2.8600000000000003</v>
-      </c>
-      <c r="K14" s="19">
+        <v>0</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="18">
         <f t="shared" si="4"/>
-        <v>2.8600000000000003</v>
-      </c>
-      <c r="L14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="4">
-        <f>'Word(20%)'!N11</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <f>'Excel(50%)'!N16</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <f>'PowerPoint (20%)'!O15</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="32">
-        <f>Attendance!E15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="4">
-        <f>'Word(20%)'!N12</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>24</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="G16" s="2">
-        <f>'PowerPoint (20%)'!O16</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="32">
-        <f>Attendance!E16</f>
-        <v>100</v>
-      </c>
-      <c r="J16" s="31">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K16" s="19">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="4">
-        <f>'Word(20%)'!N13</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <f>'Excel(50%)'!N18</f>
-        <v>95</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="1"/>
-        <v>47.5</v>
-      </c>
-      <c r="G17" s="2">
-        <f>'PowerPoint (20%)'!O17</f>
-        <v>81</v>
-      </c>
-      <c r="H17" s="18">
-        <f t="shared" si="2"/>
-        <v>16.2</v>
-      </c>
-      <c r="I17" s="32">
-        <f>Attendance!E17</f>
-        <v>100</v>
-      </c>
-      <c r="J17" s="31">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K17" s="19">
-        <f t="shared" si="4"/>
-        <v>73.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="4">
-        <f>'Word(20%)'!N14</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <f>'Excel(50%)'!N19</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <f>'PowerPoint (20%)'!O18</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="32">
-        <f>Attendance!E18</f>
-        <v>85.7</v>
-      </c>
-      <c r="J18" s="31">
-        <f t="shared" si="3"/>
-        <v>8.57</v>
-      </c>
-      <c r="K18" s="19">
-        <f t="shared" si="4"/>
-        <v>8.57</v>
-      </c>
-      <c r="L18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" s="4">
-        <f>'Word(20%)'!N15</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <f>'Excel(50%)'!N20</f>
-        <v>86</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="G19" s="2">
-        <f>'PowerPoint (20%)'!O19</f>
-        <v>74</v>
-      </c>
-      <c r="H19" s="18">
-        <f t="shared" si="2"/>
-        <v>14.8</v>
-      </c>
-      <c r="I19" s="32">
-        <f>Attendance!E19</f>
-        <v>85.7</v>
-      </c>
-      <c r="J19" s="31">
-        <f t="shared" si="3"/>
-        <v>8.57</v>
-      </c>
-      <c r="K19" s="19">
-        <f t="shared" si="4"/>
-        <v>66.37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" s="4">
-        <f>'Word(20%)'!N16</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <f>'Excel(50%)'!N21</f>
-        <v>56</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="G20" s="2">
-        <f>'PowerPoint (20%)'!O20</f>
-        <v>49</v>
-      </c>
-      <c r="H20" s="18">
-        <f t="shared" si="2"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I20" s="32">
-        <f>Attendance!E20</f>
-        <v>100</v>
-      </c>
-      <c r="J20" s="31">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K20" s="19">
-        <f t="shared" si="4"/>
-        <v>47.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" s="4">
-        <f>'Word(20%)'!N17</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <f>'Excel(50%)'!N22</f>
-        <v>85</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="1"/>
-        <v>42.5</v>
-      </c>
-      <c r="G21" s="2">
-        <f>'PowerPoint (20%)'!O21</f>
-        <v>78</v>
-      </c>
-      <c r="H21" s="18">
-        <f t="shared" si="2"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="I21" s="32">
-        <f>Attendance!E21</f>
-        <v>100</v>
-      </c>
-      <c r="J21" s="31">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K21" s="19">
-        <f t="shared" si="4"/>
-        <v>68.099999999999994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="B22" s="68" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="4">
-        <f>'Word(20%)'!N18</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <f>'Excel(50%)'!N23</f>
-        <v>61</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="1"/>
-        <v>30.5</v>
-      </c>
-      <c r="G22" s="2">
-        <f>'PowerPoint (20%)'!O22</f>
-        <v>84</v>
-      </c>
-      <c r="H22" s="18">
-        <f t="shared" si="2"/>
-        <v>16.8</v>
-      </c>
-      <c r="I22" s="32">
-        <f>Attendance!E22</f>
-        <v>100</v>
-      </c>
-      <c r="J22" s="31">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K22" s="19">
-        <f t="shared" si="4"/>
-        <v>57.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="B23" s="68" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="4">
-        <f>'Word(20%)'!N19</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <f>'Excel(50%)'!N24</f>
-        <v>95</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="1"/>
-        <v>47.5</v>
-      </c>
-      <c r="G23" s="2">
-        <f>'PowerPoint (20%)'!O23</f>
-        <v>80</v>
-      </c>
-      <c r="H23" s="18">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="I23" s="32">
-        <f>Attendance!E23</f>
-        <v>100</v>
-      </c>
-      <c r="J23" s="31">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K23" s="19">
-        <f t="shared" si="4"/>
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="B24" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" s="4">
-        <f>'Word(20%)'!N20</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" ref="D24:D26" si="5">C24*0.2</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <f>'Excel(50%)'!N25</f>
-        <v>95</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="1"/>
-        <v>47.5</v>
-      </c>
-      <c r="G24" s="2">
-        <f>'PowerPoint (20%)'!O24</f>
-        <v>78</v>
-      </c>
-      <c r="H24" s="18">
-        <f t="shared" si="2"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="I24" s="32">
-        <f>Attendance!E24</f>
-        <v>85.7</v>
-      </c>
-      <c r="J24" s="31">
-        <f t="shared" ref="J24:J26" si="6">I24*0.1</f>
-        <v>8.57</v>
-      </c>
-      <c r="K24" s="19">
-        <f t="shared" ref="K24:K26" si="7">D24+F24+H24+J24</f>
-        <v>71.67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="67" t="s">
-        <v>209</v>
-      </c>
-      <c r="B25" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="4">
-        <f>'Word(20%)'!N21</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <f>'Excel(50%)'!N26</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <f>'PowerPoint (20%)'!O25</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="32">
-        <f>Attendance!E25</f>
-        <v>71.400000000000006</v>
-      </c>
-      <c r="J25" s="31">
-        <f t="shared" si="6"/>
-        <v>7.1400000000000006</v>
-      </c>
-      <c r="K25" s="19">
-        <f t="shared" si="7"/>
-        <v>7.1400000000000006</v>
-      </c>
-      <c r="L25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="67" t="s">
-        <v>211</v>
-      </c>
-      <c r="B26" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="4">
-        <f>'Word(20%)'!N22</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <f>'Excel(50%)'!N27</f>
-        <v>84</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="G26" s="2">
-        <f>'PowerPoint (20%)'!O26</f>
-        <v>79</v>
-      </c>
-      <c r="H26" s="18">
-        <f t="shared" si="2"/>
-        <v>15.8</v>
-      </c>
-      <c r="I26" s="33">
-        <f>Attendance!E26</f>
-        <v>100</v>
-      </c>
-      <c r="J26" s="31">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="K26" s="19">
-        <f t="shared" si="7"/>
-        <v>67.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="67" t="s">
-        <v>213</v>
-      </c>
-      <c r="B27" s="68" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="67" t="s">
-        <v>215</v>
-      </c>
-      <c r="B28" s="68" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="B29" s="68" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="67" t="s">
-        <v>219</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="B31" s="68" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="B32" s="68" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="B33" s="68" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="69" t="s">
-        <v>227</v>
-      </c>
-      <c r="B34" s="70" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="69" t="s">
-        <v>229</v>
-      </c>
-      <c r="B35" s="70" t="s">
-        <v>230</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3016,51 +2725,6 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C6:C26">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
-      <formula>40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D26">
-    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E26">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
-      <formula>40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F26">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
-      <formula>20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G26">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
-      <formula>40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H26">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I26">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J26">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K26">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>40</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3069,11 +2733,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3088,821 +2752,821 @@
   <sheetData>
     <row r="1" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="80" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="80" t="s">
-        <v>242</v>
-      </c>
-      <c r="E1" s="80" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1" s="80" t="s">
-        <v>243</v>
-      </c>
-      <c r="G1" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="H1" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="I1" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="J1" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="K1" s="80" t="s">
-        <v>238</v>
-      </c>
-      <c r="L1" s="80" t="s">
-        <v>245</v>
-      </c>
-      <c r="M1" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79">
+      <c r="A2" s="36"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71">
         <v>5</v>
       </c>
-      <c r="D2" s="79">
+      <c r="D2" s="71">
         <v>5</v>
       </c>
-      <c r="E2" s="79">
+      <c r="E2" s="71">
         <v>5</v>
       </c>
-      <c r="F2" s="79">
+      <c r="F2" s="71">
         <v>5</v>
       </c>
-      <c r="G2" s="79">
+      <c r="G2" s="71">
         <v>5</v>
       </c>
-      <c r="H2" s="79">
+      <c r="H2" s="71">
         <v>15</v>
       </c>
-      <c r="I2" s="79">
+      <c r="I2" s="71">
         <v>25</v>
       </c>
-      <c r="J2" s="79">
+      <c r="J2" s="71">
         <v>10</v>
       </c>
-      <c r="K2" s="79">
+      <c r="K2" s="71">
         <v>20</v>
       </c>
-      <c r="L2" s="79">
+      <c r="L2" s="71">
         <v>5</v>
       </c>
-      <c r="M2" s="79"/>
+      <c r="M2" s="71"/>
       <c r="N2" s="1">
         <f>SUM(C2:L2)</f>
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
+      <c r="A3" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N31" si="0">SUM(C3:L3)</f>
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q3" s="72">
+        <v>23</v>
+      </c>
+      <c r="P3" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="64">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
+      <c r="A4" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
       <c r="N4" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P4" s="73" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q4" s="74">
+      <c r="P4" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q4" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
+      <c r="A5" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="71" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q5" s="72">
+      <c r="P5" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q5" s="64">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
+      <c r="A6" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="73" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q6" s="74">
+      <c r="P6" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q6" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
+      <c r="A7" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
       <c r="N7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="71" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q7" s="72">
+      <c r="P7" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q7" s="64">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
+      <c r="A8" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
       <c r="N8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="73" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q8" s="74">
+      <c r="P8" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q8" s="66">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
+      <c r="A9" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
       <c r="N9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P9" s="71" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q9" s="72">
+      <c r="P9" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q9" s="64">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
+      <c r="A10" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
       <c r="N10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q10" s="74">
+      <c r="P10" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="66">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
+      <c r="A11" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
       <c r="N11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q11" s="72">
+      <c r="P11" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q11" s="64">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
+      <c r="A12" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
       <c r="N12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="73" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q12" s="74">
+      <c r="P12" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q12" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
+      <c r="A13" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
       <c r="N13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P13" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="76">
+      <c r="P13" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="68">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="67" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
+      <c r="A14" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
       <c r="N14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="B15" s="68" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
+      <c r="A15" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
       <c r="N15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
+      <c r="A16" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
       <c r="N16" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67" t="s">
-        <v>201</v>
-      </c>
-      <c r="B17" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
+      <c r="A17" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
       <c r="N17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
+      <c r="A18" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
       <c r="N18" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
+      <c r="A19" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
       <c r="N19" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
+      <c r="A20" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
       <c r="N20" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67" t="s">
-        <v>209</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
+      <c r="A21" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
       <c r="N21" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67" t="s">
-        <v>211</v>
-      </c>
-      <c r="B22" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
+      <c r="A22" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
       <c r="N22" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23" s="68" t="s">
-        <v>214</v>
-      </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
+      <c r="A23" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
       <c r="N23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="67" t="s">
-        <v>215</v>
-      </c>
-      <c r="B24" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
+      <c r="A24" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
       <c r="N24" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="B25" s="68" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
+      <c r="A25" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
       <c r="N25" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="67" t="s">
-        <v>219</v>
-      </c>
-      <c r="B26" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
+      <c r="A26" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
       <c r="N26" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="B27" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
+      <c r="A27" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
       <c r="N27" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="B28" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
+      <c r="A28" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
       <c r="N28" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="B29" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
+      <c r="A29" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
       <c r="N29" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="69" t="s">
-        <v>227</v>
-      </c>
-      <c r="B30" s="70" t="s">
-        <v>228</v>
-      </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
+      <c r="A30" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
       <c r="N30" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="69" t="s">
-        <v>229</v>
-      </c>
-      <c r="B31" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
+      <c r="A31" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
       <c r="N31" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3915,20 +3579,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z297"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Z295"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:B1048576"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="14" width="10.83203125" style="9" customWidth="1"/>
     <col min="15" max="15" width="76.83203125" style="9" customWidth="1"/>
@@ -3943,19 +3607,30 @@
     <col min="29" max="29" width="80.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
+    <row r="1" spans="1:26" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
@@ -3968,24 +3643,42 @@
       <c r="Y1"/>
       <c r="Z1"/>
     </row>
-    <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2" s="15"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+    <row r="2" spans="1:26" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="49">
+        <f>SUM(D4:J4)</f>
+        <v>50</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="50">
+        <f>SUM(K4:M4)</f>
+        <v>40</v>
+      </c>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="21">
+        <f>SUM(C2:M2)</f>
+        <v>100</v>
+      </c>
+      <c r="O2" s="14"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
@@ -3993,78 +3686,95 @@
       <c r="Y2"/>
       <c r="Z2"/>
     </row>
-    <row r="3" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="48" t="s">
+    <row r="3" spans="1:26" s="25" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="21"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+    </row>
+    <row r="4" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="18">
         <v>10</v>
       </c>
-      <c r="D3" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-    </row>
-    <row r="4" spans="1:26" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="D4" s="18">
+        <v>8</v>
+      </c>
+      <c r="E4" s="18">
+        <v>10</v>
+      </c>
+      <c r="F4" s="18">
+        <v>10</v>
+      </c>
+      <c r="G4" s="18">
+        <v>8</v>
+      </c>
+      <c r="H4" s="18">
+        <v>4</v>
+      </c>
+      <c r="I4" s="18">
+        <v>8</v>
+      </c>
+      <c r="J4" s="18">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>10</v>
-      </c>
-      <c r="D4" s="57">
-        <f>SUM(D6:J6)</f>
-        <v>50</v>
-      </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="58">
-        <f>SUM(K6:M6)</f>
-        <v>40</v>
-      </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="22">
+      <c r="K4" s="22">
+        <v>15</v>
+      </c>
+      <c r="L4" s="22">
+        <v>20</v>
+      </c>
+      <c r="M4" s="22">
+        <v>5</v>
+      </c>
+      <c r="N4" s="21">
         <f>SUM(C4:M4)</f>
         <v>100</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
@@ -4072,95 +3782,69 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="1:26" s="26" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="J5" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="L5" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="M5" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="N5" s="22"/>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="21">
+        <f t="shared" ref="N5:N37" si="0">SUM(C5:M5)</f>
+        <v>0</v>
+      </c>
       <c r="O5" s="14"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-    </row>
-    <row r="6" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="19">
-        <v>10</v>
-      </c>
-      <c r="D6" s="19">
-        <v>8</v>
-      </c>
-      <c r="E6" s="19">
-        <v>10</v>
-      </c>
-      <c r="F6" s="19">
-        <v>10</v>
-      </c>
-      <c r="G6" s="19">
-        <v>8</v>
-      </c>
-      <c r="H6" s="19">
-        <v>4</v>
-      </c>
-      <c r="I6" s="19">
-        <v>8</v>
-      </c>
-      <c r="J6" s="19">
-        <v>2</v>
-      </c>
-      <c r="K6" s="23">
-        <v>15</v>
-      </c>
-      <c r="L6" s="23">
-        <v>20</v>
-      </c>
-      <c r="M6" s="23">
-        <v>5</v>
-      </c>
-      <c r="N6" s="22">
-        <f>SUM(C6:M6)</f>
-        <v>100</v>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O6" s="14"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -4169,52 +3853,28 @@
       <c r="Z6"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="19">
-        <v>6</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19">
-        <v>1</v>
-      </c>
-      <c r="G7" s="19">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0</v>
-      </c>
-      <c r="I7" s="19">
-        <v>0</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-      <c r="K7" s="28">
-        <v>1</v>
-      </c>
-      <c r="L7" s="19">
-        <v>1</v>
-      </c>
-      <c r="M7" s="19">
-        <v>0</v>
-      </c>
-      <c r="N7" s="22">
-        <f t="shared" ref="N7:N27" si="0">SUM(C7:M7)</f>
-        <v>11</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>158</v>
-      </c>
+      <c r="A7" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="14"/>
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
@@ -4228,48 +3888,26 @@
       <c r="Z7"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="19">
-        <v>10</v>
-      </c>
-      <c r="D8" s="19">
-        <v>8</v>
-      </c>
-      <c r="E8" s="19">
-        <v>8</v>
-      </c>
-      <c r="F8" s="19">
-        <v>10</v>
-      </c>
-      <c r="G8" s="19">
-        <v>8</v>
-      </c>
-      <c r="H8" s="19">
-        <v>4</v>
-      </c>
-      <c r="I8" s="19">
-        <v>0</v>
-      </c>
-      <c r="J8" s="19">
-        <v>2</v>
-      </c>
-      <c r="K8" s="24">
-        <v>15</v>
-      </c>
-      <c r="L8" s="19">
-        <v>15</v>
-      </c>
-      <c r="M8" s="19">
-        <v>4</v>
-      </c>
-      <c r="N8" s="22">
+      <c r="A8" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="21">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="O8" s="14"/>
       <c r="P8"/>
@@ -4285,48 +3923,26 @@
       <c r="Z8"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="19">
-        <v>8</v>
-      </c>
-      <c r="D9" s="19">
-        <v>8</v>
-      </c>
-      <c r="E9" s="19">
-        <v>10</v>
-      </c>
-      <c r="F9" s="19">
-        <v>10</v>
-      </c>
-      <c r="G9" s="19">
-        <v>8</v>
-      </c>
-      <c r="H9" s="19">
-        <v>4</v>
-      </c>
-      <c r="I9" s="19">
-        <v>0</v>
-      </c>
-      <c r="J9" s="19">
-        <v>2</v>
-      </c>
-      <c r="K9" s="24">
-        <v>15</v>
-      </c>
-      <c r="L9" s="19">
-        <v>15</v>
-      </c>
-      <c r="M9" s="19">
-        <v>4</v>
-      </c>
-      <c r="N9" s="22">
+      <c r="A9" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="21">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="O9" s="14"/>
       <c r="P9"/>
@@ -4342,48 +3958,26 @@
       <c r="Z9"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="19">
-        <v>9</v>
-      </c>
-      <c r="D10" s="19">
-        <v>8</v>
-      </c>
-      <c r="E10" s="19">
-        <v>10</v>
-      </c>
-      <c r="F10" s="19">
-        <v>10</v>
-      </c>
-      <c r="G10" s="19">
-        <v>8</v>
-      </c>
-      <c r="H10" s="19">
-        <v>4</v>
-      </c>
-      <c r="I10" s="19">
-        <v>8</v>
-      </c>
-      <c r="J10" s="19">
-        <v>2</v>
-      </c>
-      <c r="K10" s="19">
-        <v>15</v>
-      </c>
-      <c r="L10" s="19">
-        <v>15</v>
-      </c>
-      <c r="M10" s="19">
-        <v>5</v>
-      </c>
-      <c r="N10" s="22">
+      <c r="A10" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="21">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="O10" s="14"/>
       <c r="P10"/>
@@ -4399,52 +3993,28 @@
       <c r="Z10"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="19">
-        <v>10</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19">
-        <v>1</v>
-      </c>
-      <c r="G11" s="19">
-        <v>0</v>
-      </c>
-      <c r="H11" s="19">
-        <v>4</v>
-      </c>
-      <c r="I11" s="19">
-        <v>0</v>
-      </c>
-      <c r="J11" s="19">
-        <v>1</v>
-      </c>
-      <c r="K11" s="19">
-        <v>15</v>
-      </c>
-      <c r="L11" s="19">
-        <v>10</v>
-      </c>
-      <c r="M11" s="19">
-        <v>5</v>
-      </c>
-      <c r="N11" s="22">
+      <c r="A11" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="21">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O11" s="14"/>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
@@ -4458,48 +4028,26 @@
       <c r="Z11"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="19">
-        <v>10</v>
-      </c>
-      <c r="D12" s="19">
-        <v>8</v>
-      </c>
-      <c r="E12" s="19">
-        <v>7</v>
-      </c>
-      <c r="F12" s="19">
-        <v>10</v>
-      </c>
-      <c r="G12" s="19">
-        <v>0</v>
-      </c>
-      <c r="H12" s="19">
-        <v>4</v>
-      </c>
-      <c r="I12" s="19">
-        <v>0</v>
-      </c>
-      <c r="J12" s="19">
-        <v>2</v>
-      </c>
-      <c r="K12" s="19">
-        <v>15</v>
-      </c>
-      <c r="L12" s="19">
-        <v>15</v>
-      </c>
-      <c r="M12" s="19">
-        <v>5</v>
-      </c>
-      <c r="N12" s="22">
+      <c r="A12" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="21">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12"/>
@@ -4514,51 +4062,29 @@
       <c r="Y12"/>
       <c r="Z12"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="19">
-        <v>8</v>
-      </c>
-      <c r="D13" s="19">
-        <v>8</v>
-      </c>
-      <c r="E13" s="19">
-        <v>10</v>
-      </c>
-      <c r="F13" s="19">
-        <v>8</v>
-      </c>
-      <c r="G13" s="19">
-        <v>8</v>
-      </c>
-      <c r="H13" s="19">
-        <v>4</v>
-      </c>
-      <c r="I13" s="19">
-        <v>0</v>
-      </c>
-      <c r="J13" s="19">
-        <v>2</v>
-      </c>
-      <c r="K13" s="19">
-        <v>15</v>
-      </c>
-      <c r="L13" s="19">
-        <v>20</v>
-      </c>
-      <c r="M13" s="19">
-        <v>5</v>
-      </c>
-      <c r="N13" s="22">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="21">
         <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="O13" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
@@ -4571,51 +4097,29 @@
       <c r="Y13"/>
       <c r="Z13"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="19">
-        <v>8</v>
-      </c>
-      <c r="D14" s="19">
-        <v>8</v>
-      </c>
-      <c r="E14" s="19">
-        <v>10</v>
-      </c>
-      <c r="F14" s="19">
-        <v>10</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0</v>
-      </c>
-      <c r="H14" s="19">
-        <v>4</v>
-      </c>
-      <c r="I14" s="19">
-        <v>0</v>
-      </c>
-      <c r="J14" s="19">
-        <v>2</v>
-      </c>
-      <c r="K14" s="19">
-        <v>15</v>
-      </c>
-      <c r="L14" s="19">
-        <v>15</v>
-      </c>
-      <c r="M14" s="19">
-        <v>4</v>
-      </c>
-      <c r="N14" s="22">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="21">
         <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="O14" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
@@ -4629,30 +4133,28 @@
       <c r="Z14"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="22">
+      <c r="A15" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" t="s">
-        <v>161</v>
-      </c>
+      <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
@@ -4666,30 +4168,28 @@
       <c r="Z15"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="22">
+      <c r="A16" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O16" t="s">
-        <v>161</v>
-      </c>
+      <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
@@ -4703,52 +4203,28 @@
       <c r="Z16"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="19">
-        <v>10</v>
-      </c>
-      <c r="D17" s="19">
-        <v>8</v>
-      </c>
-      <c r="E17" s="19">
-        <v>2</v>
-      </c>
-      <c r="F17" s="19">
-        <v>4</v>
-      </c>
-      <c r="G17" s="19">
-        <v>0</v>
-      </c>
-      <c r="H17" s="19">
-        <v>0</v>
-      </c>
-      <c r="I17" s="19">
-        <v>0</v>
-      </c>
-      <c r="J17" s="19">
-        <v>0</v>
-      </c>
-      <c r="K17" s="19">
-        <v>0</v>
-      </c>
-      <c r="L17" s="19">
-        <v>0</v>
-      </c>
-      <c r="M17" s="19">
-        <v>0</v>
-      </c>
-      <c r="N17" s="22">
+      <c r="A17" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="21">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="O17" t="s">
-        <v>126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17"/>
@@ -4762,48 +4238,26 @@
       <c r="Z17"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="19">
-        <v>10</v>
-      </c>
-      <c r="D18" s="19">
-        <v>8</v>
-      </c>
-      <c r="E18" s="19">
-        <v>10</v>
-      </c>
-      <c r="F18" s="19">
-        <v>10</v>
-      </c>
-      <c r="G18" s="19">
-        <v>8</v>
-      </c>
-      <c r="H18" s="19">
-        <v>4</v>
-      </c>
-      <c r="I18" s="19">
-        <v>8</v>
-      </c>
-      <c r="J18" s="19">
-        <v>2</v>
-      </c>
-      <c r="K18" s="19">
-        <v>15</v>
-      </c>
-      <c r="L18" s="19">
-        <v>15</v>
-      </c>
-      <c r="M18" s="19">
-        <v>5</v>
-      </c>
-      <c r="N18" s="22">
+      <c r="A18" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="21">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="O18"/>
       <c r="P18"/>
@@ -4819,30 +4273,28 @@
       <c r="Z18"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="22">
+      <c r="A19" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O19" t="s">
-        <v>160</v>
-      </c>
+      <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
@@ -4856,48 +4308,26 @@
       <c r="Z19"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" s="19">
-        <v>10</v>
-      </c>
-      <c r="D20" s="19">
-        <v>8</v>
-      </c>
-      <c r="E20" s="19">
-        <v>10</v>
-      </c>
-      <c r="F20" s="19">
-        <v>10</v>
-      </c>
-      <c r="G20" s="19">
-        <v>7</v>
-      </c>
-      <c r="H20" s="19">
-        <v>4</v>
-      </c>
-      <c r="I20" s="19">
-        <v>0</v>
-      </c>
-      <c r="J20" s="19">
-        <v>2</v>
-      </c>
-      <c r="K20" s="19">
-        <v>15</v>
-      </c>
-      <c r="L20" s="19">
-        <v>15</v>
-      </c>
-      <c r="M20" s="19">
-        <v>5</v>
-      </c>
-      <c r="N20" s="22">
+      <c r="A20" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="21">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="O20"/>
       <c r="P20"/>
@@ -4913,48 +4343,26 @@
       <c r="Z20"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" s="19">
-        <v>7</v>
-      </c>
-      <c r="D21" s="19">
-        <v>8</v>
-      </c>
-      <c r="E21" s="19">
-        <v>0</v>
-      </c>
-      <c r="F21" s="19">
-        <v>4</v>
-      </c>
-      <c r="G21" s="19">
-        <v>0</v>
-      </c>
-      <c r="H21" s="19">
-        <v>0</v>
-      </c>
-      <c r="I21" s="19">
-        <v>0</v>
-      </c>
-      <c r="J21" s="19">
-        <v>2</v>
-      </c>
-      <c r="K21" s="19">
-        <v>15</v>
-      </c>
-      <c r="L21" s="19">
-        <v>15</v>
-      </c>
-      <c r="M21" s="19">
-        <v>5</v>
-      </c>
-      <c r="N21" s="22">
+      <c r="A21" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="21">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="O21"/>
       <c r="P21"/>
@@ -4970,48 +4378,26 @@
       <c r="Z21"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="B22" s="68" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="19">
-        <v>10</v>
-      </c>
-      <c r="D22" s="19">
-        <v>8</v>
-      </c>
-      <c r="E22" s="19">
-        <v>10</v>
-      </c>
-      <c r="F22" s="19">
-        <v>9</v>
-      </c>
-      <c r="G22" s="19">
-        <v>8</v>
-      </c>
-      <c r="H22" s="19">
-        <v>4</v>
-      </c>
-      <c r="I22" s="19">
-        <v>0</v>
-      </c>
-      <c r="J22" s="19">
-        <v>1</v>
-      </c>
-      <c r="K22" s="19">
-        <v>15</v>
-      </c>
-      <c r="L22" s="19">
-        <v>15</v>
-      </c>
-      <c r="M22" s="19">
-        <v>5</v>
-      </c>
-      <c r="N22" s="22">
+      <c r="A22" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="21">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="O22"/>
       <c r="P22"/>
@@ -5027,48 +4413,26 @@
       <c r="Z22"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="B23" s="68" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="19">
-        <v>8</v>
-      </c>
-      <c r="D23" s="19">
-        <v>8</v>
-      </c>
-      <c r="E23" s="19">
-        <v>0</v>
-      </c>
-      <c r="F23" s="19">
-        <v>10</v>
-      </c>
-      <c r="G23" s="19">
-        <v>0</v>
-      </c>
-      <c r="H23" s="19">
-        <v>0</v>
-      </c>
-      <c r="I23" s="19">
-        <v>0</v>
-      </c>
-      <c r="J23" s="19">
-        <v>2</v>
-      </c>
-      <c r="K23" s="19">
-        <v>15</v>
-      </c>
-      <c r="L23" s="19">
-        <v>15</v>
-      </c>
-      <c r="M23" s="19">
-        <v>3</v>
-      </c>
-      <c r="N23" s="22">
+      <c r="A23" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="21">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="O23"/>
       <c r="P23"/>
@@ -5084,48 +4448,26 @@
       <c r="Z23"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="B24" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" s="19">
-        <v>10</v>
-      </c>
-      <c r="D24" s="19">
-        <v>8</v>
-      </c>
-      <c r="E24" s="19">
-        <v>10</v>
-      </c>
-      <c r="F24" s="19">
-        <v>10</v>
-      </c>
-      <c r="G24" s="19">
-        <v>8</v>
-      </c>
-      <c r="H24" s="19">
-        <v>4</v>
-      </c>
-      <c r="I24" s="19">
-        <v>8</v>
-      </c>
-      <c r="J24" s="19">
-        <v>2</v>
-      </c>
-      <c r="K24" s="19">
-        <v>15</v>
-      </c>
-      <c r="L24" s="19">
-        <v>15</v>
-      </c>
-      <c r="M24" s="19">
-        <v>5</v>
-      </c>
-      <c r="N24" s="22">
+      <c r="A24" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="21">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="O24"/>
       <c r="P24"/>
@@ -5141,48 +4483,26 @@
       <c r="Z24"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="67" t="s">
-        <v>209</v>
-      </c>
-      <c r="B25" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="52">
-        <v>10</v>
-      </c>
-      <c r="D25" s="19">
-        <v>8</v>
-      </c>
-      <c r="E25" s="19">
-        <v>10</v>
-      </c>
-      <c r="F25" s="19">
-        <v>10</v>
-      </c>
-      <c r="G25" s="19">
-        <v>8</v>
-      </c>
-      <c r="H25" s="19">
-        <v>4</v>
-      </c>
-      <c r="I25" s="19">
-        <v>8</v>
-      </c>
-      <c r="J25" s="19">
-        <v>2</v>
-      </c>
-      <c r="K25" s="19">
-        <v>15</v>
-      </c>
-      <c r="L25" s="19">
-        <v>15</v>
-      </c>
-      <c r="M25" s="19">
-        <v>5</v>
-      </c>
-      <c r="N25" s="22">
+      <c r="A25" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="21">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="O25"/>
       <c r="P25"/>
@@ -5198,30 +4518,28 @@
       <c r="Z25"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="67" t="s">
-        <v>211</v>
-      </c>
-      <c r="B26" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O26" t="s">
-        <v>161</v>
-      </c>
+      <c r="A26" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="21">
+        <f>SUM(D26:M26)</f>
+        <v>0</v>
+      </c>
+      <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26"/>
@@ -5235,48 +4553,26 @@
       <c r="Z26"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="67" t="s">
-        <v>213</v>
-      </c>
-      <c r="B27" s="68" t="s">
-        <v>214</v>
-      </c>
-      <c r="C27" s="19">
-        <v>10</v>
-      </c>
-      <c r="D27" s="19">
-        <v>8</v>
-      </c>
-      <c r="E27" s="19">
-        <v>10</v>
-      </c>
-      <c r="F27" s="19">
-        <v>8</v>
-      </c>
-      <c r="G27" s="19">
-        <v>0</v>
-      </c>
-      <c r="H27" s="19">
-        <v>4</v>
-      </c>
-      <c r="I27" s="19">
-        <v>8</v>
-      </c>
-      <c r="J27" s="19">
-        <v>2</v>
-      </c>
-      <c r="K27" s="19">
-        <v>15</v>
-      </c>
-      <c r="L27" s="19">
-        <v>15</v>
-      </c>
-      <c r="M27" s="19">
-        <v>4</v>
-      </c>
-      <c r="N27" s="22">
-        <f t="shared" si="0"/>
-        <v>84</v>
+      <c r="A27" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="21">
+        <f>SUM(D27:M27)</f>
+        <v>0</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
@@ -5292,23 +4588,27 @@
       <c r="Z27"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="67" t="s">
-        <v>215</v>
-      </c>
-      <c r="B28" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
+      <c r="A28" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="21">
+        <f>SUM(D28:M28)</f>
+        <v>0</v>
+      </c>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
@@ -5323,23 +4623,27 @@
       <c r="Z28"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="B29" s="68" t="s">
-        <v>218</v>
-      </c>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
+      <c r="A29" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="21">
+        <f>SUM(D29:M29)</f>
+        <v>0</v>
+      </c>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
@@ -5354,23 +4658,27 @@
       <c r="Z29"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="67" t="s">
-        <v>219</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
+      <c r="A30" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="21">
+        <f>SUM(D30:M30)</f>
+        <v>0</v>
+      </c>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
@@ -5385,23 +4693,27 @@
       <c r="Z30"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="B31" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
+      <c r="A31" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="21">
+        <f>SUM(D31:M31)</f>
+        <v>0</v>
+      </c>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
@@ -5416,23 +4728,27 @@
       <c r="Z31"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="B32" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
+      <c r="A32" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="21">
+        <f>SUM(D32:M32)</f>
+        <v>0</v>
+      </c>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
@@ -5447,23 +4763,27 @@
       <c r="Z32"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="B33" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
+      <c r="A33" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="7">
+        <f>SUM(D33:M33)</f>
+        <v>0</v>
+      </c>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
@@ -5478,12 +4798,6 @@
       <c r="Z33"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="69" t="s">
-        <v>227</v>
-      </c>
-      <c r="B34" s="70" t="s">
-        <v>228</v>
-      </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
@@ -5509,12 +4823,6 @@
       <c r="Z34"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="69" t="s">
-        <v>229</v>
-      </c>
-      <c r="B35" s="70" t="s">
-        <v>230</v>
-      </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
@@ -5526,7 +4834,6 @@
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35"/>
-      <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35"/>
@@ -12039,87 +11346,914 @@
       <c r="Y295"/>
       <c r="Z295"/>
     </row>
-    <row r="296" spans="4:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D296"/>
-      <c r="E296"/>
-      <c r="F296"/>
-      <c r="G296"/>
-      <c r="H296"/>
-      <c r="I296"/>
-      <c r="J296"/>
-      <c r="K296"/>
-      <c r="L296"/>
-      <c r="M296"/>
-      <c r="N296"/>
-      <c r="O296"/>
-      <c r="P296"/>
-      <c r="Q296"/>
-      <c r="R296"/>
-      <c r="S296"/>
-      <c r="T296"/>
-      <c r="U296"/>
-      <c r="V296"/>
-      <c r="W296"/>
-      <c r="X296"/>
-      <c r="Y296"/>
-      <c r="Z296"/>
-    </row>
-    <row r="297" spans="4:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D297"/>
-      <c r="E297"/>
-      <c r="F297"/>
-      <c r="G297"/>
-      <c r="H297"/>
-      <c r="I297"/>
-      <c r="J297"/>
-      <c r="K297"/>
-      <c r="L297"/>
-      <c r="M297"/>
-      <c r="N297"/>
-      <c r="O297"/>
-      <c r="P297"/>
-      <c r="Q297"/>
-      <c r="R297"/>
-      <c r="S297"/>
-      <c r="T297"/>
-      <c r="U297"/>
-      <c r="V297"/>
-      <c r="W297"/>
-      <c r="X297"/>
-      <c r="Y297"/>
-      <c r="Z297"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="D1:J1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF98718E-EE97-384F-9209-17F38406292F}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C812C3E6-88E6-894F-B1C7-641BD53636A1}">
+  <dimension ref="A3:V35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="99" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>171</v>
+    <row r="3" spans="1:22" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3"/>
+      <c r="C3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28">
+        <v>10</v>
+      </c>
+      <c r="D4" s="28">
+        <v>5</v>
+      </c>
+      <c r="E4" s="28">
+        <v>10</v>
+      </c>
+      <c r="F4" s="28">
+        <v>10</v>
+      </c>
+      <c r="G4" s="28">
+        <v>10</v>
+      </c>
+      <c r="H4" s="28">
+        <v>10</v>
+      </c>
+      <c r="I4" s="28">
+        <v>10</v>
+      </c>
+      <c r="J4" s="28">
+        <v>10</v>
+      </c>
+      <c r="K4" s="28">
+        <v>5</v>
+      </c>
+      <c r="L4" s="28">
+        <v>10</v>
+      </c>
+      <c r="M4" s="28">
+        <v>10</v>
+      </c>
+      <c r="N4" s="28">
+        <f>SUM(C4:M4)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="28">
+        <f t="shared" ref="N5:N25" si="0">SUM(C5:M5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10" s="18"/>
+      <c r="V10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" s="18"/>
+      <c r="V11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="18"/>
+      <c r="V12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13" s="18"/>
+      <c r="V13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="18"/>
+      <c r="V14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15" s="18"/>
+      <c r="V15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="U16" s="18"/>
+      <c r="V16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="T17" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" s="18"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="T18" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18" s="18"/>
+      <c r="V18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="28">
+        <f t="shared" ref="N26:N35" si="1">SUM(C26:M26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12128,1217 +12262,57 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C812C3E6-88E6-894F-B1C7-641BD53636A1}">
-  <dimension ref="A3:W26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6285C8A1-0556-984B-B67F-D2ED9F008451}">
+  <dimension ref="A4:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" zoomScale="99" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="8" customWidth="1"/>
-    <col min="2" max="3" width="17.1640625" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:23" s="26" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="29">
-        <v>10</v>
-      </c>
-      <c r="E4" s="29">
-        <v>5</v>
-      </c>
-      <c r="F4" s="29">
-        <v>10</v>
-      </c>
-      <c r="G4" s="29">
-        <v>10</v>
-      </c>
-      <c r="H4" s="29">
-        <v>10</v>
-      </c>
-      <c r="I4" s="29">
-        <v>10</v>
-      </c>
-      <c r="J4" s="29">
-        <v>10</v>
-      </c>
-      <c r="K4" s="29">
-        <v>10</v>
-      </c>
-      <c r="L4" s="29">
-        <v>5</v>
-      </c>
-      <c r="M4" s="29">
-        <v>10</v>
-      </c>
-      <c r="N4" s="29">
-        <v>10</v>
-      </c>
-      <c r="O4" s="29">
-        <f>SUM(D4:N4)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="29">
-        <f t="shared" ref="O5:O25" si="0">SUM(D5:N5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="52">
-        <v>8</v>
-      </c>
-      <c r="E6" s="19">
-        <v>3</v>
-      </c>
-      <c r="F6" s="19">
-        <v>7</v>
-      </c>
-      <c r="G6" s="19">
-        <v>9</v>
-      </c>
-      <c r="H6" s="19">
-        <v>8</v>
-      </c>
-      <c r="I6" s="19">
-        <v>6</v>
-      </c>
-      <c r="J6" s="19">
-        <v>9</v>
-      </c>
-      <c r="K6" s="19">
-        <v>9</v>
-      </c>
-      <c r="L6" s="19">
-        <v>5</v>
-      </c>
-      <c r="M6" s="19">
-        <v>10</v>
-      </c>
-      <c r="N6" s="19">
-        <v>7</v>
-      </c>
-      <c r="O6" s="29">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="52">
-        <v>8</v>
-      </c>
-      <c r="E7" s="19">
-        <v>4</v>
-      </c>
-      <c r="F7" s="19">
-        <v>10</v>
-      </c>
-      <c r="G7" s="19">
-        <v>10</v>
-      </c>
-      <c r="H7" s="19">
-        <v>10</v>
-      </c>
-      <c r="I7" s="19">
-        <v>10</v>
-      </c>
-      <c r="J7" s="19">
-        <v>10</v>
-      </c>
-      <c r="K7" s="19">
-        <v>10</v>
-      </c>
-      <c r="L7" s="19">
-        <v>4</v>
-      </c>
-      <c r="M7" s="19">
-        <v>10</v>
-      </c>
-      <c r="N7" s="19">
-        <v>10</v>
-      </c>
-      <c r="O7" s="29">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="52">
-        <v>8</v>
-      </c>
-      <c r="E8" s="19">
-        <v>4</v>
-      </c>
-      <c r="F8" s="19">
-        <v>9</v>
-      </c>
-      <c r="G8" s="19">
-        <v>9</v>
-      </c>
-      <c r="H8" s="19">
-        <v>0</v>
-      </c>
-      <c r="I8" s="19">
-        <v>10</v>
-      </c>
-      <c r="J8" s="19">
-        <v>9</v>
-      </c>
-      <c r="K8" s="19">
-        <v>8</v>
-      </c>
-      <c r="L8" s="19">
-        <v>4</v>
-      </c>
-      <c r="M8" s="19">
-        <v>10</v>
-      </c>
-      <c r="N8" s="19">
-        <v>8</v>
-      </c>
-      <c r="O8" s="29">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="T8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="52">
-        <v>9</v>
-      </c>
-      <c r="E9" s="19">
-        <v>5</v>
-      </c>
-      <c r="F9" s="19">
-        <v>10</v>
-      </c>
-      <c r="G9" s="19">
-        <v>9</v>
-      </c>
-      <c r="H9" s="19">
-        <v>8</v>
-      </c>
-      <c r="I9" s="19">
-        <v>8</v>
-      </c>
-      <c r="J9" s="19">
-        <v>6</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0</v>
-      </c>
-      <c r="L9" s="19">
-        <v>4</v>
-      </c>
-      <c r="M9" s="19">
-        <v>7</v>
-      </c>
-      <c r="N9" s="19">
-        <v>8</v>
-      </c>
-      <c r="O9" s="29">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="52">
-        <v>8</v>
-      </c>
-      <c r="E10" s="19">
-        <v>2</v>
-      </c>
-      <c r="F10" s="19">
-        <v>7</v>
-      </c>
-      <c r="G10" s="19">
-        <v>8</v>
-      </c>
-      <c r="H10" s="19">
-        <v>7</v>
-      </c>
-      <c r="I10" s="19">
-        <v>8</v>
-      </c>
-      <c r="J10" s="19">
-        <v>4</v>
-      </c>
-      <c r="K10" s="19">
-        <v>0</v>
-      </c>
-      <c r="L10" s="19">
-        <v>4</v>
-      </c>
-      <c r="M10" s="19">
-        <v>10</v>
-      </c>
-      <c r="N10" s="19">
-        <v>7</v>
-      </c>
-      <c r="O10" s="29">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="P10" t="s">
-        <v>165</v>
-      </c>
-      <c r="T10" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="U10" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="V10" s="19"/>
-      <c r="W10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="52">
-        <v>8</v>
-      </c>
-      <c r="E11" s="19">
-        <v>4</v>
-      </c>
-      <c r="F11" s="19">
-        <v>10</v>
-      </c>
-      <c r="G11" s="19">
-        <v>10</v>
-      </c>
-      <c r="H11" s="19">
-        <v>10</v>
-      </c>
-      <c r="I11" s="19">
-        <v>10</v>
-      </c>
-      <c r="J11" s="19">
-        <v>10</v>
-      </c>
-      <c r="K11" s="19">
-        <v>10</v>
-      </c>
-      <c r="L11" s="19">
-        <v>4</v>
-      </c>
-      <c r="M11" s="19">
-        <v>10</v>
-      </c>
-      <c r="N11" s="19">
-        <v>10</v>
-      </c>
-      <c r="O11" s="29">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="T11" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="U11" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="V11" s="19"/>
-      <c r="W11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="52">
-        <v>8</v>
-      </c>
-      <c r="E12" s="19">
-        <v>2</v>
-      </c>
-      <c r="F12" s="19">
-        <v>7</v>
-      </c>
-      <c r="G12" s="19">
-        <v>8</v>
-      </c>
-      <c r="H12" s="19">
-        <v>7</v>
-      </c>
-      <c r="I12" s="19">
-        <v>8</v>
-      </c>
-      <c r="J12" s="19">
-        <v>4</v>
-      </c>
-      <c r="K12" s="19">
-        <v>0</v>
-      </c>
-      <c r="L12" s="19">
-        <v>4</v>
-      </c>
-      <c r="M12" s="19">
-        <v>10</v>
-      </c>
-      <c r="N12" s="19">
-        <v>7</v>
-      </c>
-      <c r="O12" s="29">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="T12" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="U12" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="V12" s="19"/>
-      <c r="W12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="52">
-        <v>9</v>
-      </c>
-      <c r="E13" s="19">
-        <v>4</v>
-      </c>
-      <c r="F13" s="19">
-        <v>10</v>
-      </c>
-      <c r="G13" s="19">
-        <v>10</v>
-      </c>
-      <c r="H13" s="19">
-        <v>8</v>
-      </c>
-      <c r="I13" s="19">
-        <v>8</v>
-      </c>
-      <c r="J13" s="19">
-        <v>8</v>
-      </c>
-      <c r="K13" s="19">
-        <v>8</v>
-      </c>
-      <c r="L13" s="19">
-        <v>4</v>
-      </c>
-      <c r="M13" s="19">
-        <v>7</v>
-      </c>
-      <c r="N13" s="19">
-        <v>8</v>
-      </c>
-      <c r="O13" s="29">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="T13" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="U13" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="V13" s="19"/>
-      <c r="W13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
-        <v>166</v>
-      </c>
-      <c r="T14" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="U14" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="V14" s="19"/>
-      <c r="W14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>166</v>
-      </c>
-      <c r="T15" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="U15" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="V15" s="19"/>
-      <c r="W15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="O16" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>166</v>
-      </c>
-      <c r="T16" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="U16" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="V16" s="19"/>
-      <c r="W16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="52">
-        <v>8</v>
-      </c>
-      <c r="E17" s="19">
-        <v>3</v>
-      </c>
-      <c r="F17" s="19">
-        <v>7</v>
-      </c>
-      <c r="G17" s="19">
-        <v>9</v>
-      </c>
-      <c r="H17" s="19">
-        <v>8</v>
-      </c>
-      <c r="I17" s="19">
-        <v>6</v>
-      </c>
-      <c r="J17" s="19">
-        <v>9</v>
-      </c>
-      <c r="K17" s="19">
-        <v>9</v>
-      </c>
-      <c r="L17" s="19">
-        <v>5</v>
-      </c>
-      <c r="M17" s="19">
-        <v>10</v>
-      </c>
-      <c r="N17" s="19">
-        <v>7</v>
-      </c>
-      <c r="O17" s="29">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="T17" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="U17" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="V17" s="19"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
-        <v>163</v>
-      </c>
-      <c r="T18" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="U18" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="V18" s="19"/>
-      <c r="W18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="52">
-        <v>9</v>
-      </c>
-      <c r="E19" s="19">
-        <v>5</v>
-      </c>
-      <c r="F19" s="19">
-        <v>10</v>
-      </c>
-      <c r="G19" s="19">
-        <v>9</v>
-      </c>
-      <c r="H19" s="19">
-        <v>8</v>
-      </c>
-      <c r="I19" s="19">
-        <v>8</v>
-      </c>
-      <c r="J19" s="19">
-        <v>6</v>
-      </c>
-      <c r="K19" s="19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="19">
-        <v>4</v>
-      </c>
-      <c r="M19" s="19">
-        <v>7</v>
-      </c>
-      <c r="N19" s="19">
-        <v>8</v>
-      </c>
-      <c r="O19" s="29">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="52">
-        <v>8</v>
-      </c>
-      <c r="E20" s="19">
-        <v>4</v>
-      </c>
-      <c r="F20" s="19">
-        <v>6</v>
-      </c>
-      <c r="G20" s="19">
-        <v>4</v>
-      </c>
-      <c r="H20" s="19">
-        <v>0</v>
-      </c>
-      <c r="I20" s="19">
-        <v>7</v>
-      </c>
-      <c r="J20" s="19">
-        <v>0</v>
-      </c>
-      <c r="K20" s="19">
-        <v>0</v>
-      </c>
-      <c r="L20" s="19">
-        <v>3</v>
-      </c>
-      <c r="M20" s="19">
-        <v>9</v>
-      </c>
-      <c r="N20" s="19">
-        <v>8</v>
-      </c>
-      <c r="O20" s="29">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="P20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="52">
-        <v>8</v>
-      </c>
-      <c r="E21" s="19">
-        <v>5</v>
-      </c>
-      <c r="F21" s="19">
-        <v>9</v>
-      </c>
-      <c r="G21" s="19">
-        <v>9</v>
-      </c>
-      <c r="H21" s="19">
-        <v>0</v>
-      </c>
-      <c r="I21" s="19">
-        <v>9</v>
-      </c>
-      <c r="J21" s="19">
-        <v>8</v>
-      </c>
-      <c r="K21" s="19">
-        <v>8</v>
-      </c>
-      <c r="L21" s="19">
-        <v>4</v>
-      </c>
-      <c r="M21" s="19">
-        <v>10</v>
-      </c>
-      <c r="N21" s="19">
-        <v>8</v>
-      </c>
-      <c r="O21" s="29">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="52">
-        <v>9</v>
-      </c>
-      <c r="E22" s="19">
-        <v>4</v>
-      </c>
-      <c r="F22" s="19">
-        <v>10</v>
-      </c>
-      <c r="G22" s="19">
-        <v>10</v>
-      </c>
-      <c r="H22" s="19">
-        <v>8</v>
-      </c>
-      <c r="I22" s="19">
-        <v>8</v>
-      </c>
-      <c r="J22" s="19">
-        <v>8</v>
-      </c>
-      <c r="K22" s="19">
-        <v>8</v>
-      </c>
-      <c r="L22" s="19">
-        <v>4</v>
-      </c>
-      <c r="M22" s="19">
-        <v>7</v>
-      </c>
-      <c r="N22" s="19">
-        <v>8</v>
-      </c>
-      <c r="O22" s="29">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="52">
-        <v>10</v>
-      </c>
-      <c r="E23" s="19">
-        <v>2</v>
-      </c>
-      <c r="F23" s="19">
-        <v>8</v>
-      </c>
-      <c r="G23" s="19">
-        <v>9</v>
-      </c>
-      <c r="H23" s="19">
-        <v>5</v>
-      </c>
-      <c r="I23" s="19">
-        <v>8</v>
-      </c>
-      <c r="J23" s="19">
-        <v>9</v>
-      </c>
-      <c r="K23" s="19">
-        <v>8</v>
-      </c>
-      <c r="L23" s="19">
-        <v>4</v>
-      </c>
-      <c r="M23" s="19">
-        <v>9</v>
-      </c>
-      <c r="N23" s="19">
-        <v>8</v>
-      </c>
-      <c r="O23" s="29">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="52">
-        <v>8</v>
-      </c>
-      <c r="E24" s="19">
-        <v>5</v>
-      </c>
-      <c r="F24" s="19">
-        <v>9</v>
-      </c>
-      <c r="G24" s="19">
-        <v>9</v>
-      </c>
-      <c r="H24" s="19">
-        <v>0</v>
-      </c>
-      <c r="I24" s="19">
-        <v>9</v>
-      </c>
-      <c r="J24" s="19">
-        <v>8</v>
-      </c>
-      <c r="K24" s="19">
-        <v>8</v>
-      </c>
-      <c r="L24" s="19">
-        <v>4</v>
-      </c>
-      <c r="M24" s="19">
-        <v>10</v>
-      </c>
-      <c r="N24" s="19">
-        <v>8</v>
-      </c>
-      <c r="O24" s="29">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="52">
-        <v>8</v>
-      </c>
-      <c r="E26" s="19">
-        <v>4</v>
-      </c>
-      <c r="F26" s="19">
-        <v>9</v>
-      </c>
-      <c r="G26" s="19">
-        <v>9</v>
-      </c>
-      <c r="H26" s="19">
-        <v>0</v>
-      </c>
-      <c r="I26" s="19">
-        <v>10</v>
-      </c>
-      <c r="J26" s="19">
-        <v>9</v>
-      </c>
-      <c r="K26" s="19">
-        <v>8</v>
-      </c>
-      <c r="L26" s="19">
-        <v>4</v>
-      </c>
-      <c r="M26" s="19">
-        <v>10</v>
-      </c>
-      <c r="N26" s="19">
-        <v>8</v>
-      </c>
-      <c r="O26" s="29">
-        <f t="shared" ref="O26" si="1">SUM(D26:N26)</f>
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{2E82979F-8546-AA42-BB2A-4F1605F5BE44}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6285C8A1-0556-984B-B67F-D2ED9F008451}">
-  <dimension ref="A1:U26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
     <col min="3" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="11"/>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="19">
-        <v>57.1</v>
-      </c>
+      <c r="A6" s="77"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -13353,21 +12327,15 @@
       <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="19">
-        <v>57.1</v>
-      </c>
+      <c r="A7" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -13382,21 +12350,15 @@
       <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="19">
+      <c r="A8" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="78" t="s">
         <v>60</v>
       </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -13411,21 +12373,15 @@
       <c r="T8" s="11"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="19">
-        <v>100</v>
-      </c>
+      <c r="A9" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -13440,21 +12396,15 @@
       <c r="T9" s="11"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="19">
-        <v>33.299999999999997</v>
-      </c>
+      <c r="A10" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -13469,21 +12419,15 @@
       <c r="T10" s="11"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="19">
-        <v>85.7</v>
-      </c>
+      <c r="A11" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -13498,21 +12442,15 @@
       <c r="T11" s="11"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="19">
-        <v>71.400000000000006</v>
-      </c>
+      <c r="A12" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -13527,21 +12465,15 @@
       <c r="T12" s="11"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="19">
-        <v>85.7</v>
-      </c>
+      <c r="A13" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -13556,21 +12488,15 @@
       <c r="T13" s="11"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="20">
-        <v>28.6</v>
-      </c>
+      <c r="A14" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -13585,563 +12511,234 @@
       <c r="T14" s="11"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="38" t="s">
+      <c r="A15" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="36" t="s">
+      <c r="B31" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="36" t="s">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="36" t="s">
+      <c r="B32" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="19">
-        <v>85.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="36" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="19">
-        <v>85.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="36" t="s">
+      <c r="B33" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="36" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="36" t="s">
+      <c r="B34" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="36" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="36" t="s">
+      <c r="B35" s="79" t="s">
         <v>114</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="19">
-        <v>85.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="19">
-        <v>71.400000000000006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="19">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6981378A-67CC-A647-A31A-85320D0BAE0A}">
-  <dimension ref="A4:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="78.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{264B269D-3187-DA4A-8FDF-7991F467B430}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/admin/ICT  - 25 - Marks.xlsx
+++ b/admin/ICT  - 25 - Marks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11003"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maireadmeagher/Documents/GitRepos/ICT-25/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BCC41E-332E-5B4F-85A0-13174AC903BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F2C9F0-0746-6C4D-87AE-23FBC0008680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="760" windowWidth="25000" windowHeight="17720" tabRatio="750" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33400" yWindow="3240" windowWidth="25000" windowHeight="17720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grade" sheetId="25" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="134">
   <si>
     <t>TOTAL</t>
   </si>
@@ -434,13 +434,25 @@
   </si>
   <si>
     <t>Bullets and Numbering</t>
+  </si>
+  <si>
+    <t>No submission</t>
+  </si>
+  <si>
+    <t>submitted the original pdf file with new name</t>
+  </si>
+  <si>
+    <t>Popova, Natalie</t>
+  </si>
+  <si>
+    <t>W20118064</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -561,6 +573,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -822,7 +840,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -931,6 +949,55 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,59 +1037,14 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1037,97 +1059,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -1153,8 +1085,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1490,13 +1422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E058B3-8A15-41C7-A4AC-31BB97B9A27A}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView zoomScale="134" zoomScaleNormal="297" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="297" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1509,22 +1441,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="48"/>
+      <c r="J1" s="67"/>
       <c r="K1" s="10" t="s">
         <v>7</v>
       </c>
@@ -1587,15 +1519,15 @@
     <row r="5" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
-      <c r="C5" s="73"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75">
+      <c r="J5" s="59"/>
+      <c r="K5" s="60">
         <f>D5+F5+H5+J5</f>
         <v>0</v>
       </c>
@@ -1603,7 +1535,7 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
-      <c r="C6" s="76"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
@@ -1617,13 +1549,13 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="76">
+      <c r="A7" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="61">
         <f>'Word(20%)'!N3</f>
         <v>0</v>
       </c>
@@ -1632,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="30">
-        <f>'Excel(50%)'!N5</f>
+        <f>'Excel(50%)'!N32</f>
         <v>0</v>
       </c>
       <c r="F7" s="30">
@@ -1640,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="30">
-        <f>'PowerPoint (20%)'!N7</f>
+        <f>'PowerPoint (20%)'!N34</f>
         <v>0</v>
       </c>
       <c r="H7" s="30">
@@ -1650,787 +1582,787 @@
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
       <c r="K7" s="18">
-        <f t="shared" si="0"/>
+        <f>D7+F7+H7+J7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="76">
+      <c r="A8" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="61">
         <f>'Word(20%)'!N4</f>
         <v>0</v>
       </c>
       <c r="D8" s="30">
-        <f t="shared" ref="D8:D35" si="1">C8/5</f>
+        <f>C8/5</f>
         <v>0</v>
       </c>
       <c r="E8" s="30">
-        <f>'Excel(50%)'!N6</f>
+        <f>'Excel(50%)'!N31</f>
         <v>0</v>
       </c>
       <c r="F8" s="30">
-        <f t="shared" ref="F8:F35" si="2">E8/2</f>
+        <f>E8/2</f>
         <v>0</v>
       </c>
       <c r="G8" s="30">
-        <f>'PowerPoint (20%)'!N8</f>
+        <f>'PowerPoint (20%)'!N33</f>
         <v>0</v>
       </c>
       <c r="H8" s="30">
-        <f t="shared" ref="H8:H35" si="3">G8/5</f>
+        <f>G8/5</f>
         <v>0</v>
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
       <c r="K8" s="18">
-        <f t="shared" si="0"/>
+        <f>D8+F8+H8+J8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="76">
+      <c r="A9" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="61">
         <f>'Word(20%)'!N5</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D9" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C9/5</f>
+        <v>17.399999999999999</v>
       </c>
       <c r="E9" s="30">
-        <f>'Excel(50%)'!N7</f>
+        <f>'Excel(50%)'!N32</f>
         <v>0</v>
       </c>
       <c r="F9" s="30">
-        <f t="shared" si="2"/>
+        <f>E9/2</f>
         <v>0</v>
       </c>
       <c r="G9" s="30">
-        <f>'PowerPoint (20%)'!N9</f>
+        <f>'PowerPoint (20%)'!N34</f>
         <v>0</v>
       </c>
       <c r="H9" s="30">
-        <f t="shared" si="3"/>
+        <f>G9/5</f>
         <v>0</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D9+F9+H9+J9</f>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="76">
+      <c r="A10" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="61">
         <f>'Word(20%)'!N6</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D10" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C10/5</f>
+        <v>18.399999999999999</v>
       </c>
       <c r="E10" s="30">
-        <f>'Excel(50%)'!N8</f>
+        <f>'Excel(50%)'!N5</f>
         <v>0</v>
       </c>
       <c r="F10" s="30">
-        <f t="shared" si="2"/>
+        <f>E10/2</f>
         <v>0</v>
       </c>
       <c r="G10" s="30">
-        <f>'PowerPoint (20%)'!N10</f>
+        <f>'PowerPoint (20%)'!N7</f>
         <v>0</v>
       </c>
       <c r="H10" s="30">
-        <f t="shared" si="3"/>
+        <f>G10/5</f>
         <v>0</v>
       </c>
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
       <c r="K10" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D10+F10+H10+J10</f>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="76">
+      <c r="A11" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="61">
         <f>'Word(20%)'!N7</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D11" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C11/5</f>
+        <v>18.399999999999999</v>
       </c>
       <c r="E11" s="30">
-        <f>'Excel(50%)'!N9</f>
+        <f>'Excel(50%)'!N6</f>
         <v>0</v>
       </c>
       <c r="F11" s="30">
-        <f t="shared" si="2"/>
+        <f>E11/2</f>
         <v>0</v>
       </c>
       <c r="G11" s="30">
-        <f>'PowerPoint (20%)'!N11</f>
+        <f>'PowerPoint (20%)'!N8</f>
         <v>0</v>
       </c>
       <c r="H11" s="30">
-        <f t="shared" si="3"/>
+        <f>G11/5</f>
         <v>0</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
       <c r="K11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D11+F11+H11+J11</f>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="76">
+      <c r="A12" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="61">
         <f>'Word(20%)'!N8</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D12" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C12/5</f>
+        <v>19</v>
       </c>
       <c r="E12" s="30">
-        <f>'Excel(50%)'!N10</f>
+        <f>'Excel(50%)'!N7</f>
         <v>0</v>
       </c>
       <c r="F12" s="30">
-        <f t="shared" si="2"/>
+        <f>E12/2</f>
         <v>0</v>
       </c>
       <c r="G12" s="30">
-        <f>'PowerPoint (20%)'!N12</f>
+        <f>'PowerPoint (20%)'!N9</f>
         <v>0</v>
       </c>
       <c r="H12" s="30">
-        <f t="shared" si="3"/>
+        <f>G12/5</f>
         <v>0</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
       <c r="K12" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D12+F12+H12+J12</f>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="76">
+      <c r="A13" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="61">
         <f>'Word(20%)'!N9</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D13" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C13/5</f>
+        <v>19.600000000000001</v>
       </c>
       <c r="E13" s="30">
-        <f>'Excel(50%)'!N11</f>
+        <f>'Excel(50%)'!N8</f>
         <v>0</v>
       </c>
       <c r="F13" s="30">
-        <f t="shared" si="2"/>
+        <f>E13/2</f>
         <v>0</v>
       </c>
       <c r="G13" s="30">
-        <f>'PowerPoint (20%)'!N13</f>
+        <f>'PowerPoint (20%)'!N10</f>
         <v>0</v>
       </c>
       <c r="H13" s="30">
-        <f t="shared" si="3"/>
+        <f>G13/5</f>
         <v>0</v>
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
       <c r="K13" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D13+F13+H13+J13</f>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="76">
+      <c r="A14" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="61">
         <f>'Word(20%)'!N10</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D14" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C14/5</f>
+        <v>18.8</v>
       </c>
       <c r="E14" s="30">
-        <f>'Excel(50%)'!N12</f>
+        <f>'Excel(50%)'!N9</f>
         <v>0</v>
       </c>
       <c r="F14" s="30">
-        <f t="shared" si="2"/>
+        <f>E14/2</f>
         <v>0</v>
       </c>
       <c r="G14" s="30">
-        <f>'PowerPoint (20%)'!N14</f>
+        <f>'PowerPoint (20%)'!N11</f>
         <v>0</v>
       </c>
       <c r="H14" s="30">
-        <f t="shared" si="3"/>
+        <f>G14/5</f>
         <v>0</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
       <c r="K14" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D14+F14+H14+J14</f>
+        <v>18.8</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="76">
+      <c r="A15" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="61">
         <f>'Word(20%)'!N11</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D15" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C15/5</f>
+        <v>19</v>
       </c>
       <c r="E15" s="30">
-        <f>'Excel(50%)'!N13</f>
+        <f>'Excel(50%)'!N33</f>
         <v>0</v>
       </c>
       <c r="F15" s="30">
-        <f t="shared" si="2"/>
+        <f>E15/2</f>
         <v>0</v>
       </c>
       <c r="G15" s="30">
-        <f>'PowerPoint (20%)'!N15</f>
+        <f>'PowerPoint (20%)'!N35</f>
         <v>0</v>
       </c>
       <c r="H15" s="30">
-        <f t="shared" si="3"/>
+        <f>G15/5</f>
         <v>0</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
       <c r="K15" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D15+F15+H15+J15</f>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="76">
+      <c r="A16" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="61">
         <f>'Word(20%)'!N12</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D16" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C16/5</f>
+        <v>20</v>
       </c>
       <c r="E16" s="30">
-        <f>'Excel(50%)'!N14</f>
+        <f>'Excel(50%)'!N10</f>
         <v>0</v>
       </c>
       <c r="F16" s="30">
-        <f t="shared" si="2"/>
+        <f>E16/2</f>
         <v>0</v>
       </c>
       <c r="G16" s="30">
-        <f>'PowerPoint (20%)'!N16</f>
+        <f>'PowerPoint (20%)'!N12</f>
         <v>0</v>
       </c>
       <c r="H16" s="30">
-        <f t="shared" si="3"/>
+        <f>G16/5</f>
         <v>0</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
       <c r="K16" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D16+F16+H16+J16</f>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="76">
+      <c r="A17" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="61">
         <f>'Word(20%)'!N13</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D17" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C17/5</f>
+        <v>19.2</v>
       </c>
       <c r="E17" s="30">
-        <f>'Excel(50%)'!N15</f>
+        <f>'Excel(50%)'!N11</f>
         <v>0</v>
       </c>
       <c r="F17" s="30">
-        <f t="shared" si="2"/>
+        <f>E17/2</f>
         <v>0</v>
       </c>
       <c r="G17" s="30">
-        <f>'PowerPoint (20%)'!N17</f>
+        <f>'PowerPoint (20%)'!N13</f>
         <v>0</v>
       </c>
       <c r="H17" s="30">
-        <f t="shared" si="3"/>
+        <f>G17/5</f>
         <v>0</v>
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
       <c r="K17" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D17+F17+H17+J17</f>
+        <v>19.2</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="76">
+      <c r="A18" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="61">
         <f>'Word(20%)'!N14</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D18" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C18/5</f>
+        <v>19.8</v>
       </c>
       <c r="E18" s="30">
-        <f>'Excel(50%)'!N16</f>
+        <f>'Excel(50%)'!N12</f>
         <v>0</v>
       </c>
       <c r="F18" s="30">
-        <f t="shared" si="2"/>
+        <f>E18/2</f>
         <v>0</v>
       </c>
       <c r="G18" s="30">
-        <f>'PowerPoint (20%)'!N18</f>
+        <f>'PowerPoint (20%)'!N14</f>
         <v>0</v>
       </c>
       <c r="H18" s="30">
-        <f t="shared" si="3"/>
+        <f>G18/5</f>
         <v>0</v>
       </c>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
       <c r="K18" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D18+F18+H18+J18</f>
+        <v>19.8</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="76">
+      <c r="A19" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="61">
         <f>'Word(20%)'!N15</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D19" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C19/5</f>
+        <v>18</v>
       </c>
       <c r="E19" s="30">
-        <f>'Excel(50%)'!N17</f>
+        <f>'Excel(50%)'!N28</f>
         <v>0</v>
       </c>
       <c r="F19" s="30">
-        <f t="shared" si="2"/>
+        <f>E19/2</f>
         <v>0</v>
       </c>
       <c r="G19" s="30">
-        <f>'PowerPoint (20%)'!N19</f>
+        <f>'PowerPoint (20%)'!N30</f>
         <v>0</v>
       </c>
       <c r="H19" s="30">
-        <f t="shared" si="3"/>
+        <f>G19/5</f>
         <v>0</v>
       </c>
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
       <c r="K19" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D19+F19+H19+J19</f>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="76">
+      <c r="A20" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="61">
         <f>'Word(20%)'!N16</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D20" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C20/5</f>
+        <v>18</v>
       </c>
       <c r="E20" s="30">
-        <f>'Excel(50%)'!N18</f>
+        <f>'Excel(50%)'!N13</f>
         <v>0</v>
       </c>
       <c r="F20" s="30">
-        <f t="shared" si="2"/>
+        <f>E20/2</f>
         <v>0</v>
       </c>
       <c r="G20" s="30">
-        <f>'PowerPoint (20%)'!N20</f>
+        <f>'PowerPoint (20%)'!N15</f>
         <v>0</v>
       </c>
       <c r="H20" s="30">
-        <f t="shared" si="3"/>
+        <f>G20/5</f>
         <v>0</v>
       </c>
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
       <c r="K20" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D20+F20+H20+J20</f>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="76">
+      <c r="A21" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="61">
         <f>'Word(20%)'!N17</f>
         <v>0</v>
       </c>
       <c r="D21" s="30">
-        <f t="shared" si="1"/>
+        <f>C21/5</f>
         <v>0</v>
       </c>
       <c r="E21" s="30">
-        <f>'Excel(50%)'!N19</f>
+        <f>'Excel(50%)'!N14</f>
         <v>0</v>
       </c>
       <c r="F21" s="30">
-        <f t="shared" si="2"/>
+        <f>E21/2</f>
         <v>0</v>
       </c>
       <c r="G21" s="30">
-        <f>'PowerPoint (20%)'!N21</f>
+        <f>'PowerPoint (20%)'!N16</f>
         <v>0</v>
       </c>
       <c r="H21" s="30">
-        <f t="shared" si="3"/>
+        <f>G21/5</f>
         <v>0</v>
       </c>
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
       <c r="K21" s="18">
-        <f t="shared" si="0"/>
+        <f>D21+F21+H21+J21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="76">
+      <c r="A22" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="61">
         <f>'Word(20%)'!N18</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D22" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C22/5</f>
+        <v>19.2</v>
       </c>
       <c r="E22" s="30">
-        <f>'Excel(50%)'!N20</f>
+        <f>'Excel(50%)'!N15</f>
         <v>0</v>
       </c>
       <c r="F22" s="30">
-        <f t="shared" si="2"/>
+        <f>E22/2</f>
         <v>0</v>
       </c>
       <c r="G22" s="30">
-        <f>'PowerPoint (20%)'!N22</f>
+        <f>'PowerPoint (20%)'!N17</f>
         <v>0</v>
       </c>
       <c r="H22" s="30">
-        <f t="shared" si="3"/>
+        <f>G22/5</f>
         <v>0</v>
       </c>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
       <c r="K22" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D22+F22+H22+J22</f>
+        <v>19.2</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="76">
+      <c r="A23" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="61">
         <f>'Word(20%)'!N19</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D23" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C23/5</f>
+        <v>18.8</v>
       </c>
       <c r="E23" s="30">
-        <f>'Excel(50%)'!N21</f>
+        <f>'Excel(50%)'!N16</f>
         <v>0</v>
       </c>
       <c r="F23" s="30">
-        <f t="shared" si="2"/>
+        <f>E23/2</f>
         <v>0</v>
       </c>
       <c r="G23" s="30">
-        <f>'PowerPoint (20%)'!N23</f>
+        <f>'PowerPoint (20%)'!N18</f>
         <v>0</v>
       </c>
       <c r="H23" s="30">
-        <f t="shared" si="3"/>
+        <f>G23/5</f>
         <v>0</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
       <c r="K23" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D23+F23+H23+J23</f>
+        <v>18.8</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="76">
+      <c r="A24" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="61">
         <f>'Word(20%)'!N20</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D24" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C24/5</f>
+        <v>19.399999999999999</v>
       </c>
       <c r="E24" s="30">
-        <f>'Excel(50%)'!N22</f>
+        <f>'Excel(50%)'!N29</f>
         <v>0</v>
       </c>
       <c r="F24" s="30">
-        <f t="shared" si="2"/>
+        <f>E24/2</f>
         <v>0</v>
       </c>
       <c r="G24" s="30">
-        <f>'PowerPoint (20%)'!N24</f>
+        <f>'PowerPoint (20%)'!N31</f>
         <v>0</v>
       </c>
       <c r="H24" s="30">
-        <f t="shared" si="3"/>
+        <f>G24/5</f>
         <v>0</v>
       </c>
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
       <c r="K24" s="18">
-        <f t="shared" ref="K24:K35" si="4">D24+F24+H24+J24</f>
-        <v>0</v>
+        <f>D24+F24+H24+J24</f>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="76">
+      <c r="A25" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="61">
         <f>'Word(20%)'!N21</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D25" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C25/5</f>
+        <v>20</v>
       </c>
       <c r="E25" s="30">
-        <f>'Excel(50%)'!N23</f>
+        <f>'Excel(50%)'!N30</f>
         <v>0</v>
       </c>
       <c r="F25" s="30">
-        <f t="shared" si="2"/>
+        <f>E25/2</f>
         <v>0</v>
       </c>
       <c r="G25" s="30">
-        <f>'PowerPoint (20%)'!N25</f>
+        <f>'PowerPoint (20%)'!N32</f>
         <v>0</v>
       </c>
       <c r="H25" s="30">
-        <f t="shared" si="3"/>
+        <f>G25/5</f>
         <v>0</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
       <c r="K25" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>D25+F25+H25+J25</f>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="76">
+      <c r="A26" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="61">
         <f>'Word(20%)'!N22</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D26" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C26/5</f>
+        <v>17.2</v>
       </c>
       <c r="E26" s="30">
-        <f>'Excel(50%)'!N24</f>
+        <f>'Excel(50%)'!N17</f>
         <v>0</v>
       </c>
       <c r="F26" s="30">
-        <f t="shared" si="2"/>
+        <f>E26/2</f>
         <v>0</v>
       </c>
       <c r="G26" s="30">
-        <f>'PowerPoint (20%)'!N26</f>
+        <f>'PowerPoint (20%)'!N19</f>
         <v>0</v>
       </c>
       <c r="H26" s="30">
-        <f t="shared" si="3"/>
+        <f>G26/5</f>
         <v>0</v>
       </c>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
       <c r="K26" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>D26+F26+H26+J26</f>
+        <v>17.2</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="76">
+      <c r="A27" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="61">
         <f>'Word(20%)'!N23</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D27" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C27/5</f>
+        <v>18.8</v>
       </c>
       <c r="E27" s="30">
-        <f>'Excel(50%)'!N25</f>
+        <f>'Excel(50%)'!N18</f>
         <v>0</v>
       </c>
       <c r="F27" s="30">
-        <f t="shared" si="2"/>
+        <f>E27/2</f>
         <v>0</v>
       </c>
       <c r="G27" s="30">
-        <f>'PowerPoint (20%)'!N27</f>
+        <f>'PowerPoint (20%)'!N20</f>
         <v>0</v>
       </c>
       <c r="H27" s="30">
-        <f t="shared" si="3"/>
+        <f>G27/5</f>
         <v>0</v>
       </c>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
       <c r="K27" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>D27+F27+H27+J27</f>
+        <v>18.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="76">
+      <c r="A28" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="61">
         <f>'Word(20%)'!N24</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D28" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C28/5</f>
+        <v>19.399999999999999</v>
       </c>
       <c r="E28" s="30">
-        <f>'Excel(50%)'!N26</f>
+        <f>'Excel(50%)'!N19</f>
         <v>0</v>
       </c>
       <c r="F28" s="30">
@@ -2438,159 +2370,159 @@
         <v>0</v>
       </c>
       <c r="G28" s="30">
-        <f>'PowerPoint (20%)'!N28</f>
+        <f>'PowerPoint (20%)'!N21</f>
         <v>0</v>
       </c>
       <c r="H28" s="30">
-        <f t="shared" si="3"/>
+        <f>G28/5</f>
         <v>0</v>
       </c>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
       <c r="K28" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>D28+F28+H28+J28</f>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="76">
+      <c r="A29" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="61">
         <f>'Word(20%)'!N25</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D29" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C29/5</f>
+        <v>19.2</v>
       </c>
       <c r="E29" s="30">
-        <f>'Excel(50%)'!N27</f>
+        <f>'Excel(50%)'!N20</f>
         <v>0</v>
       </c>
       <c r="F29" s="30">
-        <f t="shared" si="2"/>
+        <f>E29/2</f>
         <v>0</v>
       </c>
       <c r="G29" s="30">
-        <f>'PowerPoint (20%)'!N29</f>
+        <f>'PowerPoint (20%)'!N22</f>
         <v>0</v>
       </c>
       <c r="H29" s="30">
-        <f t="shared" si="3"/>
+        <f>G29/5</f>
         <v>0</v>
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
       <c r="K29" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>D29+F29+H29+J29</f>
+        <v>19.2</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="76">
+      <c r="A30" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="61">
         <f>'Word(20%)'!N26</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D30" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C30/5</f>
+        <v>16.8</v>
       </c>
       <c r="E30" s="30">
-        <f>'Excel(50%)'!N28</f>
+        <f>'Excel(50%)'!N21</f>
         <v>0</v>
       </c>
       <c r="F30" s="30">
-        <f t="shared" si="2"/>
+        <f>E30/2</f>
         <v>0</v>
       </c>
       <c r="G30" s="30">
-        <f>'PowerPoint (20%)'!N30</f>
+        <f>'PowerPoint (20%)'!N23</f>
         <v>0</v>
       </c>
       <c r="H30" s="30">
-        <f t="shared" si="3"/>
+        <f>G30/5</f>
         <v>0</v>
       </c>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
       <c r="K30" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>D30+F30+H30+J30</f>
+        <v>16.8</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="76">
+      <c r="A31" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="61">
         <f>'Word(20%)'!N27</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D31" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C31/5</f>
+        <v>15.8</v>
       </c>
       <c r="E31" s="30">
-        <f>'Excel(50%)'!N29</f>
+        <f>'Excel(50%)'!N22</f>
         <v>0</v>
       </c>
       <c r="F31" s="30">
-        <f t="shared" si="2"/>
+        <f>E31/2</f>
         <v>0</v>
       </c>
       <c r="G31" s="30">
-        <f>'PowerPoint (20%)'!N31</f>
+        <f>'PowerPoint (20%)'!N24</f>
         <v>0</v>
       </c>
       <c r="H31" s="30">
-        <f t="shared" si="3"/>
+        <f>G31/5</f>
         <v>0</v>
       </c>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
       <c r="K31" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>D31+F31+H31+J31</f>
+        <v>15.8</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="76">
+      <c r="A32" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="61">
         <f>'Word(20%)'!N28</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D32" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C32/5</f>
+        <v>18.600000000000001</v>
       </c>
       <c r="E32" s="30">
-        <f>'Excel(50%)'!N30</f>
+        <f>'Excel(50%)'!N23</f>
         <v>0</v>
       </c>
       <c r="F32" s="30">
-        <f t="shared" si="2"/>
+        <f>E32/2</f>
         <v>0</v>
       </c>
       <c r="G32" s="30">
-        <f>'PowerPoint (20%)'!N32</f>
+        <f>'PowerPoint (20%)'!N25</f>
         <v>0</v>
       </c>
       <c r="H32" s="30">
@@ -2600,125 +2532,166 @@
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>D32+F32+H32+J32</f>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="69" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="76">
+      <c r="A33" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="61">
         <f>'Word(20%)'!N29</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D33" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C33/5</f>
+        <v>19</v>
       </c>
       <c r="E33" s="30">
-        <f>'Excel(50%)'!N31</f>
+        <f>'Excel(50%)'!N24</f>
         <v>0</v>
       </c>
       <c r="F33" s="30">
-        <f t="shared" si="2"/>
+        <f>E33/2</f>
         <v>0</v>
       </c>
       <c r="G33" s="30">
-        <f>'PowerPoint (20%)'!N33</f>
+        <f>'PowerPoint (20%)'!N26</f>
         <v>0</v>
       </c>
       <c r="H33" s="30">
-        <f t="shared" si="3"/>
+        <f>G33/5</f>
         <v>0</v>
       </c>
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
       <c r="K33" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>D33+F33+H33+J33</f>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="76">
+      <c r="A34" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="61">
         <f>'Word(20%)'!N30</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D34" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C34/5</f>
+        <v>19.8</v>
       </c>
       <c r="E34" s="30">
-        <f>'Excel(50%)'!N32</f>
+        <f>'Excel(50%)'!N25</f>
         <v>0</v>
       </c>
       <c r="F34" s="30">
-        <f t="shared" si="2"/>
+        <f>E34/2</f>
         <v>0</v>
       </c>
       <c r="G34" s="30">
-        <f>'PowerPoint (20%)'!N34</f>
+        <f>'PowerPoint (20%)'!N27</f>
         <v>0</v>
       </c>
       <c r="H34" s="30">
-        <f t="shared" si="3"/>
+        <f>G34/5</f>
         <v>0</v>
       </c>
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
       <c r="K34" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>D34+F34+H34+J34</f>
+        <v>19.8</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="76">
+      <c r="A35" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="61">
         <f>'Word(20%)'!N31</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D35" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C35/5</f>
+        <v>19.2</v>
       </c>
       <c r="E35" s="30">
-        <f>'Excel(50%)'!N33</f>
+        <f>'Excel(50%)'!N26</f>
         <v>0</v>
       </c>
       <c r="F35" s="30">
-        <f t="shared" si="2"/>
+        <f>E35/2</f>
         <v>0</v>
       </c>
       <c r="G35" s="30">
-        <f>'PowerPoint (20%)'!N35</f>
+        <f>'PowerPoint (20%)'!N28</f>
         <v>0</v>
       </c>
       <c r="H35" s="30">
-        <f t="shared" si="3"/>
+        <f>G35/5</f>
         <v>0</v>
       </c>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>D35+F35+H35+J35</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="61">
+        <f>'Word(20%)'!N32</f>
+        <v>97</v>
+      </c>
+      <c r="D36" s="80">
+        <f>C36/5</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E36" s="80">
+        <f>'Excel(50%)'!N27</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="80">
+        <f>E36/2</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="80">
+        <f>'PowerPoint (20%)'!N29</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="80">
+        <f>G36/5</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="81">
+        <f>D36+F36+H36+J36</f>
+        <v>19.399999999999999</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:K36">
+    <sortCondition ref="B7:B36"/>
+  </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -2731,13 +2704,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="M19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2757,37 +2730,37 @@
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="M1" s="57" t="s">
         <v>7</v>
       </c>
       <c r="N1" s="7" t="s">
@@ -2799,780 +2772,1345 @@
     </row>
     <row r="2" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71">
-        <v>5</v>
-      </c>
-      <c r="D2" s="71">
-        <v>5</v>
-      </c>
-      <c r="E2" s="71">
-        <v>5</v>
-      </c>
-      <c r="F2" s="71">
-        <v>5</v>
-      </c>
-      <c r="G2" s="71">
-        <v>5</v>
-      </c>
-      <c r="H2" s="71">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56">
+        <v>5</v>
+      </c>
+      <c r="D2" s="56">
+        <v>5</v>
+      </c>
+      <c r="E2" s="56">
+        <v>5</v>
+      </c>
+      <c r="F2" s="56">
+        <v>5</v>
+      </c>
+      <c r="G2" s="56">
+        <v>5</v>
+      </c>
+      <c r="H2" s="56">
         <v>15</v>
       </c>
-      <c r="I2" s="71">
+      <c r="I2" s="56">
         <v>25</v>
       </c>
-      <c r="J2" s="71">
+      <c r="J2" s="56">
         <v>10</v>
       </c>
-      <c r="K2" s="71">
+      <c r="K2" s="56">
         <v>20</v>
       </c>
-      <c r="L2" s="71">
-        <v>5</v>
-      </c>
-      <c r="M2" s="71"/>
+      <c r="L2" s="56">
+        <v>5</v>
+      </c>
+      <c r="M2" s="56"/>
       <c r="N2" s="1">
         <f>SUM(C2:L2)</f>
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="48"/>
+      <c r="N3" s="1">
+        <f>SUM(C3:L3)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="1">
+        <f>SUM(C4:L4)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q4" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="46">
+        <v>5</v>
+      </c>
+      <c r="D5" s="46">
+        <v>2</v>
+      </c>
+      <c r="E5" s="46">
+        <v>5</v>
+      </c>
+      <c r="F5" s="46">
+        <v>5</v>
+      </c>
+      <c r="G5" s="46">
+        <v>5</v>
+      </c>
+      <c r="H5" s="46">
+        <v>12</v>
+      </c>
+      <c r="I5" s="46">
+        <v>18</v>
+      </c>
+      <c r="J5" s="46">
+        <v>10</v>
+      </c>
+      <c r="K5" s="46">
+        <v>20</v>
+      </c>
+      <c r="L5" s="46">
+        <v>5</v>
+      </c>
+      <c r="N5" s="1">
+        <f>SUM(C5:L5)</f>
+        <v>87</v>
+      </c>
+      <c r="P5" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q5" s="51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B6" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="1">
-        <f t="shared" ref="N3:N31" si="0">SUM(C3:L3)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="C6" s="46">
+        <v>5</v>
+      </c>
+      <c r="D6" s="46">
+        <v>5</v>
+      </c>
+      <c r="E6" s="46">
+        <v>0</v>
+      </c>
+      <c r="F6" s="46">
+        <v>5</v>
+      </c>
+      <c r="G6" s="46">
+        <v>5</v>
+      </c>
+      <c r="H6" s="46">
+        <v>15</v>
+      </c>
+      <c r="I6" s="46">
+        <v>22</v>
+      </c>
+      <c r="J6" s="46">
+        <v>10</v>
+      </c>
+      <c r="K6" s="46">
+        <v>20</v>
+      </c>
+      <c r="L6" s="46">
+        <v>5</v>
+      </c>
+      <c r="M6" s="46"/>
+      <c r="N6" s="1">
+        <f>SUM(C6:L6)</f>
+        <v>92</v>
+      </c>
+      <c r="O6" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q3" s="64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="P6" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q6" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B7" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="C7" s="46">
+        <v>5</v>
+      </c>
+      <c r="D7" s="46">
+        <v>3</v>
+      </c>
+      <c r="E7" s="46">
+        <v>5</v>
+      </c>
+      <c r="F7" s="46">
+        <v>5</v>
+      </c>
+      <c r="G7" s="46">
+        <v>5</v>
+      </c>
+      <c r="H7" s="46">
+        <v>15</v>
+      </c>
+      <c r="I7" s="46">
+        <v>25</v>
+      </c>
+      <c r="J7" s="46">
+        <v>10</v>
+      </c>
+      <c r="K7" s="46">
+        <v>14</v>
+      </c>
+      <c r="L7" s="46">
+        <v>5</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="1">
+        <f>SUM(C7:L7)</f>
+        <v>92</v>
+      </c>
+      <c r="P7" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q7" s="51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B8" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q5" s="64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="C8" s="46">
+        <v>5</v>
+      </c>
+      <c r="D8" s="46">
+        <v>3</v>
+      </c>
+      <c r="E8" s="46">
+        <v>5</v>
+      </c>
+      <c r="F8" s="46">
+        <v>5</v>
+      </c>
+      <c r="G8" s="46">
+        <v>5</v>
+      </c>
+      <c r="H8" s="46">
+        <v>12</v>
+      </c>
+      <c r="I8" s="46">
+        <v>25</v>
+      </c>
+      <c r="J8" s="46">
+        <v>10</v>
+      </c>
+      <c r="K8" s="46">
+        <v>20</v>
+      </c>
+      <c r="L8" s="46">
+        <v>5</v>
+      </c>
+      <c r="M8" s="46"/>
+      <c r="N8" s="1">
+        <f>SUM(C8:L8)</f>
+        <v>95</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q8" s="53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B9" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q6" s="66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="C9" s="46">
+        <v>5</v>
+      </c>
+      <c r="D9" s="46">
+        <v>5</v>
+      </c>
+      <c r="E9" s="46">
+        <v>5</v>
+      </c>
+      <c r="F9" s="46">
+        <v>5</v>
+      </c>
+      <c r="G9" s="46">
+        <v>4</v>
+      </c>
+      <c r="H9" s="46">
+        <v>14</v>
+      </c>
+      <c r="I9" s="46">
+        <v>25</v>
+      </c>
+      <c r="J9" s="46">
+        <v>10</v>
+      </c>
+      <c r="K9" s="46">
+        <v>20</v>
+      </c>
+      <c r="L9" s="46">
+        <v>5</v>
+      </c>
+      <c r="M9" s="46"/>
+      <c r="N9" s="1">
+        <f>SUM(C9:L9)</f>
+        <v>98</v>
+      </c>
+      <c r="P9" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q9" s="51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B10" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q7" s="64">
+      <c r="C10" s="46">
+        <v>5</v>
+      </c>
+      <c r="D10" s="46">
+        <v>3</v>
+      </c>
+      <c r="E10" s="46">
+        <v>5</v>
+      </c>
+      <c r="F10" s="46">
+        <v>5</v>
+      </c>
+      <c r="G10" s="46">
+        <v>3</v>
+      </c>
+      <c r="H10" s="46">
+        <v>13</v>
+      </c>
+      <c r="I10" s="46">
+        <v>25</v>
+      </c>
+      <c r="J10" s="46">
+        <v>10</v>
+      </c>
+      <c r="K10" s="46">
+        <v>20</v>
+      </c>
+      <c r="L10" s="46">
+        <v>5</v>
+      </c>
+      <c r="M10" s="46"/>
+      <c r="N10" s="1">
+        <f>SUM(C10:L10)</f>
+        <v>94</v>
+      </c>
+      <c r="P10" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="46">
+        <v>5</v>
+      </c>
+      <c r="D11" s="46">
+        <v>5</v>
+      </c>
+      <c r="E11" s="46">
+        <v>5</v>
+      </c>
+      <c r="F11" s="46">
+        <v>3</v>
+      </c>
+      <c r="G11" s="46">
+        <v>5</v>
+      </c>
+      <c r="H11" s="46">
+        <v>12</v>
+      </c>
+      <c r="I11" s="78">
+        <v>25</v>
+      </c>
+      <c r="J11" s="78">
+        <v>10</v>
+      </c>
+      <c r="K11" s="78">
+        <v>20</v>
+      </c>
+      <c r="L11" s="78">
+        <v>5</v>
+      </c>
+      <c r="M11" s="48"/>
+      <c r="N11" s="1">
+        <f>SUM(C11:L11)</f>
+        <v>95</v>
+      </c>
+      <c r="P11" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q11" s="51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="46">
+        <v>5</v>
+      </c>
+      <c r="D12" s="46">
+        <v>5</v>
+      </c>
+      <c r="E12" s="46">
+        <v>5</v>
+      </c>
+      <c r="F12" s="46">
+        <v>5</v>
+      </c>
+      <c r="G12" s="46">
+        <v>5</v>
+      </c>
+      <c r="H12" s="46">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q8" s="66">
+      <c r="I12" s="46">
+        <v>25</v>
+      </c>
+      <c r="J12" s="46">
+        <v>10</v>
+      </c>
+      <c r="K12" s="46">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="L12" s="46">
+        <v>5</v>
+      </c>
+      <c r="M12" s="46"/>
+      <c r="N12" s="1">
+        <f>SUM(C12:L12)</f>
+        <v>100</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q12" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B13" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q9" s="64">
+      <c r="C13" s="46">
+        <v>5</v>
+      </c>
+      <c r="D13" s="46">
+        <v>4</v>
+      </c>
+      <c r="E13" s="46">
+        <v>5</v>
+      </c>
+      <c r="F13" s="46">
+        <v>5</v>
+      </c>
+      <c r="G13" s="46">
+        <v>5</v>
+      </c>
+      <c r="H13" s="46">
+        <v>12</v>
+      </c>
+      <c r="I13" s="46">
+        <v>25</v>
+      </c>
+      <c r="J13" s="46">
+        <v>10</v>
+      </c>
+      <c r="K13" s="46">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="L13" s="46">
+        <v>5</v>
+      </c>
+      <c r="M13" s="46"/>
+      <c r="N13" s="1">
+        <f>SUM(C13:L13)</f>
+        <v>96</v>
+      </c>
+      <c r="P13" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B14" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q10" s="66">
+      <c r="C14" s="46">
+        <v>5</v>
+      </c>
+      <c r="D14" s="46">
+        <v>5</v>
+      </c>
+      <c r="E14" s="46">
+        <v>5</v>
+      </c>
+      <c r="F14" s="46">
+        <v>5</v>
+      </c>
+      <c r="G14" s="46">
+        <v>5</v>
+      </c>
+      <c r="H14" s="46">
+        <v>14</v>
+      </c>
+      <c r="I14" s="46">
+        <v>25</v>
+      </c>
+      <c r="J14" s="46">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="K14" s="46">
+        <v>20</v>
+      </c>
+      <c r="L14" s="46">
+        <v>5</v>
+      </c>
+      <c r="M14" s="46"/>
+      <c r="N14" s="1">
+        <f>SUM(C14:L14)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="46">
+        <v>5</v>
+      </c>
+      <c r="D15" s="46">
+        <v>4</v>
+      </c>
+      <c r="E15" s="46">
+        <v>5</v>
+      </c>
+      <c r="F15" s="46">
+        <v>4</v>
+      </c>
+      <c r="G15" s="46">
+        <v>4</v>
+      </c>
+      <c r="H15" s="46">
+        <v>13</v>
+      </c>
+      <c r="I15" s="46">
+        <v>20</v>
+      </c>
+      <c r="J15" s="46">
+        <v>10</v>
+      </c>
+      <c r="K15" s="46">
+        <v>20</v>
+      </c>
+      <c r="L15" s="46">
+        <v>5</v>
+      </c>
+      <c r="M15" s="46"/>
+      <c r="N15" s="1">
+        <f>SUM(C15:L15)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B16" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q11" s="64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="C16" s="46">
+        <v>5</v>
+      </c>
+      <c r="D16" s="46">
+        <v>3</v>
+      </c>
+      <c r="E16" s="46">
+        <v>5</v>
+      </c>
+      <c r="F16" s="46">
+        <v>5</v>
+      </c>
+      <c r="G16" s="46">
+        <v>4</v>
+      </c>
+      <c r="H16" s="46">
+        <v>13</v>
+      </c>
+      <c r="I16" s="46">
+        <v>25</v>
+      </c>
+      <c r="J16" s="46">
+        <v>10</v>
+      </c>
+      <c r="K16" s="46">
+        <v>15</v>
+      </c>
+      <c r="L16" s="46">
+        <v>5</v>
+      </c>
+      <c r="M16" s="46"/>
+      <c r="N16" s="1">
+        <f>SUM(C16:L16)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B17" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q12" s="66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="1">
+        <f>SUM(C17:L17)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B18" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q13" s="68">
+      <c r="C18" s="46">
+        <v>5</v>
+      </c>
+      <c r="D18" s="46">
+        <v>3</v>
+      </c>
+      <c r="E18" s="46">
+        <v>5</v>
+      </c>
+      <c r="F18" s="46">
+        <v>5</v>
+      </c>
+      <c r="G18" s="46">
+        <v>5</v>
+      </c>
+      <c r="H18" s="46">
+        <v>13</v>
+      </c>
+      <c r="I18" s="46">
+        <v>25</v>
+      </c>
+      <c r="J18" s="46">
+        <v>10</v>
+      </c>
+      <c r="K18" s="46">
+        <v>20</v>
+      </c>
+      <c r="L18" s="46">
+        <v>5</v>
+      </c>
+      <c r="M18" s="46"/>
+      <c r="N18" s="1">
+        <f>SUM(C18:L18)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="46">
+        <v>5</v>
+      </c>
+      <c r="D19" s="46">
+        <v>5</v>
+      </c>
+      <c r="E19" s="46">
+        <v>5</v>
+      </c>
+      <c r="F19" s="46">
+        <v>5</v>
+      </c>
+      <c r="G19" s="46">
+        <v>5</v>
+      </c>
+      <c r="H19" s="46">
+        <v>11</v>
+      </c>
+      <c r="I19" s="46">
+        <v>25</v>
+      </c>
+      <c r="J19" s="46">
+        <v>10</v>
+      </c>
+      <c r="K19" s="46">
+        <v>18</v>
+      </c>
+      <c r="L19" s="46">
+        <v>5</v>
+      </c>
+      <c r="M19" s="46"/>
+      <c r="N19" s="1">
+        <f>SUM(C19:L19)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="46">
+        <v>5</v>
+      </c>
+      <c r="D20" s="46">
+        <v>3</v>
+      </c>
+      <c r="E20" s="46">
+        <v>5</v>
+      </c>
+      <c r="F20" s="46">
+        <v>5</v>
+      </c>
+      <c r="G20" s="46">
+        <v>5</v>
+      </c>
+      <c r="H20" s="46">
+        <v>14</v>
+      </c>
+      <c r="I20" s="46">
+        <v>25</v>
+      </c>
+      <c r="J20" s="46">
+        <v>10</v>
+      </c>
+      <c r="K20" s="46">
+        <v>20</v>
+      </c>
+      <c r="L20" s="46">
+        <v>5</v>
+      </c>
+      <c r="M20" s="46"/>
+      <c r="N20" s="1">
+        <f>SUM(C20:L20)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="46">
+        <v>5</v>
+      </c>
+      <c r="D21" s="46">
+        <v>5</v>
+      </c>
+      <c r="E21" s="46">
+        <v>5</v>
+      </c>
+      <c r="F21" s="46">
+        <v>5</v>
+      </c>
+      <c r="G21" s="46">
+        <v>5</v>
+      </c>
+      <c r="H21" s="46">
+        <v>15</v>
+      </c>
+      <c r="I21" s="46">
+        <v>25</v>
+      </c>
+      <c r="J21" s="46">
+        <v>10</v>
+      </c>
+      <c r="K21" s="46">
+        <v>20</v>
+      </c>
+      <c r="L21" s="46">
+        <v>5</v>
+      </c>
+      <c r="M21" s="46"/>
+      <c r="N21" s="1">
+        <f>SUM(C21:L21)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="59" t="s">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="46">
+        <v>5</v>
+      </c>
+      <c r="D22" s="46">
+        <v>3</v>
+      </c>
+      <c r="E22" s="46">
+        <v>5</v>
+      </c>
+      <c r="F22" s="46">
+        <v>5</v>
+      </c>
+      <c r="G22" s="46">
+        <v>2</v>
+      </c>
+      <c r="H22" s="46">
+        <v>6</v>
+      </c>
+      <c r="I22" s="46">
+        <v>25</v>
+      </c>
+      <c r="J22" s="46">
+        <v>10</v>
+      </c>
+      <c r="K22" s="46">
+        <v>20</v>
+      </c>
+      <c r="L22" s="46">
+        <v>5</v>
+      </c>
+      <c r="M22" s="46"/>
+      <c r="N22" s="1">
+        <f>SUM(C22:L22)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="46">
+        <v>5</v>
+      </c>
+      <c r="D23" s="46">
+        <v>5</v>
+      </c>
+      <c r="E23" s="46">
+        <v>5</v>
+      </c>
+      <c r="F23" s="46">
+        <v>5</v>
+      </c>
+      <c r="G23" s="46">
+        <v>5</v>
+      </c>
+      <c r="H23" s="46">
+        <v>13</v>
+      </c>
+      <c r="I23" s="46">
+        <v>25</v>
+      </c>
+      <c r="J23" s="46">
+        <v>10</v>
+      </c>
+      <c r="K23" s="46">
+        <v>16</v>
+      </c>
+      <c r="L23" s="46">
+        <v>5</v>
+      </c>
+      <c r="M23" s="46"/>
+      <c r="N23" s="1">
+        <f>SUM(C23:L23)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="46">
+        <v>5</v>
+      </c>
+      <c r="D24" s="46">
+        <v>5</v>
+      </c>
+      <c r="E24" s="46">
+        <v>5</v>
+      </c>
+      <c r="F24" s="46">
+        <v>3</v>
+      </c>
+      <c r="G24" s="46">
+        <v>4</v>
+      </c>
+      <c r="H24" s="46">
+        <v>15</v>
+      </c>
+      <c r="I24" s="46">
+        <v>25</v>
+      </c>
+      <c r="J24" s="46">
+        <v>10</v>
+      </c>
+      <c r="K24" s="46">
+        <v>20</v>
+      </c>
+      <c r="L24" s="46">
+        <v>5</v>
+      </c>
+      <c r="M24" s="46"/>
+      <c r="N24" s="1">
+        <f>SUM(C24:L24)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="46">
+        <v>5</v>
+      </c>
+      <c r="D25" s="46">
+        <v>5</v>
+      </c>
+      <c r="E25" s="46">
+        <v>5</v>
+      </c>
+      <c r="F25" s="46">
+        <v>4</v>
+      </c>
+      <c r="G25" s="46">
+        <v>4</v>
+      </c>
+      <c r="H25" s="46">
+        <v>15</v>
+      </c>
+      <c r="I25" s="46">
+        <v>25</v>
+      </c>
+      <c r="J25" s="46">
+        <v>10</v>
+      </c>
+      <c r="K25" s="46">
+        <v>20</v>
+      </c>
+      <c r="L25" s="46">
+        <v>3</v>
+      </c>
+      <c r="M25" s="46"/>
+      <c r="N25" s="1">
+        <f>SUM(C25:L25)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="46">
+        <v>5</v>
+      </c>
+      <c r="D26" s="46">
+        <v>5</v>
+      </c>
+      <c r="E26" s="46">
+        <v>5</v>
+      </c>
+      <c r="F26" s="46">
+        <v>3</v>
+      </c>
+      <c r="G26" s="46">
+        <v>1</v>
+      </c>
+      <c r="H26" s="46">
+        <v>10</v>
+      </c>
+      <c r="I26" s="46">
+        <v>20</v>
+      </c>
+      <c r="J26" s="46">
+        <v>10</v>
+      </c>
+      <c r="K26" s="46">
+        <v>20</v>
+      </c>
+      <c r="L26" s="46">
+        <v>5</v>
+      </c>
+      <c r="M26" s="46"/>
+      <c r="N26" s="1">
+        <f>SUM(C26:L26)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="46">
+        <v>5</v>
+      </c>
+      <c r="D27" s="46">
+        <v>3</v>
+      </c>
+      <c r="E27" s="46">
+        <v>5</v>
+      </c>
+      <c r="F27" s="46">
+        <v>4</v>
+      </c>
+      <c r="G27" s="46">
+        <v>2</v>
+      </c>
+      <c r="H27" s="46">
+        <v>8</v>
+      </c>
+      <c r="I27" s="46">
+        <v>25</v>
+      </c>
+      <c r="J27" s="46">
+        <v>10</v>
+      </c>
+      <c r="K27" s="46">
+        <v>12</v>
+      </c>
+      <c r="L27" s="46">
+        <v>5</v>
+      </c>
+      <c r="M27" s="46"/>
+      <c r="N27" s="1">
+        <f>SUM(C27:L27)</f>
         <v>79</v>
       </c>
-      <c r="B14" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59" t="s">
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B28" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59" t="s">
+      <c r="C28" s="46">
+        <v>5</v>
+      </c>
+      <c r="D28" s="46">
+        <v>3</v>
+      </c>
+      <c r="E28" s="46">
+        <v>4</v>
+      </c>
+      <c r="F28" s="46">
+        <v>5</v>
+      </c>
+      <c r="G28" s="46">
+        <v>3</v>
+      </c>
+      <c r="H28" s="46">
+        <v>15</v>
+      </c>
+      <c r="I28" s="46">
+        <v>25</v>
+      </c>
+      <c r="J28" s="46">
+        <v>10</v>
+      </c>
+      <c r="K28" s="46">
+        <v>20</v>
+      </c>
+      <c r="L28" s="46">
+        <v>3</v>
+      </c>
+      <c r="M28" s="46"/>
+      <c r="N28" s="1">
+        <f>SUM(C28:L28)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B29" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="59" t="s">
+      <c r="C29" s="46">
+        <v>5</v>
+      </c>
+      <c r="D29" s="46">
+        <v>5</v>
+      </c>
+      <c r="E29" s="46">
+        <v>5</v>
+      </c>
+      <c r="F29" s="46">
+        <v>5</v>
+      </c>
+      <c r="G29" s="46">
+        <v>4</v>
+      </c>
+      <c r="H29" s="46">
+        <v>12</v>
+      </c>
+      <c r="I29" s="46">
+        <v>25</v>
+      </c>
+      <c r="J29" s="46">
+        <v>10</v>
+      </c>
+      <c r="K29" s="46">
+        <v>20</v>
+      </c>
+      <c r="L29" s="46">
+        <v>4</v>
+      </c>
+      <c r="M29" s="46"/>
+      <c r="N29" s="1">
+        <f>SUM(C29:L29)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B30" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59" t="s">
+      <c r="C30" s="46">
+        <v>5</v>
+      </c>
+      <c r="D30" s="46">
+        <v>5</v>
+      </c>
+      <c r="E30" s="46">
+        <v>5</v>
+      </c>
+      <c r="F30" s="46">
+        <v>5</v>
+      </c>
+      <c r="G30" s="46">
+        <v>5</v>
+      </c>
+      <c r="H30" s="46">
+        <v>14</v>
+      </c>
+      <c r="I30" s="46">
+        <v>25</v>
+      </c>
+      <c r="J30" s="46">
+        <v>10</v>
+      </c>
+      <c r="K30" s="46">
+        <v>20</v>
+      </c>
+      <c r="L30" s="46">
+        <v>5</v>
+      </c>
+      <c r="M30" s="46"/>
+      <c r="N30" s="1">
+        <f>SUM(C30:L30)</f>
         <v>99</v>
       </c>
-      <c r="B24" s="60" t="s">
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="59" t="s">
+      <c r="C31" s="46">
+        <v>5</v>
+      </c>
+      <c r="D31" s="46">
+        <v>5</v>
+      </c>
+      <c r="E31" s="46">
+        <v>5</v>
+      </c>
+      <c r="F31" s="46">
+        <v>5</v>
+      </c>
+      <c r="G31" s="46">
+        <v>4</v>
+      </c>
+      <c r="H31" s="46">
+        <v>13</v>
+      </c>
+      <c r="I31" s="46">
+        <v>25</v>
+      </c>
+      <c r="J31" s="46">
+        <v>10</v>
+      </c>
+      <c r="K31" s="46">
+        <v>19</v>
+      </c>
+      <c r="L31" s="46">
+        <v>5</v>
+      </c>
+      <c r="M31" s="46"/>
+      <c r="N31" s="1">
+        <f>SUM(C31:L31)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B32" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C32" s="46">
+        <v>5</v>
+      </c>
+      <c r="D32" s="46">
+        <v>5</v>
+      </c>
+      <c r="E32" s="46">
+        <v>5</v>
+      </c>
+      <c r="F32" s="46">
+        <v>5</v>
+      </c>
+      <c r="G32" s="46">
+        <v>4</v>
+      </c>
+      <c r="H32" s="46">
+        <v>13</v>
+      </c>
+      <c r="I32" s="46">
+        <v>25</v>
+      </c>
+      <c r="J32" s="46">
+        <v>10</v>
+      </c>
+      <c r="K32" s="46">
+        <v>20</v>
+      </c>
+      <c r="L32" s="46">
+        <v>5</v>
+      </c>
+      <c r="M32" s="46"/>
+      <c r="N32" s="1">
+        <f>SUM(C32:L32)</f>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O32">
+    <sortCondition ref="B3:B32"/>
+  </sortState>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3611,20 +4149,20 @@
       <c r="C1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="53" t="s">
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="74"/>
       <c r="N1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3653,22 +4191,22 @@
       <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="68">
         <f>SUM(D4:J4)</f>
         <v>50</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="50">
+      <c r="K2" s="69">
         <f>SUM(K4:M4)</f>
         <v>40</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
       <c r="N2" s="21">
         <f>SUM(C2:M2)</f>
         <v>100</v>
@@ -3783,10 +4321,10 @@
       <c r="Z4"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="47" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="18"/>
@@ -3801,7 +4339,7 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
       <c r="N5" s="21">
-        <f t="shared" ref="N5:N37" si="0">SUM(C5:M5)</f>
+        <f t="shared" ref="N5:N25" si="0">SUM(C5:M5)</f>
         <v>0</v>
       </c>
       <c r="O5" s="14"/>
@@ -3818,10 +4356,10 @@
       <c r="Z5"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="47" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="18"/>
@@ -3853,10 +4391,10 @@
       <c r="Z6"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="47" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="18"/>
@@ -3888,10 +4426,10 @@
       <c r="Z7"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="47" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="18"/>
@@ -3923,10 +4461,10 @@
       <c r="Z8"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="47" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="18"/>
@@ -3958,10 +4496,10 @@
       <c r="Z9"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="18"/>
@@ -3993,10 +4531,10 @@
       <c r="Z10"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="18"/>
@@ -4028,10 +4566,10 @@
       <c r="Z11"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="47" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="18"/>
@@ -4063,10 +4601,10 @@
       <c r="Z12"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C13" s="18"/>
@@ -4098,10 +4636,10 @@
       <c r="Z13"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="47" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="18"/>
@@ -4133,10 +4671,10 @@
       <c r="Z14"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="47" t="s">
         <v>78</v>
       </c>
       <c r="C15" s="18"/>
@@ -4168,10 +4706,10 @@
       <c r="Z15"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="47" t="s">
         <v>80</v>
       </c>
       <c r="C16" s="18"/>
@@ -4203,10 +4741,10 @@
       <c r="Z16"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="47" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="18"/>
@@ -4238,10 +4776,10 @@
       <c r="Z17"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="47" t="s">
         <v>84</v>
       </c>
       <c r="C18" s="18"/>
@@ -4273,10 +4811,10 @@
       <c r="Z18"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="47" t="s">
         <v>86</v>
       </c>
       <c r="C19" s="18"/>
@@ -4308,10 +4846,10 @@
       <c r="Z19"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="47" t="s">
         <v>88</v>
       </c>
       <c r="C20" s="18"/>
@@ -4343,10 +4881,10 @@
       <c r="Z20"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="47" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="18"/>
@@ -4378,10 +4916,10 @@
       <c r="Z21"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="47" t="s">
         <v>92</v>
       </c>
       <c r="C22" s="18"/>
@@ -4413,10 +4951,10 @@
       <c r="Z22"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="47" t="s">
         <v>94</v>
       </c>
       <c r="C23" s="45"/>
@@ -4448,10 +4986,10 @@
       <c r="Z23"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="47" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="18"/>
@@ -4483,10 +5021,10 @@
       <c r="Z24"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="47" t="s">
         <v>98</v>
       </c>
       <c r="C25" s="18"/>
@@ -4518,10 +5056,10 @@
       <c r="Z25"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="46" t="s">
         <v>100</v>
       </c>
       <c r="C26" s="18"/>
@@ -4536,7 +5074,7 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="21">
-        <f>SUM(D26:M26)</f>
+        <f t="shared" ref="N26:N33" si="1">SUM(D26:M26)</f>
         <v>0</v>
       </c>
       <c r="O26"/>
@@ -4553,10 +5091,10 @@
       <c r="Z26"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="46" t="s">
         <v>102</v>
       </c>
       <c r="C27" s="18"/>
@@ -4571,7 +5109,7 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="21">
-        <f>SUM(D27:M27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O27"/>
@@ -4588,10 +5126,10 @@
       <c r="Z27"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="46" t="s">
         <v>104</v>
       </c>
       <c r="C28" s="18"/>
@@ -4606,7 +5144,7 @@
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
       <c r="N28" s="21">
-        <f>SUM(D28:M28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O28"/>
@@ -4623,10 +5161,10 @@
       <c r="Z28"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="46" t="s">
         <v>106</v>
       </c>
       <c r="C29" s="18"/>
@@ -4641,7 +5179,7 @@
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
       <c r="N29" s="21">
-        <f>SUM(D29:M29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O29"/>
@@ -4658,10 +5196,10 @@
       <c r="Z29"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="46" t="s">
         <v>108</v>
       </c>
       <c r="C30" s="18"/>
@@ -4676,7 +5214,7 @@
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
       <c r="N30" s="21">
-        <f>SUM(D30:M30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O30"/>
@@ -4693,10 +5231,10 @@
       <c r="Z30"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="46" t="s">
         <v>110</v>
       </c>
       <c r="C31" s="18"/>
@@ -4711,7 +5249,7 @@
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
       <c r="N31" s="21">
-        <f>SUM(D31:M31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O31"/>
@@ -4728,10 +5266,10 @@
       <c r="Z31"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="48" t="s">
         <v>112</v>
       </c>
       <c r="C32" s="18"/>
@@ -4746,7 +5284,7 @@
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
       <c r="N32" s="21">
-        <f>SUM(D32:M32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O32"/>
@@ -4763,10 +5301,10 @@
       <c r="Z32"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="48" t="s">
         <v>114</v>
       </c>
       <c r="C33" s="18"/>
@@ -4781,7 +5319,7 @@
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
       <c r="N33" s="7">
-        <f>SUM(D33:M33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O33"/>
@@ -11362,7 +11900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C812C3E6-88E6-894F-B1C7-641BD53636A1}">
   <dimension ref="A3:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="99" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="99" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
@@ -11500,10 +12038,10 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="46" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="18"/>
@@ -11523,10 +12061,10 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="46" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="18"/>
@@ -11549,10 +12087,10 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="46" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="18"/>
@@ -11572,10 +12110,10 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="46" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="18"/>
@@ -11605,10 +12143,10 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="46" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="18"/>
@@ -11638,10 +12176,10 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="46" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="18"/>
@@ -11671,10 +12209,10 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="46" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="18"/>
@@ -11704,10 +12242,10 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="46" t="s">
         <v>72</v>
       </c>
       <c r="C14" s="18"/>
@@ -11737,10 +12275,10 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="46" t="s">
         <v>74</v>
       </c>
       <c r="C15" s="18"/>
@@ -11770,10 +12308,10 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="46" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="18"/>
@@ -11803,10 +12341,10 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C17" s="18"/>
@@ -11833,10 +12371,10 @@
       <c r="U17" s="18"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="46" t="s">
         <v>80</v>
       </c>
       <c r="C18" s="18"/>
@@ -11866,10 +12404,10 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="46" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="18"/>
@@ -11889,10 +12427,10 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="46" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="18"/>
@@ -11912,10 +12450,10 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="46" t="s">
         <v>86</v>
       </c>
       <c r="C21" s="18"/>
@@ -11935,10 +12473,10 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="46" t="s">
         <v>88</v>
       </c>
       <c r="C22" s="18"/>
@@ -11958,10 +12496,10 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="46" t="s">
         <v>90</v>
       </c>
       <c r="C23" s="18"/>
@@ -11981,10 +12519,10 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="46" t="s">
         <v>92</v>
       </c>
       <c r="C24" s="18"/>
@@ -12004,10 +12542,10 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="46" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="18"/>
@@ -12027,10 +12565,10 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="46" t="s">
         <v>96</v>
       </c>
       <c r="C26" s="18"/>
@@ -12050,10 +12588,10 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="46" t="s">
         <v>98</v>
       </c>
       <c r="C27" s="18"/>
@@ -12073,10 +12611,10 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="46" t="s">
         <v>100</v>
       </c>
       <c r="C28" s="18"/>
@@ -12096,10 +12634,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="46" t="s">
         <v>102</v>
       </c>
       <c r="C29" s="18"/>
@@ -12119,10 +12657,10 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="46" t="s">
         <v>104</v>
       </c>
       <c r="C30" s="18"/>
@@ -12142,10 +12680,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="46" t="s">
         <v>106</v>
       </c>
       <c r="C31" s="18"/>
@@ -12165,10 +12703,10 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="46" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="18"/>
@@ -12188,10 +12726,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="46" t="s">
         <v>110</v>
       </c>
       <c r="C33" s="18"/>
@@ -12211,10 +12749,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="48" t="s">
         <v>112</v>
       </c>
       <c r="C34" s="18"/>
@@ -12234,10 +12772,10 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="48" t="s">
         <v>114</v>
       </c>
       <c r="C35" s="18"/>
@@ -12308,7 +12846,7 @@
       <c r="U5" s="24"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="77"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="31"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -12327,10 +12865,10 @@
       <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="63" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="11"/>
@@ -12350,10 +12888,10 @@
       <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="63" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="11"/>
@@ -12373,10 +12911,10 @@
       <c r="T8" s="11"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="63" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="11"/>
@@ -12396,10 +12934,10 @@
       <c r="T9" s="11"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="63" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="11"/>
@@ -12419,10 +12957,10 @@
       <c r="T10" s="11"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="63" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="11"/>
@@ -12442,10 +12980,10 @@
       <c r="T11" s="11"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="63" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="11"/>
@@ -12465,10 +13003,10 @@
       <c r="T12" s="11"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="63" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="11"/>
@@ -12488,10 +13026,10 @@
       <c r="T13" s="11"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="63" t="s">
         <v>72</v>
       </c>
       <c r="C14" s="11"/>
@@ -12511,10 +13049,10 @@
       <c r="T14" s="11"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="63" t="s">
         <v>74</v>
       </c>
       <c r="C15" s="11"/>
@@ -12523,10 +13061,10 @@
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="63" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="11"/>
@@ -12535,10 +13073,10 @@
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="63" t="s">
         <v>78</v>
       </c>
       <c r="C17" s="11"/>
@@ -12547,10 +13085,10 @@
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="63" t="s">
         <v>80</v>
       </c>
       <c r="C18" s="11"/>
@@ -12559,10 +13097,10 @@
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="63" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="11"/>
@@ -12571,10 +13109,10 @@
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="63" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="11"/>
@@ -12583,10 +13121,10 @@
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="63" t="s">
         <v>86</v>
       </c>
       <c r="C21" s="11"/>
@@ -12595,10 +13133,10 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="63" t="s">
         <v>88</v>
       </c>
       <c r="C22" s="11"/>
@@ -12607,10 +13145,10 @@
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="63" t="s">
         <v>90</v>
       </c>
       <c r="C23" s="11"/>
@@ -12619,10 +13157,10 @@
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="63" t="s">
         <v>92</v>
       </c>
       <c r="C24" s="11"/>
@@ -12631,10 +13169,10 @@
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="63" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="11"/>
@@ -12643,10 +13181,10 @@
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="63" t="s">
         <v>96</v>
       </c>
       <c r="C26" s="11"/>
@@ -12655,10 +13193,10 @@
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="63" t="s">
         <v>98</v>
       </c>
       <c r="C27" s="11"/>
@@ -12667,10 +13205,10 @@
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="63" t="s">
         <v>100</v>
       </c>
       <c r="C28" s="11"/>
@@ -12679,10 +13217,10 @@
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="63" t="s">
         <v>102</v>
       </c>
       <c r="C29" s="11"/>
@@ -12691,50 +13229,50 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="63" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="63" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="63" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="63" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="64" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="79" t="s">
+      <c r="A35" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="64" t="s">
         <v>114</v>
       </c>
     </row>

--- a/admin/ICT  - 25 - Marks.xlsx
+++ b/admin/ICT  - 25 - Marks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11018"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maireadmeagher/Documents/GitRepos/ICT-25/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F2C9F0-0746-6C4D-87AE-23FBC0008680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7B18BF-E748-6042-8E0D-9A9BF3B38C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33400" yWindow="3240" windowWidth="25000" windowHeight="17720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="760" windowWidth="30240" windowHeight="17760" tabRatio="750" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grade" sheetId="25" r:id="rId1"/>
@@ -840,7 +840,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -998,6 +998,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1037,14 +1040,6 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1424,11 +1419,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E058B3-8A15-41C7-A4AC-31BB97B9A27A}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="297" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="134" zoomScaleNormal="297" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8:K9"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1441,22 +1436,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66" t="s">
+      <c r="F1" s="67"/>
+      <c r="G1" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="67"/>
+      <c r="J1" s="68"/>
       <c r="K1" s="10" t="s">
         <v>7</v>
       </c>
@@ -1544,7 +1539,7 @@
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
       <c r="K6" s="18">
-        <f t="shared" ref="K6:K23" si="0">D6+F6+H6+J6</f>
+        <f t="shared" ref="K6" si="0">D6+F6+H6+J6</f>
         <v>0</v>
       </c>
     </row>
@@ -1560,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="30">
-        <f>C7/5</f>
+        <f t="shared" ref="D7:D36" si="1">C7/5</f>
         <v>0</v>
       </c>
       <c r="E7" s="30">
@@ -1568,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="30">
-        <f>E7/2</f>
+        <f t="shared" ref="F7:F36" si="2">E7/2</f>
         <v>0</v>
       </c>
       <c r="G7" s="30">
@@ -1576,13 +1571,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="30">
-        <f>G7/5</f>
+        <f t="shared" ref="H7:H36" si="3">G7/5</f>
         <v>0</v>
       </c>
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
       <c r="K7" s="18">
-        <f>D7+F7+H7+J7</f>
+        <f t="shared" ref="K7:K36" si="4">D7+F7+H7+J7</f>
         <v>0</v>
       </c>
     </row>
@@ -1598,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="30">
-        <f>C8/5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E8" s="30">
@@ -1606,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="30">
-        <f>E8/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G8" s="30">
@@ -1614,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="30">
-        <f>G8/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
       <c r="K8" s="18">
-        <f>D8+F8+H8+J8</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1628,7 +1623,7 @@
       <c r="A9" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="48" t="s">
         <v>132</v>
       </c>
       <c r="C9" s="61">
@@ -1636,7 +1631,7 @@
         <v>87</v>
       </c>
       <c r="D9" s="30">
-        <f>C9/5</f>
+        <f t="shared" si="1"/>
         <v>17.399999999999999</v>
       </c>
       <c r="E9" s="30">
@@ -1644,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="30">
-        <f>E9/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G9" s="30">
@@ -1652,13 +1647,13 @@
         <v>0</v>
       </c>
       <c r="H9" s="30">
-        <f>G9/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="18">
-        <f>D9+F9+H9+J9</f>
+        <f t="shared" si="4"/>
         <v>17.399999999999999</v>
       </c>
     </row>
@@ -1674,7 +1669,7 @@
         <v>92</v>
       </c>
       <c r="D10" s="30">
-        <f>C10/5</f>
+        <f t="shared" si="1"/>
         <v>18.399999999999999</v>
       </c>
       <c r="E10" s="30">
@@ -1682,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="30">
-        <f>E10/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G10" s="30">
@@ -1690,13 +1685,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="30">
-        <f>G10/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
       <c r="K10" s="18">
-        <f>D10+F10+H10+J10</f>
+        <f t="shared" si="4"/>
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -1712,7 +1707,7 @@
         <v>92</v>
       </c>
       <c r="D11" s="30">
-        <f>C11/5</f>
+        <f t="shared" si="1"/>
         <v>18.399999999999999</v>
       </c>
       <c r="E11" s="30">
@@ -1720,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="30">
-        <f>E11/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G11" s="30">
@@ -1728,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="30">
-        <f>G11/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
       <c r="K11" s="18">
-        <f>D11+F11+H11+J11</f>
+        <f t="shared" si="4"/>
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -1750,7 +1745,7 @@
         <v>95</v>
       </c>
       <c r="D12" s="30">
-        <f>C12/5</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="E12" s="30">
@@ -1758,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="30">
-        <f>E12/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G12" s="30">
@@ -1766,13 +1761,13 @@
         <v>0</v>
       </c>
       <c r="H12" s="30">
-        <f>G12/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
       <c r="K12" s="18">
-        <f>D12+F12+H12+J12</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
     </row>
@@ -1788,7 +1783,7 @@
         <v>98</v>
       </c>
       <c r="D13" s="30">
-        <f>C13/5</f>
+        <f t="shared" si="1"/>
         <v>19.600000000000001</v>
       </c>
       <c r="E13" s="30">
@@ -1796,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="30">
-        <f>E13/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G13" s="30">
@@ -1804,13 +1799,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="30">
-        <f>G13/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
       <c r="K13" s="18">
-        <f>D13+F13+H13+J13</f>
+        <f t="shared" si="4"/>
         <v>19.600000000000001</v>
       </c>
     </row>
@@ -1826,7 +1821,7 @@
         <v>94</v>
       </c>
       <c r="D14" s="30">
-        <f>C14/5</f>
+        <f t="shared" si="1"/>
         <v>18.8</v>
       </c>
       <c r="E14" s="30">
@@ -1834,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="30">
-        <f>E14/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G14" s="30">
@@ -1842,13 +1837,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="30">
-        <f>G14/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
       <c r="K14" s="18">
-        <f>D14+F14+H14+J14</f>
+        <f t="shared" si="4"/>
         <v>18.8</v>
       </c>
     </row>
@@ -1864,7 +1859,7 @@
         <v>95</v>
       </c>
       <c r="D15" s="30">
-        <f>C15/5</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="E15" s="30">
@@ -1872,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="30">
-        <f>E15/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G15" s="30">
@@ -1880,13 +1875,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="30">
-        <f>G15/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
       <c r="K15" s="18">
-        <f>D15+F15+H15+J15</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
     </row>
@@ -1902,7 +1897,7 @@
         <v>100</v>
       </c>
       <c r="D16" s="30">
-        <f>C16/5</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="E16" s="30">
@@ -1910,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="30">
-        <f>E16/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G16" s="30">
@@ -1918,13 +1913,13 @@
         <v>0</v>
       </c>
       <c r="H16" s="30">
-        <f>G16/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
       <c r="K16" s="18">
-        <f>D16+F16+H16+J16</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
@@ -1940,7 +1935,7 @@
         <v>96</v>
       </c>
       <c r="D17" s="30">
-        <f>C17/5</f>
+        <f t="shared" si="1"/>
         <v>19.2</v>
       </c>
       <c r="E17" s="30">
@@ -1948,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="30">
-        <f>E17/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G17" s="30">
@@ -1956,13 +1951,13 @@
         <v>0</v>
       </c>
       <c r="H17" s="30">
-        <f>G17/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
       <c r="K17" s="18">
-        <f>D17+F17+H17+J17</f>
+        <f t="shared" si="4"/>
         <v>19.2</v>
       </c>
     </row>
@@ -1978,7 +1973,7 @@
         <v>99</v>
       </c>
       <c r="D18" s="30">
-        <f>C18/5</f>
+        <f t="shared" si="1"/>
         <v>19.8</v>
       </c>
       <c r="E18" s="30">
@@ -1986,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="30">
-        <f>E18/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="30">
@@ -1994,13 +1989,13 @@
         <v>0</v>
       </c>
       <c r="H18" s="30">
-        <f>G18/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
       <c r="K18" s="18">
-        <f>D18+F18+H18+J18</f>
+        <f t="shared" si="4"/>
         <v>19.8</v>
       </c>
     </row>
@@ -2016,7 +2011,7 @@
         <v>90</v>
       </c>
       <c r="D19" s="30">
-        <f>C19/5</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="E19" s="30">
@@ -2024,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="30">
-        <f>E19/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G19" s="30">
@@ -2032,13 +2027,13 @@
         <v>0</v>
       </c>
       <c r="H19" s="30">
-        <f>G19/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
       <c r="K19" s="18">
-        <f>D19+F19+H19+J19</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
@@ -2054,7 +2049,7 @@
         <v>90</v>
       </c>
       <c r="D20" s="30">
-        <f>C20/5</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="E20" s="30">
@@ -2062,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="30">
-        <f>E20/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G20" s="30">
@@ -2070,13 +2065,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="30">
-        <f>G20/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
       <c r="K20" s="18">
-        <f>D20+F20+H20+J20</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
@@ -2092,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="30">
-        <f>C21/5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E21" s="30">
@@ -2100,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="30">
-        <f>E21/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21" s="30">
@@ -2108,13 +2103,13 @@
         <v>0</v>
       </c>
       <c r="H21" s="30">
-        <f>G21/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
       <c r="K21" s="18">
-        <f>D21+F21+H21+J21</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2130,7 +2125,7 @@
         <v>96</v>
       </c>
       <c r="D22" s="30">
-        <f>C22/5</f>
+        <f t="shared" si="1"/>
         <v>19.2</v>
       </c>
       <c r="E22" s="30">
@@ -2138,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="30">
-        <f>E22/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G22" s="30">
@@ -2146,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="30">
-        <f>G22/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
       <c r="K22" s="18">
-        <f>D22+F22+H22+J22</f>
+        <f t="shared" si="4"/>
         <v>19.2</v>
       </c>
     </row>
@@ -2168,7 +2163,7 @@
         <v>94</v>
       </c>
       <c r="D23" s="30">
-        <f>C23/5</f>
+        <f t="shared" si="1"/>
         <v>18.8</v>
       </c>
       <c r="E23" s="30">
@@ -2176,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="30">
-        <f>E23/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G23" s="30">
@@ -2184,13 +2179,13 @@
         <v>0</v>
       </c>
       <c r="H23" s="30">
-        <f>G23/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
       <c r="K23" s="18">
-        <f>D23+F23+H23+J23</f>
+        <f t="shared" si="4"/>
         <v>18.8</v>
       </c>
     </row>
@@ -2206,7 +2201,7 @@
         <v>97</v>
       </c>
       <c r="D24" s="30">
-        <f>C24/5</f>
+        <f t="shared" si="1"/>
         <v>19.399999999999999</v>
       </c>
       <c r="E24" s="30">
@@ -2214,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="30">
-        <f>E24/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G24" s="30">
@@ -2222,13 +2217,13 @@
         <v>0</v>
       </c>
       <c r="H24" s="30">
-        <f>G24/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
       <c r="K24" s="18">
-        <f>D24+F24+H24+J24</f>
+        <f t="shared" si="4"/>
         <v>19.399999999999999</v>
       </c>
     </row>
@@ -2244,7 +2239,7 @@
         <v>100</v>
       </c>
       <c r="D25" s="30">
-        <f>C25/5</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="E25" s="30">
@@ -2252,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="30">
-        <f>E25/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="30">
@@ -2260,13 +2255,13 @@
         <v>0</v>
       </c>
       <c r="H25" s="30">
-        <f>G25/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
       <c r="K25" s="18">
-        <f>D25+F25+H25+J25</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
@@ -2282,7 +2277,7 @@
         <v>86</v>
       </c>
       <c r="D26" s="30">
-        <f>C26/5</f>
+        <f t="shared" si="1"/>
         <v>17.2</v>
       </c>
       <c r="E26" s="30">
@@ -2290,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="30">
-        <f>E26/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G26" s="30">
@@ -2298,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="H26" s="30">
-        <f>G26/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
       <c r="K26" s="18">
-        <f>D26+F26+H26+J26</f>
+        <f t="shared" si="4"/>
         <v>17.2</v>
       </c>
     </row>
@@ -2320,7 +2315,7 @@
         <v>94</v>
       </c>
       <c r="D27" s="30">
-        <f>C27/5</f>
+        <f t="shared" si="1"/>
         <v>18.8</v>
       </c>
       <c r="E27" s="30">
@@ -2328,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="30">
-        <f>E27/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G27" s="30">
@@ -2336,13 +2331,13 @@
         <v>0</v>
       </c>
       <c r="H27" s="30">
-        <f>G27/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
       <c r="K27" s="18">
-        <f>D27+F27+H27+J27</f>
+        <f t="shared" si="4"/>
         <v>18.8</v>
       </c>
     </row>
@@ -2358,7 +2353,7 @@
         <v>97</v>
       </c>
       <c r="D28" s="30">
-        <f>C28/5</f>
+        <f t="shared" si="1"/>
         <v>19.399999999999999</v>
       </c>
       <c r="E28" s="30">
@@ -2366,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="30">
-        <f>E28/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="30">
@@ -2374,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="H28" s="30">
-        <f>G28/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
       <c r="K28" s="18">
-        <f>D28+F28+H28+J28</f>
+        <f t="shared" si="4"/>
         <v>19.399999999999999</v>
       </c>
     </row>
@@ -2396,7 +2391,7 @@
         <v>96</v>
       </c>
       <c r="D29" s="30">
-        <f>C29/5</f>
+        <f t="shared" si="1"/>
         <v>19.2</v>
       </c>
       <c r="E29" s="30">
@@ -2404,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="30">
-        <f>E29/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29" s="30">
@@ -2412,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="30">
-        <f>G29/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
       <c r="K29" s="18">
-        <f>D29+F29+H29+J29</f>
+        <f t="shared" si="4"/>
         <v>19.2</v>
       </c>
     </row>
@@ -2434,7 +2429,7 @@
         <v>84</v>
       </c>
       <c r="D30" s="30">
-        <f>C30/5</f>
+        <f t="shared" si="1"/>
         <v>16.8</v>
       </c>
       <c r="E30" s="30">
@@ -2442,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="30">
-        <f>E30/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G30" s="30">
@@ -2450,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="H30" s="30">
-        <f>G30/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
       <c r="K30" s="18">
-        <f>D30+F30+H30+J30</f>
+        <f t="shared" si="4"/>
         <v>16.8</v>
       </c>
     </row>
@@ -2472,7 +2467,7 @@
         <v>79</v>
       </c>
       <c r="D31" s="30">
-        <f>C31/5</f>
+        <f t="shared" si="1"/>
         <v>15.8</v>
       </c>
       <c r="E31" s="30">
@@ -2480,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="30">
-        <f>E31/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G31" s="30">
@@ -2488,13 +2483,13 @@
         <v>0</v>
       </c>
       <c r="H31" s="30">
-        <f>G31/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
       <c r="K31" s="18">
-        <f>D31+F31+H31+J31</f>
+        <f t="shared" si="4"/>
         <v>15.8</v>
       </c>
     </row>
@@ -2510,7 +2505,7 @@
         <v>93</v>
       </c>
       <c r="D32" s="30">
-        <f>C32/5</f>
+        <f t="shared" si="1"/>
         <v>18.600000000000001</v>
       </c>
       <c r="E32" s="30">
@@ -2518,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="30">
-        <f>E32/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G32" s="30">
@@ -2526,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="30">
-        <f>G32/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="18">
-        <f>D32+F32+H32+J32</f>
+        <f t="shared" si="4"/>
         <v>18.600000000000001</v>
       </c>
     </row>
@@ -2548,7 +2543,7 @@
         <v>95</v>
       </c>
       <c r="D33" s="30">
-        <f>C33/5</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="E33" s="30">
@@ -2556,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="30">
-        <f>E33/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G33" s="30">
@@ -2564,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="H33" s="30">
-        <f>G33/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
       <c r="K33" s="18">
-        <f>D33+F33+H33+J33</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
     </row>
@@ -2586,7 +2581,7 @@
         <v>99</v>
       </c>
       <c r="D34" s="30">
-        <f>C34/5</f>
+        <f t="shared" si="1"/>
         <v>19.8</v>
       </c>
       <c r="E34" s="30">
@@ -2594,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="30">
-        <f>E34/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G34" s="30">
@@ -2602,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="H34" s="30">
-        <f>G34/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
       <c r="K34" s="18">
-        <f>D34+F34+H34+J34</f>
+        <f t="shared" si="4"/>
         <v>19.8</v>
       </c>
     </row>
@@ -2624,7 +2619,7 @@
         <v>96</v>
       </c>
       <c r="D35" s="30">
-        <f>C35/5</f>
+        <f t="shared" si="1"/>
         <v>19.2</v>
       </c>
       <c r="E35" s="30">
@@ -2632,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="30">
-        <f>E35/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="30">
@@ -2640,13 +2635,13 @@
         <v>0</v>
       </c>
       <c r="H35" s="30">
-        <f>G35/5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="18">
-        <f>D35+F35+H35+J35</f>
+        <f t="shared" si="4"/>
         <v>19.2</v>
       </c>
     </row>
@@ -2661,30 +2656,28 @@
         <f>'Word(20%)'!N32</f>
         <v>97</v>
       </c>
-      <c r="D36" s="80">
-        <f>C36/5</f>
+      <c r="D36" s="3">
+        <f t="shared" si="1"/>
         <v>19.399999999999999</v>
       </c>
-      <c r="E36" s="80">
+      <c r="E36" s="3">
         <f>'Excel(50%)'!N27</f>
         <v>0</v>
       </c>
-      <c r="F36" s="80">
-        <f>E36/2</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="80">
+      <c r="F36" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
         <f>'PowerPoint (20%)'!N29</f>
         <v>0</v>
       </c>
-      <c r="H36" s="80">
-        <f>G36/5</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="81">
-        <f>D36+F36+H36+J36</f>
+      <c r="H36" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
         <v>19.399999999999999</v>
       </c>
     </row>
@@ -2707,10 +2700,10 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:B5"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2719,7 +2712,7 @@
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="13" width="14.6640625" customWidth="1"/>
     <col min="14" max="14" width="6.6640625" customWidth="1"/>
-    <col min="15" max="15" width="67.1640625" customWidth="1"/>
+    <col min="15" max="15" width="67.1640625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2805,7 +2798,7 @@
       </c>
       <c r="M2" s="56"/>
       <c r="N2" s="1">
-        <f>SUM(C2:L2)</f>
+        <f t="shared" ref="N2:N32" si="0">SUM(C2:L2)</f>
         <v>100</v>
       </c>
     </row>
@@ -2818,7 +2811,7 @@
       </c>
       <c r="M3" s="48"/>
       <c r="N3" s="1">
-        <f>SUM(C3:L3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O3" t="s">
@@ -2850,7 +2843,7 @@
       <c r="L4" s="46"/>
       <c r="M4" s="46"/>
       <c r="N4" s="1">
-        <f>SUM(C4:L4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" t="s">
@@ -2901,7 +2894,7 @@
         <v>5</v>
       </c>
       <c r="N5" s="1">
-        <f>SUM(C5:L5)</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="P5" s="50" t="s">
@@ -2950,7 +2943,7 @@
       </c>
       <c r="M6" s="46"/>
       <c r="N6" s="1">
-        <f>SUM(C6:L6)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="O6" t="s">
@@ -3002,7 +2995,7 @@
       </c>
       <c r="M7" s="46"/>
       <c r="N7" s="1">
-        <f>SUM(C7:L7)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="P7" s="50" t="s">
@@ -3051,7 +3044,7 @@
       </c>
       <c r="M8" s="46"/>
       <c r="N8" s="1">
-        <f>SUM(C8:L8)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="P8" s="52" t="s">
@@ -3100,7 +3093,7 @@
       </c>
       <c r="M9" s="46"/>
       <c r="N9" s="1">
-        <f>SUM(C9:L9)</f>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="P9" s="50" t="s">
@@ -3149,7 +3142,7 @@
       </c>
       <c r="M10" s="46"/>
       <c r="N10" s="1">
-        <f>SUM(C10:L10)</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="P10" s="52" t="s">
@@ -3184,21 +3177,21 @@
       <c r="H11" s="46">
         <v>12</v>
       </c>
-      <c r="I11" s="78">
+      <c r="I11" s="65">
         <v>25</v>
       </c>
-      <c r="J11" s="78">
+      <c r="J11" s="65">
         <v>10</v>
       </c>
-      <c r="K11" s="78">
+      <c r="K11" s="65">
         <v>20</v>
       </c>
-      <c r="L11" s="78">
+      <c r="L11" s="65">
         <v>5</v>
       </c>
       <c r="M11" s="48"/>
       <c r="N11" s="1">
-        <f>SUM(C11:L11)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="P11" s="50" t="s">
@@ -3247,7 +3240,7 @@
       </c>
       <c r="M12" s="46"/>
       <c r="N12" s="1">
-        <f>SUM(C12:L12)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="P12" s="52" t="s">
@@ -3296,7 +3289,7 @@
       </c>
       <c r="M13" s="46"/>
       <c r="N13" s="1">
-        <f>SUM(C13:L13)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="P13" s="54" t="s">
@@ -3345,7 +3338,7 @@
       </c>
       <c r="M14" s="46"/>
       <c r="N14" s="1">
-        <f>SUM(C14:L14)</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
     </row>
@@ -3388,7 +3381,7 @@
       </c>
       <c r="M15" s="46"/>
       <c r="N15" s="1">
-        <f>SUM(C15:L15)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -3431,7 +3424,7 @@
       </c>
       <c r="M16" s="46"/>
       <c r="N16" s="1">
-        <f>SUM(C16:L16)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -3454,7 +3447,7 @@
       <c r="L17" s="46"/>
       <c r="M17" s="46"/>
       <c r="N17" s="1">
-        <f>SUM(C17:L17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O17" t="s">
@@ -3500,7 +3493,7 @@
       </c>
       <c r="M18" s="46"/>
       <c r="N18" s="1">
-        <f>SUM(C18:L18)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>
@@ -3543,7 +3536,7 @@
       </c>
       <c r="M19" s="46"/>
       <c r="N19" s="1">
-        <f>SUM(C19:L19)</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
     </row>
@@ -3586,7 +3579,7 @@
       </c>
       <c r="M20" s="46"/>
       <c r="N20" s="1">
-        <f>SUM(C20:L20)</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
     </row>
@@ -3629,7 +3622,7 @@
       </c>
       <c r="M21" s="46"/>
       <c r="N21" s="1">
-        <f>SUM(C21:L21)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -3672,7 +3665,7 @@
       </c>
       <c r="M22" s="46"/>
       <c r="N22" s="1">
-        <f>SUM(C22:L22)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
     </row>
@@ -3715,7 +3708,7 @@
       </c>
       <c r="M23" s="46"/>
       <c r="N23" s="1">
-        <f>SUM(C23:L23)</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
     </row>
@@ -3758,7 +3751,7 @@
       </c>
       <c r="M24" s="46"/>
       <c r="N24" s="1">
-        <f>SUM(C24:L24)</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
     </row>
@@ -3801,7 +3794,7 @@
       </c>
       <c r="M25" s="46"/>
       <c r="N25" s="1">
-        <f>SUM(C25:L25)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>
@@ -3844,7 +3837,7 @@
       </c>
       <c r="M26" s="46"/>
       <c r="N26" s="1">
-        <f>SUM(C26:L26)</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>
@@ -3887,7 +3880,7 @@
       </c>
       <c r="M27" s="46"/>
       <c r="N27" s="1">
-        <f>SUM(C27:L27)</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
     </row>
@@ -3930,7 +3923,7 @@
       </c>
       <c r="M28" s="46"/>
       <c r="N28" s="1">
-        <f>SUM(C28:L28)</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
     </row>
@@ -3973,7 +3966,7 @@
       </c>
       <c r="M29" s="46"/>
       <c r="N29" s="1">
-        <f>SUM(C29:L29)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
@@ -4016,7 +4009,7 @@
       </c>
       <c r="M30" s="46"/>
       <c r="N30" s="1">
-        <f>SUM(C30:L30)</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
     </row>
@@ -4059,7 +4052,7 @@
       </c>
       <c r="M31" s="46"/>
       <c r="N31" s="1">
-        <f>SUM(C31:L31)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>
@@ -4102,7 +4095,7 @@
       </c>
       <c r="M32" s="46"/>
       <c r="N32" s="1">
-        <f>SUM(C32:L32)</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
     </row>
@@ -4124,7 +4117,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomRight" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4149,20 +4142,20 @@
       <c r="C1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="72" t="s">
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
       <c r="N1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4191,22 +4184,22 @@
       <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="68">
+      <c r="D2" s="69">
         <f>SUM(D4:J4)</f>
         <v>50</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="69">
+      <c r="K2" s="70">
         <f>SUM(K4:M4)</f>
         <v>40</v>
       </c>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="72"/>
       <c r="N2" s="21">
         <f>SUM(C2:M2)</f>
         <v>100</v>
@@ -11905,7 +11898,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12803,8 +12796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6285C8A1-0556-984B-B67F-D2ED9F008451}">
   <dimension ref="A4:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/admin/ICT  - 25 - Marks.xlsx
+++ b/admin/ICT  - 25 - Marks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maireadmeagher/Documents/GitRepos/ICT-25/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7B18BF-E748-6042-8E0D-9A9BF3B38C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE985538-4079-2343-944F-B437FECB63C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="760" windowWidth="30240" windowHeight="17760" tabRatio="750" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="5580" windowWidth="30240" windowHeight="17760" tabRatio="750" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grade" sheetId="25" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="194">
   <si>
     <t>TOTAL</t>
   </si>
@@ -61,9 +61,6 @@
     <t xml:space="preserve">Excel Test </t>
   </si>
   <si>
-    <t>Group PowerPoint</t>
-  </si>
-  <si>
     <t>Attendance</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>Q2</t>
   </si>
   <si>
-    <t>Content</t>
-  </si>
-  <si>
     <t>Keep text to a minimum</t>
   </si>
   <si>
@@ -118,63 +112,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Holly Butler</t>
-  </si>
-  <si>
-    <t>Ben Ablett</t>
-  </si>
-  <si>
-    <t>Tereza Buchtelova</t>
-  </si>
-  <si>
-    <t>Daniel Nadtochiev</t>
-  </si>
-  <si>
-    <t>Kieran crowley</t>
-  </si>
-  <si>
-    <t>Shah Paran</t>
-  </si>
-  <si>
-    <t>Kaitlyn Buckley</t>
-  </si>
-  <si>
-    <t>Toby Carson</t>
-  </si>
-  <si>
-    <t>Alannah Hartnett</t>
-  </si>
-  <si>
-    <t>Holly Browne O Carroll</t>
-  </si>
-  <si>
-    <t>Emma Grant</t>
-  </si>
-  <si>
-    <t>Mya Dwan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darragh Clooney </t>
-  </si>
-  <si>
-    <t>Dylan Galvin</t>
-  </si>
-  <si>
-    <t>Christy Granger</t>
-  </si>
-  <si>
-    <t>Jessica Halley</t>
-  </si>
-  <si>
-    <t>Ali Dempsey</t>
-  </si>
-  <si>
-    <t>Ruby Cuthbert Savage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEAMS </t>
-  </si>
-  <si>
     <t>Formulas with cell references</t>
   </si>
   <si>
@@ -446,13 +383,256 @@
   </si>
   <si>
     <t>W20118064</t>
+  </si>
+  <si>
+    <t>PowerPoint Ass</t>
+  </si>
+  <si>
+    <t>Milanzi</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Moran</t>
+  </si>
+  <si>
+    <t>Alicia</t>
+  </si>
+  <si>
+    <t>Popova</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>Shanmuga</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Saffron</t>
+  </si>
+  <si>
+    <t>Ranin</t>
+  </si>
+  <si>
+    <t>Alistair</t>
+  </si>
+  <si>
+    <t>Rowe</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Semenyaka</t>
+  </si>
+  <si>
+    <t>Nikol</t>
+  </si>
+  <si>
+    <t>Serkunova</t>
+  </si>
+  <si>
+    <t>Milana</t>
+  </si>
+  <si>
+    <t>Setly</t>
+  </si>
+  <si>
+    <t>Fouad</t>
+  </si>
+  <si>
+    <t>Shanto</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Ellie</t>
+  </si>
+  <si>
+    <t>Spolnik</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Staszewska</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Sullivan</t>
+  </si>
+  <si>
+    <t>Euan</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Teodoro Neves</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Thet Maung</t>
+  </si>
+  <si>
+    <t>Zuly</t>
+  </si>
+  <si>
+    <t>Tran</t>
+  </si>
+  <si>
+    <t>Anh Thu</t>
+  </si>
+  <si>
+    <t>Urbone</t>
+  </si>
+  <si>
+    <t>Patricija</t>
+  </si>
+  <si>
+    <t>Walsh</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Waters</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Watson</t>
+  </si>
+  <si>
+    <t>Callum</t>
+  </si>
+  <si>
+    <t>Wheatley</t>
+  </si>
+  <si>
+    <t>Whelan</t>
+  </si>
+  <si>
+    <t>Edel</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Willmott</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>P (2/2)</t>
+  </si>
+  <si>
+    <t>A (0/2)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>20 Sept 2025 2.15PM Mairead's Group</t>
+  </si>
+  <si>
+    <t>27 Sept 2025 2.15PM Mairead's Group</t>
+  </si>
+  <si>
+    <t>11 Oct 2025 2.15PM Mairead's Group</t>
+  </si>
+  <si>
+    <t>18 Oct 2025 2.15PM Mairead's Group</t>
+  </si>
+  <si>
+    <t>25 Oct 2025 2.15PM Mairead's Group</t>
+  </si>
+  <si>
+    <t>7 Nov 2025 2.00PM Mairead's Group</t>
+  </si>
+  <si>
+    <t>User enrolment starts 26.09.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total number </t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average </t>
+  </si>
+  <si>
+    <t>late arrival</t>
+  </si>
+  <si>
+    <t>Had a basketball match one Friday</t>
+  </si>
+  <si>
+    <t>Recording of content</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -518,12 +698,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
@@ -582,6 +756,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -840,7 +1027,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -917,10 +1104,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -949,30 +1132,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -994,13 +1176,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,6 +1219,23 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1419,11 +1615,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E058B3-8A15-41C7-A4AC-31BB97B9A27A}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView zoomScale="134" zoomScaleNormal="297" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1436,24 +1632,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="62"/>
+      <c r="K1" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="10" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.2">
@@ -1496,7 +1692,7 @@
     </row>
     <row r="4" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>1</v>
@@ -1512,17 +1708,17 @@
       <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="58"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="60">
+      <c r="J5" s="54"/>
+      <c r="K5" s="55">
         <f>D5+F5+H5+J5</f>
         <v>0</v>
       </c>
@@ -1530,7 +1726,7 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
-      <c r="C6" s="61"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
@@ -1544,13 +1740,13 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="61">
+      <c r="A7" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="56">
         <f>'Word(20%)'!N3</f>
         <v>0</v>
       </c>
@@ -1559,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="30">
-        <f>'Excel(50%)'!N32</f>
+        <f>'Excel(50%)'!N5</f>
         <v>0</v>
       </c>
       <c r="F7" s="30">
@@ -1567,28 +1763,34 @@
         <v>0</v>
       </c>
       <c r="G7" s="30">
-        <f>'PowerPoint (20%)'!N34</f>
+        <f>'PowerPoint (20%)'!N5</f>
         <v>0</v>
       </c>
       <c r="H7" s="30">
         <f t="shared" ref="H7:H36" si="3">G7/5</f>
         <v>0</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="18">
+      <c r="I7" s="79">
+        <f>Attendance!P7</f>
+        <v>100</v>
+      </c>
+      <c r="J7" s="79">
+        <f>I7/10</f>
+        <v>10</v>
+      </c>
+      <c r="K7" s="80">
         <f t="shared" ref="K7:K36" si="4">D7+F7+H7+J7</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="61">
+      <c r="A8" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="56">
         <f>'Word(20%)'!N4</f>
         <v>0</v>
       </c>
@@ -1597,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="30">
-        <f>'Excel(50%)'!N31</f>
+        <f>'Excel(50%)'!N6</f>
         <v>0</v>
       </c>
       <c r="F8" s="30">
@@ -1605,28 +1807,34 @@
         <v>0</v>
       </c>
       <c r="G8" s="30">
-        <f>'PowerPoint (20%)'!N33</f>
+        <f>'PowerPoint (20%)'!N6</f>
         <v>0</v>
       </c>
       <c r="H8" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="18">
+      <c r="I8" s="79">
+        <f>Attendance!P8</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="J8" s="79">
+        <f t="shared" ref="J8:J36" si="5">I8/10</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="K8" s="80">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="61">
+      <c r="A9" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="56">
         <f>'Word(20%)'!N5</f>
         <v>87</v>
       </c>
@@ -1635,7 +1843,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="E9" s="30">
-        <f>'Excel(50%)'!N32</f>
+        <f>'Excel(50%)'!N7</f>
         <v>0</v>
       </c>
       <c r="F9" s="30">
@@ -1643,28 +1851,34 @@
         <v>0</v>
       </c>
       <c r="G9" s="30">
-        <f>'PowerPoint (20%)'!N34</f>
+        <f>'PowerPoint (20%)'!N7</f>
         <v>0</v>
       </c>
       <c r="H9" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="18">
+      <c r="I9" s="79">
+        <f>Attendance!P9</f>
+        <v>100</v>
+      </c>
+      <c r="J9" s="79">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K9" s="80">
         <f t="shared" si="4"/>
-        <v>17.399999999999999</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="61">
+      <c r="A10" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="56">
         <f>'Word(20%)'!N6</f>
         <v>92</v>
       </c>
@@ -1673,7 +1887,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="E10" s="30">
-        <f>'Excel(50%)'!N5</f>
+        <f>'Excel(50%)'!N8</f>
         <v>0</v>
       </c>
       <c r="F10" s="30">
@@ -1681,28 +1895,34 @@
         <v>0</v>
       </c>
       <c r="G10" s="30">
-        <f>'PowerPoint (20%)'!N7</f>
+        <f>'PowerPoint (20%)'!N8</f>
         <v>0</v>
       </c>
       <c r="H10" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="18">
+      <c r="I10" s="79">
+        <f>Attendance!P10</f>
+        <v>100</v>
+      </c>
+      <c r="J10" s="79">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K10" s="80">
         <f t="shared" si="4"/>
-        <v>18.399999999999999</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="61">
+      <c r="A11" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="56">
         <f>'Word(20%)'!N7</f>
         <v>92</v>
       </c>
@@ -1711,7 +1931,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="E11" s="30">
-        <f>'Excel(50%)'!N6</f>
+        <f>'Excel(50%)'!N9</f>
         <v>0</v>
       </c>
       <c r="F11" s="30">
@@ -1719,28 +1939,34 @@
         <v>0</v>
       </c>
       <c r="G11" s="30">
-        <f>'PowerPoint (20%)'!N8</f>
+        <f>'PowerPoint (20%)'!N9</f>
         <v>0</v>
       </c>
       <c r="H11" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="18">
+      <c r="I11" s="79">
+        <f>Attendance!P11</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="J11" s="79">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="K11" s="80">
         <f t="shared" si="4"/>
-        <v>18.399999999999999</v>
+        <v>26.733333333333334</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="61">
+      <c r="A12" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="56">
         <f>'Word(20%)'!N8</f>
         <v>95</v>
       </c>
@@ -1749,7 +1975,7 @@
         <v>19</v>
       </c>
       <c r="E12" s="30">
-        <f>'Excel(50%)'!N7</f>
+        <f>'Excel(50%)'!N10</f>
         <v>0</v>
       </c>
       <c r="F12" s="30">
@@ -1757,28 +1983,34 @@
         <v>0</v>
       </c>
       <c r="G12" s="30">
-        <f>'PowerPoint (20%)'!N9</f>
+        <f>'PowerPoint (20%)'!N10</f>
         <v>0</v>
       </c>
       <c r="H12" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="18">
+      <c r="I12" s="79">
+        <f>Attendance!P12</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="J12" s="79">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="K12" s="80">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>27.333333333333336</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="61">
+      <c r="A13" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="56">
         <f>'Word(20%)'!N9</f>
         <v>98</v>
       </c>
@@ -1787,7 +2019,7 @@
         <v>19.600000000000001</v>
       </c>
       <c r="E13" s="30">
-        <f>'Excel(50%)'!N8</f>
+        <f>'Excel(50%)'!N11</f>
         <v>0</v>
       </c>
       <c r="F13" s="30">
@@ -1795,28 +2027,34 @@
         <v>0</v>
       </c>
       <c r="G13" s="30">
-        <f>'PowerPoint (20%)'!N10</f>
+        <f>'PowerPoint (20%)'!N11</f>
         <v>0</v>
       </c>
       <c r="H13" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="18">
+      <c r="I13" s="79">
+        <f>Attendance!P13</f>
+        <v>100</v>
+      </c>
+      <c r="J13" s="79">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K13" s="80">
         <f t="shared" si="4"/>
-        <v>19.600000000000001</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="61">
+      <c r="A14" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="56">
         <f>'Word(20%)'!N10</f>
         <v>94</v>
       </c>
@@ -1825,7 +2063,7 @@
         <v>18.8</v>
       </c>
       <c r="E14" s="30">
-        <f>'Excel(50%)'!N9</f>
+        <f>'Excel(50%)'!N12</f>
         <v>0</v>
       </c>
       <c r="F14" s="30">
@@ -1833,28 +2071,34 @@
         <v>0</v>
       </c>
       <c r="G14" s="30">
-        <f>'PowerPoint (20%)'!N11</f>
+        <f>'PowerPoint (20%)'!N12</f>
         <v>0</v>
       </c>
       <c r="H14" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="18">
+      <c r="I14" s="79">
+        <f>Attendance!P14</f>
+        <v>100</v>
+      </c>
+      <c r="J14" s="79">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K14" s="80">
         <f t="shared" si="4"/>
-        <v>18.8</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="61">
+      <c r="A15" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="56">
         <f>'Word(20%)'!N11</f>
         <v>95</v>
       </c>
@@ -1863,7 +2107,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="30">
-        <f>'Excel(50%)'!N33</f>
+        <f>'Excel(50%)'!N13</f>
         <v>0</v>
       </c>
       <c r="F15" s="30">
@@ -1871,28 +2115,34 @@
         <v>0</v>
       </c>
       <c r="G15" s="30">
-        <f>'PowerPoint (20%)'!N35</f>
+        <f>'PowerPoint (20%)'!N13</f>
         <v>0</v>
       </c>
       <c r="H15" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="18">
+      <c r="I15" s="79">
+        <f>Attendance!P15</f>
+        <v>100</v>
+      </c>
+      <c r="J15" s="79">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K15" s="80">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="61">
+      <c r="A16" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="56">
         <f>'Word(20%)'!N12</f>
         <v>100</v>
       </c>
@@ -1901,7 +2151,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="30">
-        <f>'Excel(50%)'!N10</f>
+        <f>'Excel(50%)'!N14</f>
         <v>0</v>
       </c>
       <c r="F16" s="30">
@@ -1909,28 +2159,34 @@
         <v>0</v>
       </c>
       <c r="G16" s="30">
-        <f>'PowerPoint (20%)'!N12</f>
+        <f>'PowerPoint (20%)'!N14</f>
         <v>0</v>
       </c>
       <c r="H16" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="18">
+      <c r="I16" s="79">
+        <f>Attendance!P16</f>
+        <v>60</v>
+      </c>
+      <c r="J16" s="79">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K16" s="80">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="61">
+      <c r="A17" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="56">
         <f>'Word(20%)'!N13</f>
         <v>96</v>
       </c>
@@ -1939,7 +2195,7 @@
         <v>19.2</v>
       </c>
       <c r="E17" s="30">
-        <f>'Excel(50%)'!N11</f>
+        <f>'Excel(50%)'!N15</f>
         <v>0</v>
       </c>
       <c r="F17" s="30">
@@ -1947,28 +2203,34 @@
         <v>0</v>
       </c>
       <c r="G17" s="30">
-        <f>'PowerPoint (20%)'!N13</f>
+        <f>'PowerPoint (20%)'!N15</f>
         <v>0</v>
       </c>
       <c r="H17" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="18">
+      <c r="I17" s="79">
+        <f>Attendance!P17</f>
+        <v>100</v>
+      </c>
+      <c r="J17" s="79">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K17" s="80">
         <f t="shared" si="4"/>
-        <v>19.2</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="61">
+      <c r="A18" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="56">
         <f>'Word(20%)'!N14</f>
         <v>99</v>
       </c>
@@ -1977,7 +2239,7 @@
         <v>19.8</v>
       </c>
       <c r="E18" s="30">
-        <f>'Excel(50%)'!N12</f>
+        <f>'Excel(50%)'!N16</f>
         <v>0</v>
       </c>
       <c r="F18" s="30">
@@ -1985,28 +2247,34 @@
         <v>0</v>
       </c>
       <c r="G18" s="30">
-        <f>'PowerPoint (20%)'!N14</f>
+        <f>'PowerPoint (20%)'!N16</f>
         <v>0</v>
       </c>
       <c r="H18" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="18">
+      <c r="I18" s="79">
+        <f>Attendance!P18</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="J18" s="79">
+        <f t="shared" si="5"/>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="K18" s="80">
         <f t="shared" si="4"/>
-        <v>19.8</v>
+        <v>26.466666666666669</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="61">
+      <c r="A19" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="56">
         <f>'Word(20%)'!N15</f>
         <v>90</v>
       </c>
@@ -2015,7 +2283,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="30">
-        <f>'Excel(50%)'!N28</f>
+        <f>'Excel(50%)'!N17</f>
         <v>0</v>
       </c>
       <c r="F19" s="30">
@@ -2023,28 +2291,34 @@
         <v>0</v>
       </c>
       <c r="G19" s="30">
-        <f>'PowerPoint (20%)'!N30</f>
+        <f>'PowerPoint (20%)'!N17</f>
         <v>0</v>
       </c>
       <c r="H19" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="18">
+      <c r="I19" s="79">
+        <f>Attendance!P19</f>
+        <v>100</v>
+      </c>
+      <c r="J19" s="79">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K19" s="80">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="61">
+      <c r="A20" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="56">
         <f>'Word(20%)'!N16</f>
         <v>90</v>
       </c>
@@ -2053,7 +2327,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="30">
-        <f>'Excel(50%)'!N13</f>
+        <f>'Excel(50%)'!N18</f>
         <v>0</v>
       </c>
       <c r="F20" s="30">
@@ -2061,28 +2335,34 @@
         <v>0</v>
       </c>
       <c r="G20" s="30">
-        <f>'PowerPoint (20%)'!N15</f>
+        <f>'PowerPoint (20%)'!N18</f>
         <v>0</v>
       </c>
       <c r="H20" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="18">
+      <c r="I20" s="79">
+        <f>Attendance!P20</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="J20" s="79">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="K20" s="80">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>26.333333333333336</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="61">
+      <c r="A21" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="56">
         <f>'Word(20%)'!N17</f>
         <v>0</v>
       </c>
@@ -2091,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="30">
-        <f>'Excel(50%)'!N14</f>
+        <f>'Excel(50%)'!N19</f>
         <v>0</v>
       </c>
       <c r="F21" s="30">
@@ -2099,28 +2379,34 @@
         <v>0</v>
       </c>
       <c r="G21" s="30">
-        <f>'PowerPoint (20%)'!N16</f>
+        <f>'PowerPoint (20%)'!N19</f>
         <v>0</v>
       </c>
       <c r="H21" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="18">
+      <c r="I21" s="79">
+        <f>Attendance!P21</f>
+        <v>100</v>
+      </c>
+      <c r="J21" s="79">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K21" s="80">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="61">
+      <c r="A22" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="56">
         <f>'Word(20%)'!N18</f>
         <v>96</v>
       </c>
@@ -2129,7 +2415,7 @@
         <v>19.2</v>
       </c>
       <c r="E22" s="30">
-        <f>'Excel(50%)'!N15</f>
+        <f>'Excel(50%)'!N20</f>
         <v>0</v>
       </c>
       <c r="F22" s="30">
@@ -2137,28 +2423,34 @@
         <v>0</v>
       </c>
       <c r="G22" s="30">
-        <f>'PowerPoint (20%)'!N17</f>
+        <f>'PowerPoint (20%)'!N20</f>
         <v>0</v>
       </c>
       <c r="H22" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="18">
+      <c r="I22" s="79">
+        <f>Attendance!P22</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="J22" s="79">
+        <f t="shared" si="5"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="K22" s="80">
         <f t="shared" si="4"/>
-        <v>19.2</v>
+        <v>20.866666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="61">
+      <c r="A23" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="56">
         <f>'Word(20%)'!N19</f>
         <v>94</v>
       </c>
@@ -2167,7 +2459,7 @@
         <v>18.8</v>
       </c>
       <c r="E23" s="30">
-        <f>'Excel(50%)'!N16</f>
+        <f>'Excel(50%)'!N21</f>
         <v>0</v>
       </c>
       <c r="F23" s="30">
@@ -2175,28 +2467,34 @@
         <v>0</v>
       </c>
       <c r="G23" s="30">
-        <f>'PowerPoint (20%)'!N18</f>
+        <f>'PowerPoint (20%)'!N21</f>
         <v>0</v>
       </c>
       <c r="H23" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="18">
+      <c r="I23" s="79">
+        <f>Attendance!P23</f>
+        <v>100</v>
+      </c>
+      <c r="J23" s="79">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K23" s="80">
         <f t="shared" si="4"/>
-        <v>18.8</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="61">
+      <c r="A24" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="56">
         <f>'Word(20%)'!N20</f>
         <v>97</v>
       </c>
@@ -2205,7 +2503,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="E24" s="30">
-        <f>'Excel(50%)'!N29</f>
+        <f>'Excel(50%)'!N22</f>
         <v>0</v>
       </c>
       <c r="F24" s="30">
@@ -2213,28 +2511,34 @@
         <v>0</v>
       </c>
       <c r="G24" s="30">
-        <f>'PowerPoint (20%)'!N31</f>
+        <f>'PowerPoint (20%)'!N22</f>
         <v>0</v>
       </c>
       <c r="H24" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="18">
+      <c r="I24" s="79">
+        <f>Attendance!P24</f>
+        <v>100</v>
+      </c>
+      <c r="J24" s="79">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K24" s="80">
         <f t="shared" si="4"/>
-        <v>19.399999999999999</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="61">
+      <c r="A25" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="56">
         <f>'Word(20%)'!N21</f>
         <v>100</v>
       </c>
@@ -2243,7 +2547,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="30">
-        <f>'Excel(50%)'!N30</f>
+        <f>'Excel(50%)'!N23</f>
         <v>0</v>
       </c>
       <c r="F25" s="30">
@@ -2251,28 +2555,34 @@
         <v>0</v>
       </c>
       <c r="G25" s="30">
-        <f>'PowerPoint (20%)'!N32</f>
+        <f>'PowerPoint (20%)'!N23</f>
         <v>0</v>
       </c>
       <c r="H25" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="18">
+      <c r="I25" s="79">
+        <f>Attendance!P25</f>
+        <v>100</v>
+      </c>
+      <c r="J25" s="79">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K25" s="80">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="61">
+      <c r="A26" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="56">
         <f>'Word(20%)'!N22</f>
         <v>86</v>
       </c>
@@ -2281,7 +2591,7 @@
         <v>17.2</v>
       </c>
       <c r="E26" s="30">
-        <f>'Excel(50%)'!N17</f>
+        <f>'Excel(50%)'!N24</f>
         <v>0</v>
       </c>
       <c r="F26" s="30">
@@ -2289,28 +2599,34 @@
         <v>0</v>
       </c>
       <c r="G26" s="30">
-        <f>'PowerPoint (20%)'!N19</f>
+        <f>'PowerPoint (20%)'!N24</f>
         <v>0</v>
       </c>
       <c r="H26" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="18">
+      <c r="I26" s="79">
+        <f>Attendance!P26</f>
+        <v>100</v>
+      </c>
+      <c r="J26" s="79">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K26" s="80">
         <f t="shared" si="4"/>
-        <v>17.2</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="61">
+      <c r="A27" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="56">
         <f>'Word(20%)'!N23</f>
         <v>94</v>
       </c>
@@ -2319,7 +2635,7 @@
         <v>18.8</v>
       </c>
       <c r="E27" s="30">
-        <f>'Excel(50%)'!N18</f>
+        <f>'Excel(50%)'!N25</f>
         <v>0</v>
       </c>
       <c r="F27" s="30">
@@ -2327,28 +2643,34 @@
         <v>0</v>
       </c>
       <c r="G27" s="30">
-        <f>'PowerPoint (20%)'!N20</f>
+        <f>'PowerPoint (20%)'!N25</f>
         <v>0</v>
       </c>
       <c r="H27" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="18">
+      <c r="I27" s="79">
+        <f>Attendance!P27</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="J27" s="79">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="K27" s="80">
         <f t="shared" si="4"/>
-        <v>18.8</v>
+        <v>27.133333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="61">
+      <c r="A28" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="56">
         <f>'Word(20%)'!N24</f>
         <v>97</v>
       </c>
@@ -2357,7 +2679,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="E28" s="30">
-        <f>'Excel(50%)'!N19</f>
+        <f>'Excel(50%)'!N26</f>
         <v>0</v>
       </c>
       <c r="F28" s="30">
@@ -2365,28 +2687,34 @@
         <v>0</v>
       </c>
       <c r="G28" s="30">
-        <f>'PowerPoint (20%)'!N21</f>
+        <f>'PowerPoint (20%)'!N26</f>
         <v>0</v>
       </c>
       <c r="H28" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="18">
+      <c r="I28" s="79">
+        <f>Attendance!P28</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="J28" s="79">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="K28" s="80">
         <f t="shared" si="4"/>
-        <v>19.399999999999999</v>
+        <v>27.733333333333334</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="61">
+      <c r="A29" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="56">
         <f>'Word(20%)'!N25</f>
         <v>96</v>
       </c>
@@ -2395,7 +2723,7 @@
         <v>19.2</v>
       </c>
       <c r="E29" s="30">
-        <f>'Excel(50%)'!N20</f>
+        <f>'Excel(50%)'!N27</f>
         <v>0</v>
       </c>
       <c r="F29" s="30">
@@ -2403,28 +2731,34 @@
         <v>0</v>
       </c>
       <c r="G29" s="30">
-        <f>'PowerPoint (20%)'!N22</f>
+        <f>'PowerPoint (20%)'!N27</f>
         <v>0</v>
       </c>
       <c r="H29" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="18">
+      <c r="I29" s="79">
+        <f>Attendance!P29</f>
+        <v>100</v>
+      </c>
+      <c r="J29" s="79">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K29" s="80">
         <f t="shared" si="4"/>
-        <v>19.2</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="61">
+      <c r="A30" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="56">
         <f>'Word(20%)'!N26</f>
         <v>84</v>
       </c>
@@ -2433,7 +2767,7 @@
         <v>16.8</v>
       </c>
       <c r="E30" s="30">
-        <f>'Excel(50%)'!N21</f>
+        <f>'Excel(50%)'!N28</f>
         <v>0</v>
       </c>
       <c r="F30" s="30">
@@ -2441,28 +2775,34 @@
         <v>0</v>
       </c>
       <c r="G30" s="30">
-        <f>'PowerPoint (20%)'!N23</f>
+        <f>'PowerPoint (20%)'!N28</f>
         <v>0</v>
       </c>
       <c r="H30" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="18">
+      <c r="I30" s="79">
+        <f>Attendance!P30</f>
+        <v>100</v>
+      </c>
+      <c r="J30" s="79">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K30" s="80">
         <f t="shared" si="4"/>
-        <v>16.8</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="61">
+      <c r="A31" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="56">
         <f>'Word(20%)'!N27</f>
         <v>79</v>
       </c>
@@ -2471,7 +2811,7 @@
         <v>15.8</v>
       </c>
       <c r="E31" s="30">
-        <f>'Excel(50%)'!N22</f>
+        <f>'Excel(50%)'!N29</f>
         <v>0</v>
       </c>
       <c r="F31" s="30">
@@ -2479,28 +2819,34 @@
         <v>0</v>
       </c>
       <c r="G31" s="30">
-        <f>'PowerPoint (20%)'!N24</f>
+        <f>'PowerPoint (20%)'!N29</f>
         <v>0</v>
       </c>
       <c r="H31" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="18">
+      <c r="I31" s="79">
+        <f>Attendance!P31</f>
+        <v>100</v>
+      </c>
+      <c r="J31" s="79">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K31" s="80">
         <f t="shared" si="4"/>
-        <v>15.8</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="61">
+      <c r="A32" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="56">
         <f>'Word(20%)'!N28</f>
         <v>93</v>
       </c>
@@ -2509,7 +2855,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="E32" s="30">
-        <f>'Excel(50%)'!N23</f>
+        <f>'Excel(50%)'!N30</f>
         <v>0</v>
       </c>
       <c r="F32" s="30">
@@ -2517,28 +2863,34 @@
         <v>0</v>
       </c>
       <c r="G32" s="30">
-        <f>'PowerPoint (20%)'!N25</f>
+        <f>'PowerPoint (20%)'!N30</f>
         <v>0</v>
       </c>
       <c r="H32" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="18">
+      <c r="I32" s="79">
+        <f>Attendance!P32</f>
+        <v>100</v>
+      </c>
+      <c r="J32" s="79">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K32" s="80">
         <f t="shared" si="4"/>
-        <v>18.600000000000001</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="61">
+      <c r="A33" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="56">
         <f>'Word(20%)'!N29</f>
         <v>95</v>
       </c>
@@ -2547,7 +2899,7 @@
         <v>19</v>
       </c>
       <c r="E33" s="30">
-        <f>'Excel(50%)'!N24</f>
+        <f>'Excel(50%)'!N31</f>
         <v>0</v>
       </c>
       <c r="F33" s="30">
@@ -2555,28 +2907,34 @@
         <v>0</v>
       </c>
       <c r="G33" s="30">
-        <f>'PowerPoint (20%)'!N26</f>
+        <f>'PowerPoint (20%)'!N31</f>
         <v>0</v>
       </c>
       <c r="H33" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="18">
+      <c r="I33" s="79">
+        <f>Attendance!P33</f>
+        <v>100</v>
+      </c>
+      <c r="J33" s="79">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K33" s="80">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="61">
+      <c r="A34" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="56">
         <f>'Word(20%)'!N30</f>
         <v>99</v>
       </c>
@@ -2585,7 +2943,7 @@
         <v>19.8</v>
       </c>
       <c r="E34" s="30">
-        <f>'Excel(50%)'!N25</f>
+        <f>'Excel(50%)'!N32</f>
         <v>0</v>
       </c>
       <c r="F34" s="30">
@@ -2593,28 +2951,34 @@
         <v>0</v>
       </c>
       <c r="G34" s="30">
-        <f>'PowerPoint (20%)'!N27</f>
+        <f>'PowerPoint (20%)'!N32</f>
         <v>0</v>
       </c>
       <c r="H34" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="18">
+      <c r="I34" s="79">
+        <f>Attendance!P34</f>
+        <v>100</v>
+      </c>
+      <c r="J34" s="79">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K34" s="80">
         <f t="shared" si="4"/>
-        <v>19.8</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="61">
+      <c r="A35" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="56">
         <f>'Word(20%)'!N31</f>
         <v>96</v>
       </c>
@@ -2623,7 +2987,7 @@
         <v>19.2</v>
       </c>
       <c r="E35" s="30">
-        <f>'Excel(50%)'!N26</f>
+        <f>'Excel(50%)'!N33</f>
         <v>0</v>
       </c>
       <c r="F35" s="30">
@@ -2631,54 +2995,68 @@
         <v>0</v>
       </c>
       <c r="G35" s="30">
-        <f>'PowerPoint (20%)'!N28</f>
+        <f>'PowerPoint (20%)'!N33</f>
         <v>0</v>
       </c>
       <c r="H35" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="18">
+      <c r="I35" s="79">
+        <f>Attendance!P35</f>
+        <v>100</v>
+      </c>
+      <c r="J35" s="79">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K35" s="80">
         <f t="shared" si="4"/>
-        <v>19.2</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="61">
+      <c r="A36" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="56">
         <f>'Word(20%)'!N32</f>
         <v>97</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="30">
         <f t="shared" si="1"/>
         <v>19.399999999999999</v>
       </c>
-      <c r="E36" s="3">
-        <f>'Excel(50%)'!N27</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="E36" s="30">
+        <f>'Excel(50%)'!N34</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G36" s="3">
-        <f>'PowerPoint (20%)'!N29</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="G36" s="30">
+        <f>'PowerPoint (20%)'!N34</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K36">
+      <c r="I36" s="79">
+        <f>Attendance!P36</f>
+        <v>100</v>
+      </c>
+      <c r="J36" s="79">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K36" s="80">
         <f t="shared" si="4"/>
-        <v>19.399999999999999</v>
+        <v>29.4</v>
       </c>
     </row>
   </sheetData>
@@ -2699,11 +3077,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2718,1382 +3096,1393 @@
   <sheetData>
     <row r="1" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="M1" s="57" t="s">
+      <c r="C1" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56">
-        <v>5</v>
-      </c>
-      <c r="D2" s="56">
-        <v>5</v>
-      </c>
-      <c r="E2" s="56">
-        <v>5</v>
-      </c>
-      <c r="F2" s="56">
-        <v>5</v>
-      </c>
-      <c r="G2" s="56">
-        <v>5</v>
-      </c>
-      <c r="H2" s="56">
+      <c r="A2" s="32"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51">
+        <v>5</v>
+      </c>
+      <c r="D2" s="51">
+        <v>5</v>
+      </c>
+      <c r="E2" s="51">
+        <v>5</v>
+      </c>
+      <c r="F2" s="51">
+        <v>5</v>
+      </c>
+      <c r="G2" s="51">
+        <v>5</v>
+      </c>
+      <c r="H2" s="51">
         <v>15</v>
       </c>
-      <c r="I2" s="56">
+      <c r="I2" s="51">
         <v>25</v>
       </c>
-      <c r="J2" s="56">
+      <c r="J2" s="51">
         <v>10</v>
       </c>
-      <c r="K2" s="56">
+      <c r="K2" s="51">
         <v>20</v>
       </c>
-      <c r="L2" s="56">
-        <v>5</v>
-      </c>
-      <c r="M2" s="56"/>
+      <c r="L2" s="51">
+        <v>5</v>
+      </c>
+      <c r="M2" s="51"/>
       <c r="N2" s="1">
         <f t="shared" ref="N2:N32" si="0">SUM(C2:L2)</f>
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="M3" s="48"/>
+      <c r="A3" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P3" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q3" s="51">
+        <v>110</v>
+      </c>
+      <c r="P3" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" s="46">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
+      <c r="A4" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>130</v>
-      </c>
-      <c r="P4" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="53">
+        <v>109</v>
+      </c>
+      <c r="P4" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="48">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="46">
-        <v>5</v>
-      </c>
-      <c r="D5" s="46">
+      <c r="A5" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="58">
+        <v>5</v>
+      </c>
+      <c r="D5" s="58">
         <v>2</v>
       </c>
-      <c r="E5" s="46">
-        <v>5</v>
-      </c>
-      <c r="F5" s="46">
-        <v>5</v>
-      </c>
-      <c r="G5" s="46">
-        <v>5</v>
-      </c>
-      <c r="H5" s="46">
+      <c r="E5" s="58">
+        <v>5</v>
+      </c>
+      <c r="F5" s="58">
+        <v>5</v>
+      </c>
+      <c r="G5" s="58">
+        <v>5</v>
+      </c>
+      <c r="H5" s="58">
         <v>12</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="58">
         <v>18</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="58">
         <v>10</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="58">
         <v>20</v>
       </c>
-      <c r="L5" s="46">
-        <v>5</v>
-      </c>
+      <c r="L5" s="58">
+        <v>5</v>
+      </c>
+      <c r="M5" s="18"/>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="P5" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q5" s="51">
+      <c r="P5" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5" s="46">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="46">
-        <v>5</v>
-      </c>
-      <c r="D6" s="46">
-        <v>5</v>
-      </c>
-      <c r="E6" s="46">
-        <v>0</v>
-      </c>
-      <c r="F6" s="46">
-        <v>5</v>
-      </c>
-      <c r="G6" s="46">
-        <v>5</v>
-      </c>
-      <c r="H6" s="46">
+      <c r="A6" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="58">
+        <v>5</v>
+      </c>
+      <c r="D6" s="58">
+        <v>5</v>
+      </c>
+      <c r="E6" s="58">
+        <v>0</v>
+      </c>
+      <c r="F6" s="58">
+        <v>5</v>
+      </c>
+      <c r="G6" s="58">
+        <v>5</v>
+      </c>
+      <c r="H6" s="58">
         <v>15</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="58">
         <v>22</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="58">
         <v>10</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6" s="58">
         <v>20</v>
       </c>
-      <c r="L6" s="46">
-        <v>5</v>
-      </c>
-      <c r="M6" s="46"/>
+      <c r="L6" s="58">
+        <v>5</v>
+      </c>
+      <c r="M6" s="58"/>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q6" s="53">
+        <v>21</v>
+      </c>
+      <c r="P6" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" s="48">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="46">
-        <v>5</v>
-      </c>
-      <c r="D7" s="46">
+      <c r="A7" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="58">
+        <v>5</v>
+      </c>
+      <c r="D7" s="58">
         <v>3</v>
       </c>
-      <c r="E7" s="46">
-        <v>5</v>
-      </c>
-      <c r="F7" s="46">
-        <v>5</v>
-      </c>
-      <c r="G7" s="46">
-        <v>5</v>
-      </c>
-      <c r="H7" s="46">
+      <c r="E7" s="58">
+        <v>5</v>
+      </c>
+      <c r="F7" s="58">
+        <v>5</v>
+      </c>
+      <c r="G7" s="58">
+        <v>5</v>
+      </c>
+      <c r="H7" s="58">
         <v>15</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="58">
         <v>25</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="58">
         <v>10</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="58">
         <v>14</v>
       </c>
-      <c r="L7" s="46">
-        <v>5</v>
-      </c>
-      <c r="M7" s="46"/>
+      <c r="L7" s="58">
+        <v>5</v>
+      </c>
+      <c r="M7" s="58"/>
       <c r="N7" s="1">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="P7" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q7" s="51">
+      <c r="P7" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="46">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="46">
-        <v>5</v>
-      </c>
-      <c r="D8" s="46">
+      <c r="A8" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="58">
+        <v>5</v>
+      </c>
+      <c r="D8" s="58">
         <v>3</v>
       </c>
-      <c r="E8" s="46">
-        <v>5</v>
-      </c>
-      <c r="F8" s="46">
-        <v>5</v>
-      </c>
-      <c r="G8" s="46">
-        <v>5</v>
-      </c>
-      <c r="H8" s="46">
+      <c r="E8" s="58">
+        <v>5</v>
+      </c>
+      <c r="F8" s="58">
+        <v>5</v>
+      </c>
+      <c r="G8" s="58">
+        <v>5</v>
+      </c>
+      <c r="H8" s="58">
         <v>12</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="58">
         <v>25</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="58">
         <v>10</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="58">
         <v>20</v>
       </c>
-      <c r="L8" s="46">
-        <v>5</v>
-      </c>
-      <c r="M8" s="46"/>
+      <c r="L8" s="58">
+        <v>5</v>
+      </c>
+      <c r="M8" s="58"/>
       <c r="N8" s="1">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="P8" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q8" s="53">
+      <c r="P8" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q8" s="48">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="46">
-        <v>5</v>
-      </c>
-      <c r="D9" s="46">
-        <v>5</v>
-      </c>
-      <c r="E9" s="46">
-        <v>5</v>
-      </c>
-      <c r="F9" s="46">
-        <v>5</v>
-      </c>
-      <c r="G9" s="46">
+      <c r="A9" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="58">
+        <v>5</v>
+      </c>
+      <c r="D9" s="58">
+        <v>5</v>
+      </c>
+      <c r="E9" s="58">
+        <v>5</v>
+      </c>
+      <c r="F9" s="58">
+        <v>5</v>
+      </c>
+      <c r="G9" s="58">
         <v>4</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="58">
         <v>14</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="58">
         <v>25</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="58">
         <v>10</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="58">
         <v>20</v>
       </c>
-      <c r="L9" s="46">
-        <v>5</v>
-      </c>
-      <c r="M9" s="46"/>
+      <c r="L9" s="58">
+        <v>5</v>
+      </c>
+      <c r="M9" s="58"/>
       <c r="N9" s="1">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="P9" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q9" s="51">
+      <c r="P9" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="46">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="46">
-        <v>5</v>
-      </c>
-      <c r="D10" s="46">
+      <c r="A10" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="58">
+        <v>5</v>
+      </c>
+      <c r="D10" s="58">
         <v>3</v>
       </c>
-      <c r="E10" s="46">
-        <v>5</v>
-      </c>
-      <c r="F10" s="46">
-        <v>5</v>
-      </c>
-      <c r="G10" s="46">
+      <c r="E10" s="58">
+        <v>5</v>
+      </c>
+      <c r="F10" s="58">
+        <v>5</v>
+      </c>
+      <c r="G10" s="58">
         <v>3</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="58">
         <v>13</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="58">
         <v>25</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="58">
         <v>10</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="58">
         <v>20</v>
       </c>
-      <c r="L10" s="46">
-        <v>5</v>
-      </c>
-      <c r="M10" s="46"/>
+      <c r="L10" s="58">
+        <v>5</v>
+      </c>
+      <c r="M10" s="58"/>
       <c r="N10" s="1">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="P10" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q10" s="53">
+      <c r="P10" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q10" s="48">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="46">
-        <v>5</v>
-      </c>
-      <c r="D11" s="46">
-        <v>5</v>
-      </c>
-      <c r="E11" s="46">
-        <v>5</v>
-      </c>
-      <c r="F11" s="46">
+      <c r="A11" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="58">
+        <v>5</v>
+      </c>
+      <c r="D11" s="58">
+        <v>5</v>
+      </c>
+      <c r="E11" s="58">
+        <v>5</v>
+      </c>
+      <c r="F11" s="58">
         <v>3</v>
       </c>
-      <c r="G11" s="46">
-        <v>5</v>
-      </c>
-      <c r="H11" s="46">
+      <c r="G11" s="58">
+        <v>5</v>
+      </c>
+      <c r="H11" s="58">
         <v>12</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="77">
         <v>25</v>
       </c>
-      <c r="J11" s="65">
+      <c r="J11" s="77">
         <v>10</v>
       </c>
-      <c r="K11" s="65">
+      <c r="K11" s="77">
         <v>20</v>
       </c>
-      <c r="L11" s="65">
-        <v>5</v>
-      </c>
-      <c r="M11" s="48"/>
+      <c r="L11" s="77">
+        <v>5</v>
+      </c>
+      <c r="M11" s="59"/>
       <c r="N11" s="1">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="P11" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q11" s="51">
+      <c r="P11" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" s="46">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="46">
-        <v>5</v>
-      </c>
-      <c r="D12" s="46">
-        <v>5</v>
-      </c>
-      <c r="E12" s="46">
-        <v>5</v>
-      </c>
-      <c r="F12" s="46">
-        <v>5</v>
-      </c>
-      <c r="G12" s="46">
-        <v>5</v>
-      </c>
-      <c r="H12" s="46">
+      <c r="A12" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="58">
+        <v>5</v>
+      </c>
+      <c r="D12" s="58">
+        <v>5</v>
+      </c>
+      <c r="E12" s="58">
+        <v>5</v>
+      </c>
+      <c r="F12" s="58">
+        <v>5</v>
+      </c>
+      <c r="G12" s="58">
+        <v>5</v>
+      </c>
+      <c r="H12" s="58">
         <v>15</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="58">
         <v>25</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="58">
         <v>10</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="58">
         <v>20</v>
       </c>
-      <c r="L12" s="46">
-        <v>5</v>
-      </c>
-      <c r="M12" s="46"/>
+      <c r="L12" s="58">
+        <v>5</v>
+      </c>
+      <c r="M12" s="58"/>
       <c r="N12" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="P12" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q12" s="53">
+      <c r="P12" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q12" s="48">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="46">
-        <v>5</v>
-      </c>
-      <c r="D13" s="46">
+      <c r="A13" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="58">
+        <v>5</v>
+      </c>
+      <c r="D13" s="58">
         <v>4</v>
       </c>
-      <c r="E13" s="46">
-        <v>5</v>
-      </c>
-      <c r="F13" s="46">
-        <v>5</v>
-      </c>
-      <c r="G13" s="46">
-        <v>5</v>
-      </c>
-      <c r="H13" s="46">
+      <c r="E13" s="58">
+        <v>5</v>
+      </c>
+      <c r="F13" s="58">
+        <v>5</v>
+      </c>
+      <c r="G13" s="58">
+        <v>5</v>
+      </c>
+      <c r="H13" s="58">
         <v>12</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="58">
         <v>25</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="58">
         <v>10</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="58">
         <v>20</v>
       </c>
-      <c r="L13" s="46">
-        <v>5</v>
-      </c>
-      <c r="M13" s="46"/>
+      <c r="L13" s="58">
+        <v>5</v>
+      </c>
+      <c r="M13" s="58"/>
       <c r="N13" s="1">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="P13" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q13" s="55">
+      <c r="P13" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="50">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="46">
-        <v>5</v>
-      </c>
-      <c r="D14" s="46">
-        <v>5</v>
-      </c>
-      <c r="E14" s="46">
-        <v>5</v>
-      </c>
-      <c r="F14" s="46">
-        <v>5</v>
-      </c>
-      <c r="G14" s="46">
-        <v>5</v>
-      </c>
-      <c r="H14" s="46">
+      <c r="A14" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="58">
+        <v>5</v>
+      </c>
+      <c r="D14" s="58">
+        <v>5</v>
+      </c>
+      <c r="E14" s="58">
+        <v>5</v>
+      </c>
+      <c r="F14" s="58">
+        <v>5</v>
+      </c>
+      <c r="G14" s="58">
+        <v>5</v>
+      </c>
+      <c r="H14" s="58">
         <v>14</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="58">
         <v>25</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="58">
         <v>10</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="58">
         <v>20</v>
       </c>
-      <c r="L14" s="46">
-        <v>5</v>
-      </c>
-      <c r="M14" s="46"/>
+      <c r="L14" s="58">
+        <v>5</v>
+      </c>
+      <c r="M14" s="58"/>
       <c r="N14" s="1">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="46">
-        <v>5</v>
-      </c>
-      <c r="D15" s="46">
+      <c r="A15" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="58">
+        <v>5</v>
+      </c>
+      <c r="D15" s="58">
         <v>4</v>
       </c>
-      <c r="E15" s="46">
-        <v>5</v>
-      </c>
-      <c r="F15" s="46">
+      <c r="E15" s="58">
+        <v>5</v>
+      </c>
+      <c r="F15" s="58">
         <v>4</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="58">
         <v>4</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="58">
         <v>13</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="58">
         <v>20</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="58">
         <v>10</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="58">
         <v>20</v>
       </c>
-      <c r="L15" s="46">
-        <v>5</v>
-      </c>
-      <c r="M15" s="46"/>
+      <c r="L15" s="58">
+        <v>5</v>
+      </c>
+      <c r="M15" s="58"/>
       <c r="N15" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="46">
-        <v>5</v>
-      </c>
-      <c r="D16" s="46">
+      <c r="A16" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="58">
+        <v>5</v>
+      </c>
+      <c r="D16" s="58">
         <v>3</v>
       </c>
-      <c r="E16" s="46">
-        <v>5</v>
-      </c>
-      <c r="F16" s="46">
-        <v>5</v>
-      </c>
-      <c r="G16" s="46">
+      <c r="E16" s="58">
+        <v>5</v>
+      </c>
+      <c r="F16" s="58">
+        <v>5</v>
+      </c>
+      <c r="G16" s="58">
         <v>4</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="58">
         <v>13</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="58">
         <v>25</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="58">
         <v>10</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="58">
         <v>15</v>
       </c>
-      <c r="L16" s="46">
-        <v>5</v>
-      </c>
-      <c r="M16" s="46"/>
+      <c r="L16" s="58">
+        <v>5</v>
+      </c>
+      <c r="M16" s="58"/>
       <c r="N16" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
+      <c r="A17" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
       <c r="N17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="46">
-        <v>5</v>
-      </c>
-      <c r="D18" s="46">
+      <c r="A18" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="58">
+        <v>5</v>
+      </c>
+      <c r="D18" s="58">
         <v>3</v>
       </c>
-      <c r="E18" s="46">
-        <v>5</v>
-      </c>
-      <c r="F18" s="46">
-        <v>5</v>
-      </c>
-      <c r="G18" s="46">
-        <v>5</v>
-      </c>
-      <c r="H18" s="46">
+      <c r="E18" s="58">
+        <v>5</v>
+      </c>
+      <c r="F18" s="58">
+        <v>5</v>
+      </c>
+      <c r="G18" s="58">
+        <v>5</v>
+      </c>
+      <c r="H18" s="58">
         <v>13</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="58">
         <v>25</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="58">
         <v>10</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="58">
         <v>20</v>
       </c>
-      <c r="L18" s="46">
-        <v>5</v>
-      </c>
-      <c r="M18" s="46"/>
+      <c r="L18" s="58">
+        <v>5</v>
+      </c>
+      <c r="M18" s="58"/>
       <c r="N18" s="1">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="46">
-        <v>5</v>
-      </c>
-      <c r="D19" s="46">
-        <v>5</v>
-      </c>
-      <c r="E19" s="46">
-        <v>5</v>
-      </c>
-      <c r="F19" s="46">
-        <v>5</v>
-      </c>
-      <c r="G19" s="46">
-        <v>5</v>
-      </c>
-      <c r="H19" s="46">
+      <c r="A19" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="58">
+        <v>5</v>
+      </c>
+      <c r="D19" s="58">
+        <v>5</v>
+      </c>
+      <c r="E19" s="58">
+        <v>5</v>
+      </c>
+      <c r="F19" s="58">
+        <v>5</v>
+      </c>
+      <c r="G19" s="58">
+        <v>5</v>
+      </c>
+      <c r="H19" s="58">
         <v>11</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="58">
         <v>25</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="58">
         <v>10</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="58">
         <v>18</v>
       </c>
-      <c r="L19" s="46">
-        <v>5</v>
-      </c>
-      <c r="M19" s="46"/>
+      <c r="L19" s="58">
+        <v>5</v>
+      </c>
+      <c r="M19" s="58"/>
       <c r="N19" s="1">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="46">
-        <v>5</v>
-      </c>
-      <c r="D20" s="46">
+      <c r="A20" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="58">
+        <v>5</v>
+      </c>
+      <c r="D20" s="58">
         <v>3</v>
       </c>
-      <c r="E20" s="46">
-        <v>5</v>
-      </c>
-      <c r="F20" s="46">
-        <v>5</v>
-      </c>
-      <c r="G20" s="46">
-        <v>5</v>
-      </c>
-      <c r="H20" s="46">
+      <c r="E20" s="58">
+        <v>5</v>
+      </c>
+      <c r="F20" s="58">
+        <v>5</v>
+      </c>
+      <c r="G20" s="58">
+        <v>5</v>
+      </c>
+      <c r="H20" s="58">
         <v>14</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="58">
         <v>25</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="58">
         <v>10</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="58">
         <v>20</v>
       </c>
-      <c r="L20" s="46">
-        <v>5</v>
-      </c>
-      <c r="M20" s="46"/>
+      <c r="L20" s="58">
+        <v>5</v>
+      </c>
+      <c r="M20" s="58"/>
       <c r="N20" s="1">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="46">
-        <v>5</v>
-      </c>
-      <c r="D21" s="46">
-        <v>5</v>
-      </c>
-      <c r="E21" s="46">
-        <v>5</v>
-      </c>
-      <c r="F21" s="46">
-        <v>5</v>
-      </c>
-      <c r="G21" s="46">
-        <v>5</v>
-      </c>
-      <c r="H21" s="46">
+      <c r="A21" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="58">
+        <v>5</v>
+      </c>
+      <c r="D21" s="58">
+        <v>5</v>
+      </c>
+      <c r="E21" s="58">
+        <v>5</v>
+      </c>
+      <c r="F21" s="58">
+        <v>5</v>
+      </c>
+      <c r="G21" s="58">
+        <v>5</v>
+      </c>
+      <c r="H21" s="58">
         <v>15</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="58">
         <v>25</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="58">
         <v>10</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="58">
         <v>20</v>
       </c>
-      <c r="L21" s="46">
-        <v>5</v>
-      </c>
-      <c r="M21" s="46"/>
+      <c r="L21" s="58">
+        <v>5</v>
+      </c>
+      <c r="M21" s="58"/>
       <c r="N21" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="46">
-        <v>5</v>
-      </c>
-      <c r="D22" s="46">
+      <c r="A22" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="58">
+        <v>5</v>
+      </c>
+      <c r="D22" s="58">
         <v>3</v>
       </c>
-      <c r="E22" s="46">
-        <v>5</v>
-      </c>
-      <c r="F22" s="46">
-        <v>5</v>
-      </c>
-      <c r="G22" s="46">
+      <c r="E22" s="58">
+        <v>5</v>
+      </c>
+      <c r="F22" s="58">
+        <v>5</v>
+      </c>
+      <c r="G22" s="58">
         <v>2</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="58">
         <v>6</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="58">
         <v>25</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="58">
         <v>10</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="58">
         <v>20</v>
       </c>
-      <c r="L22" s="46">
-        <v>5</v>
-      </c>
-      <c r="M22" s="46"/>
+      <c r="L22" s="58">
+        <v>5</v>
+      </c>
+      <c r="M22" s="58"/>
       <c r="N22" s="1">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="46">
-        <v>5</v>
-      </c>
-      <c r="D23" s="46">
-        <v>5</v>
-      </c>
-      <c r="E23" s="46">
-        <v>5</v>
-      </c>
-      <c r="F23" s="46">
-        <v>5</v>
-      </c>
-      <c r="G23" s="46">
-        <v>5</v>
-      </c>
-      <c r="H23" s="46">
+      <c r="A23" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="58">
+        <v>5</v>
+      </c>
+      <c r="D23" s="58">
+        <v>5</v>
+      </c>
+      <c r="E23" s="58">
+        <v>5</v>
+      </c>
+      <c r="F23" s="58">
+        <v>5</v>
+      </c>
+      <c r="G23" s="58">
+        <v>5</v>
+      </c>
+      <c r="H23" s="58">
         <v>13</v>
       </c>
-      <c r="I23" s="46">
+      <c r="I23" s="58">
         <v>25</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23" s="58">
         <v>10</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23" s="58">
         <v>16</v>
       </c>
-      <c r="L23" s="46">
-        <v>5</v>
-      </c>
-      <c r="M23" s="46"/>
+      <c r="L23" s="58">
+        <v>5</v>
+      </c>
+      <c r="M23" s="58"/>
       <c r="N23" s="1">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="46">
-        <v>5</v>
-      </c>
-      <c r="D24" s="46">
-        <v>5</v>
-      </c>
-      <c r="E24" s="46">
-        <v>5</v>
-      </c>
-      <c r="F24" s="46">
+      <c r="A24" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="58">
+        <v>5</v>
+      </c>
+      <c r="D24" s="58">
+        <v>5</v>
+      </c>
+      <c r="E24" s="58">
+        <v>5</v>
+      </c>
+      <c r="F24" s="58">
         <v>3</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="58">
         <v>4</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="58">
         <v>15</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I24" s="58">
         <v>25</v>
       </c>
-      <c r="J24" s="46">
+      <c r="J24" s="58">
         <v>10</v>
       </c>
-      <c r="K24" s="46">
+      <c r="K24" s="58">
         <v>20</v>
       </c>
-      <c r="L24" s="46">
-        <v>5</v>
-      </c>
-      <c r="M24" s="46"/>
+      <c r="L24" s="58">
+        <v>5</v>
+      </c>
+      <c r="M24" s="58"/>
       <c r="N24" s="1">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="46">
-        <v>5</v>
-      </c>
-      <c r="D25" s="46">
-        <v>5</v>
-      </c>
-      <c r="E25" s="46">
-        <v>5</v>
-      </c>
-      <c r="F25" s="46">
+      <c r="A25" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="58">
+        <v>5</v>
+      </c>
+      <c r="D25" s="58">
+        <v>5</v>
+      </c>
+      <c r="E25" s="58">
+        <v>5</v>
+      </c>
+      <c r="F25" s="58">
         <v>4</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="58">
         <v>4</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H25" s="58">
         <v>15</v>
       </c>
-      <c r="I25" s="46">
+      <c r="I25" s="58">
         <v>25</v>
       </c>
-      <c r="J25" s="46">
+      <c r="J25" s="58">
         <v>10</v>
       </c>
-      <c r="K25" s="46">
+      <c r="K25" s="58">
         <v>20</v>
       </c>
-      <c r="L25" s="46">
+      <c r="L25" s="58">
         <v>3</v>
       </c>
-      <c r="M25" s="46"/>
+      <c r="M25" s="58"/>
       <c r="N25" s="1">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="46">
-        <v>5</v>
-      </c>
-      <c r="D26" s="46">
-        <v>5</v>
-      </c>
-      <c r="E26" s="46">
-        <v>5</v>
-      </c>
-      <c r="F26" s="46">
+      <c r="A26" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="58">
+        <v>5</v>
+      </c>
+      <c r="D26" s="58">
+        <v>5</v>
+      </c>
+      <c r="E26" s="58">
+        <v>5</v>
+      </c>
+      <c r="F26" s="58">
         <v>3</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26" s="58">
         <v>1</v>
       </c>
-      <c r="H26" s="46">
+      <c r="H26" s="58">
         <v>10</v>
       </c>
-      <c r="I26" s="46">
+      <c r="I26" s="58">
         <v>20</v>
       </c>
-      <c r="J26" s="46">
+      <c r="J26" s="58">
         <v>10</v>
       </c>
-      <c r="K26" s="46">
+      <c r="K26" s="58">
         <v>20</v>
       </c>
-      <c r="L26" s="46">
-        <v>5</v>
-      </c>
-      <c r="M26" s="46"/>
+      <c r="L26" s="58">
+        <v>5</v>
+      </c>
+      <c r="M26" s="58"/>
       <c r="N26" s="1">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="46">
-        <v>5</v>
-      </c>
-      <c r="D27" s="46">
+      <c r="A27" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="58">
+        <v>5</v>
+      </c>
+      <c r="D27" s="58">
         <v>3</v>
       </c>
-      <c r="E27" s="46">
-        <v>5</v>
-      </c>
-      <c r="F27" s="46">
+      <c r="E27" s="58">
+        <v>5</v>
+      </c>
+      <c r="F27" s="58">
         <v>4</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="58">
         <v>2</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="58">
         <v>8</v>
       </c>
-      <c r="I27" s="46">
+      <c r="I27" s="58">
         <v>25</v>
       </c>
-      <c r="J27" s="46">
+      <c r="J27" s="58">
         <v>10</v>
       </c>
-      <c r="K27" s="46">
+      <c r="K27" s="58">
         <v>12</v>
       </c>
-      <c r="L27" s="46">
-        <v>5</v>
-      </c>
-      <c r="M27" s="46"/>
+      <c r="L27" s="58">
+        <v>5</v>
+      </c>
+      <c r="M27" s="58"/>
       <c r="N27" s="1">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="46">
-        <v>5</v>
-      </c>
-      <c r="D28" s="46">
+      <c r="A28" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="58">
+        <v>5</v>
+      </c>
+      <c r="D28" s="58">
         <v>3</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="58">
         <v>4</v>
       </c>
-      <c r="F28" s="46">
-        <v>5</v>
-      </c>
-      <c r="G28" s="46">
+      <c r="F28" s="58">
+        <v>5</v>
+      </c>
+      <c r="G28" s="58">
         <v>3</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="58">
         <v>15</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="58">
         <v>25</v>
       </c>
-      <c r="J28" s="46">
+      <c r="J28" s="58">
         <v>10</v>
       </c>
-      <c r="K28" s="46">
+      <c r="K28" s="58">
         <v>20</v>
       </c>
-      <c r="L28" s="46">
+      <c r="L28" s="58">
         <v>3</v>
       </c>
-      <c r="M28" s="46"/>
+      <c r="M28" s="58"/>
       <c r="N28" s="1">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="46">
-        <v>5</v>
-      </c>
-      <c r="D29" s="46">
-        <v>5</v>
-      </c>
-      <c r="E29" s="46">
-        <v>5</v>
-      </c>
-      <c r="F29" s="46">
-        <v>5</v>
-      </c>
-      <c r="G29" s="46">
+      <c r="A29" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="58">
+        <v>5</v>
+      </c>
+      <c r="D29" s="58">
+        <v>5</v>
+      </c>
+      <c r="E29" s="58">
+        <v>5</v>
+      </c>
+      <c r="F29" s="58">
+        <v>5</v>
+      </c>
+      <c r="G29" s="58">
         <v>4</v>
       </c>
-      <c r="H29" s="46">
+      <c r="H29" s="58">
         <v>12</v>
       </c>
-      <c r="I29" s="46">
+      <c r="I29" s="58">
         <v>25</v>
       </c>
-      <c r="J29" s="46">
+      <c r="J29" s="58">
         <v>10</v>
       </c>
-      <c r="K29" s="46">
+      <c r="K29" s="58">
         <v>20</v>
       </c>
-      <c r="L29" s="46">
+      <c r="L29" s="58">
         <v>4</v>
       </c>
-      <c r="M29" s="46"/>
+      <c r="M29" s="58"/>
       <c r="N29" s="1">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="46">
-        <v>5</v>
-      </c>
-      <c r="D30" s="46">
-        <v>5</v>
-      </c>
-      <c r="E30" s="46">
-        <v>5</v>
-      </c>
-      <c r="F30" s="46">
-        <v>5</v>
-      </c>
-      <c r="G30" s="46">
-        <v>5</v>
-      </c>
-      <c r="H30" s="46">
+      <c r="A30" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="58">
+        <v>5</v>
+      </c>
+      <c r="D30" s="58">
+        <v>5</v>
+      </c>
+      <c r="E30" s="58">
+        <v>5</v>
+      </c>
+      <c r="F30" s="58">
+        <v>5</v>
+      </c>
+      <c r="G30" s="58">
+        <v>5</v>
+      </c>
+      <c r="H30" s="58">
         <v>14</v>
       </c>
-      <c r="I30" s="46">
+      <c r="I30" s="58">
         <v>25</v>
       </c>
-      <c r="J30" s="46">
+      <c r="J30" s="58">
         <v>10</v>
       </c>
-      <c r="K30" s="46">
+      <c r="K30" s="58">
         <v>20</v>
       </c>
-      <c r="L30" s="46">
-        <v>5</v>
-      </c>
-      <c r="M30" s="46"/>
+      <c r="L30" s="58">
+        <v>5</v>
+      </c>
+      <c r="M30" s="58"/>
       <c r="N30" s="1">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="46">
-        <v>5</v>
-      </c>
-      <c r="D31" s="46">
-        <v>5</v>
-      </c>
-      <c r="E31" s="46">
-        <v>5</v>
-      </c>
-      <c r="F31" s="46">
-        <v>5</v>
-      </c>
-      <c r="G31" s="46">
+      <c r="A31" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="58">
+        <v>5</v>
+      </c>
+      <c r="D31" s="58">
+        <v>5</v>
+      </c>
+      <c r="E31" s="58">
+        <v>5</v>
+      </c>
+      <c r="F31" s="58">
+        <v>5</v>
+      </c>
+      <c r="G31" s="58">
         <v>4</v>
       </c>
-      <c r="H31" s="46">
+      <c r="H31" s="58">
         <v>13</v>
       </c>
-      <c r="I31" s="46">
+      <c r="I31" s="58">
         <v>25</v>
       </c>
-      <c r="J31" s="46">
+      <c r="J31" s="58">
         <v>10</v>
       </c>
-      <c r="K31" s="46">
+      <c r="K31" s="58">
         <v>19</v>
       </c>
-      <c r="L31" s="46">
-        <v>5</v>
-      </c>
-      <c r="M31" s="46"/>
+      <c r="L31" s="58">
+        <v>5</v>
+      </c>
+      <c r="M31" s="58"/>
       <c r="N31" s="1">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="46">
-        <v>5</v>
-      </c>
-      <c r="D32" s="46">
-        <v>5</v>
-      </c>
-      <c r="E32" s="46">
-        <v>5</v>
-      </c>
-      <c r="F32" s="46">
-        <v>5</v>
-      </c>
-      <c r="G32" s="46">
+      <c r="A32" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="58">
+        <v>5</v>
+      </c>
+      <c r="D32" s="58">
+        <v>5</v>
+      </c>
+      <c r="E32" s="58">
+        <v>5</v>
+      </c>
+      <c r="F32" s="58">
+        <v>5</v>
+      </c>
+      <c r="G32" s="58">
         <v>4</v>
       </c>
-      <c r="H32" s="46">
+      <c r="H32" s="58">
         <v>13</v>
       </c>
-      <c r="I32" s="46">
+      <c r="I32" s="58">
         <v>25</v>
       </c>
-      <c r="J32" s="46">
+      <c r="J32" s="58">
         <v>10</v>
       </c>
-      <c r="K32" s="46">
+      <c r="K32" s="58">
         <v>20</v>
       </c>
-      <c r="L32" s="46">
-        <v>5</v>
-      </c>
-      <c r="M32" s="46"/>
+      <c r="L32" s="58">
+        <v>5</v>
+      </c>
+      <c r="M32" s="58"/>
       <c r="N32" s="1">
         <f t="shared" si="0"/>
         <v>97</v>
@@ -4103,7 +4492,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O32">
     <sortCondition ref="B3:B32"/>
   </sortState>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4113,11 +4502,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z295"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:B1048576"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B35:O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4139,28 +4528,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="68"/>
+      <c r="M1" s="69"/>
       <c r="N1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P1"/>
       <c r="Q1"/>
@@ -4176,7 +4565,7 @@
     </row>
     <row r="2" spans="1:26" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>1</v>
@@ -4184,22 +4573,22 @@
       <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="69">
+      <c r="D2" s="63">
         <f>SUM(D4:J4)</f>
         <v>50</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="70">
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="64">
         <f>SUM(K4:M4)</f>
         <v>40</v>
       </c>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
       <c r="N2" s="21">
         <f>SUM(C2:M2)</f>
         <v>100</v>
@@ -4218,48 +4607,48 @@
       <c r="Z2"/>
     </row>
     <row r="3" spans="1:26" s="25" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>54</v>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="N3" s="21"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
     </row>
     <row r="4" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
@@ -4314,11 +4703,11 @@
       <c r="Z4"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>58</v>
+      <c r="A5" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -4349,11 +4738,11 @@
       <c r="Z5"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>60</v>
+      <c r="A6" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -4384,11 +4773,11 @@
       <c r="Z6"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>62</v>
+      <c r="A7" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>111</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -4419,11 +4808,11 @@
       <c r="Z7"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>64</v>
+      <c r="A8" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>37</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -4454,11 +4843,11 @@
       <c r="Z8"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>66</v>
+      <c r="A9" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>39</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -4489,11 +4878,11 @@
       <c r="Z9"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>68</v>
+      <c r="A10" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>41</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -4524,11 +4913,11 @@
       <c r="Z10"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>70</v>
+      <c r="A11" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>43</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -4559,11 +4948,11 @@
       <c r="Z11"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>72</v>
+      <c r="A12" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -4594,11 +4983,11 @@
       <c r="Z12"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>74</v>
+      <c r="A13" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -4629,11 +5018,11 @@
       <c r="Z13"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>76</v>
+      <c r="A14" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>47</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -4664,11 +5053,11 @@
       <c r="Z14"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>78</v>
+      <c r="A15" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>49</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -4699,11 +5088,11 @@
       <c r="Z15"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>80</v>
+      <c r="A16" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -4734,11 +5123,11 @@
       <c r="Z16"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="47" t="s">
+      <c r="A17" s="42" t="s">
         <v>82</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>83</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -4769,11 +5158,11 @@
       <c r="Z17"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>84</v>
+      <c r="A18" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>53</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -4804,11 +5193,11 @@
       <c r="Z18"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>86</v>
+      <c r="A19" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>55</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -4839,11 +5228,11 @@
       <c r="Z19"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>88</v>
+      <c r="A20" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>57</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -4874,11 +5263,11 @@
       <c r="Z20"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>90</v>
+      <c r="A21" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>59</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -4909,11 +5298,11 @@
       <c r="Z21"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>92</v>
+      <c r="A22" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>85</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -4944,13 +5333,13 @@
       <c r="Z22"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="45"/>
+      <c r="A23" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="41"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
@@ -4979,11 +5368,11 @@
       <c r="Z23"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>96</v>
+      <c r="A24" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>61</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -5014,11 +5403,11 @@
       <c r="Z24"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>98</v>
+      <c r="A25" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>63</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -5049,11 +5438,11 @@
       <c r="Z25"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>100</v>
+      <c r="A26" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>65</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -5084,11 +5473,11 @@
       <c r="Z26"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>102</v>
+      <c r="A27" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>67</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -5119,11 +5508,11 @@
       <c r="Z27"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>104</v>
+      <c r="A28" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>69</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -5154,11 +5543,11 @@
       <c r="Z28"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>106</v>
+      <c r="A29" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>71</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -5189,11 +5578,11 @@
       <c r="Z29"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>108</v>
+      <c r="A30" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>73</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -5224,11 +5613,11 @@
       <c r="Z30"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>110</v>
+      <c r="A31" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>75</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -5259,11 +5648,11 @@
       <c r="Z31"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>112</v>
+      <c r="A32" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>77</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -5294,11 +5683,11 @@
       <c r="Z32"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="48" t="s">
-        <v>114</v>
+      <c r="A33" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>79</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -5329,17 +5718,27 @@
       <c r="Z33"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
+      <c r="A34" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="7">
+        <f t="shared" ref="N34" si="2">SUM(D34:M34)</f>
+        <v>0</v>
+      </c>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
@@ -5354,6 +5753,7 @@
       <c r="Z34"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="42"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
@@ -5365,6 +5765,7 @@
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35"/>
+      <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35"/>
@@ -5378,6 +5779,7 @@
       <c r="Z35"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="42"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
@@ -11891,20 +12293,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C812C3E6-88E6-894F-B1C7-641BD53636A1}">
-  <dimension ref="A3:V35"/>
+  <dimension ref="A3:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="99" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="99" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A1:B1048576"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
     <col min="19" max="19" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11912,45 +12316,45 @@
       <c r="A3" s="8"/>
       <c r="B3"/>
       <c r="C3" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="F3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="G3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="H3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="I3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="J3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="K3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="L3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="M3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>21</v>
-      </c>
       <c r="N3" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>1</v>
@@ -11994,8 +12398,12 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>91</v>
+      </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -12013,7 +12421,12 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B6" s="11"/>
+      <c r="A6" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>89</v>
+      </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -12023,7 +12436,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
-      <c r="L6" s="45"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="18"/>
       <c r="N6" s="28">
         <f t="shared" si="0"/>
@@ -12031,11 +12444,11 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>58</v>
+      <c r="A7" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>111</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -12046,7 +12459,7 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="45"/>
+      <c r="L7" s="41"/>
       <c r="M7" s="18"/>
       <c r="N7" s="28">
         <f t="shared" si="0"/>
@@ -12054,11 +12467,11 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>60</v>
+      <c r="A8" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>91</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -12069,22 +12482,19 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="45"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="18"/>
       <c r="N8" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S8" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>62</v>
+      <c r="A9" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>89</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -12095,7 +12505,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="45"/>
+      <c r="L9" s="41"/>
       <c r="M9" s="18"/>
       <c r="N9" s="28">
         <f t="shared" si="0"/>
@@ -12103,11 +12513,11 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>64</v>
+      <c r="A10" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>111</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -12118,29 +12528,22 @@
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
-      <c r="L10" s="45"/>
+      <c r="L10" s="41"/>
       <c r="M10" s="18"/>
       <c r="N10" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="T10" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="U10" s="18"/>
       <c r="V10" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>66</v>
+      <c r="A11" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -12151,29 +12554,22 @@
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="45"/>
+      <c r="L11" s="41"/>
       <c r="M11" s="18"/>
       <c r="N11" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S11" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="T11" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="U11" s="18"/>
       <c r="V11" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>68</v>
+      <c r="A12" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>39</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -12184,29 +12580,22 @@
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="45"/>
+      <c r="L12" s="41"/>
       <c r="M12" s="18"/>
       <c r="N12" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S12" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="T12" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="U12" s="18"/>
       <c r="V12" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>70</v>
+      <c r="A13" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -12217,29 +12606,22 @@
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="45"/>
+      <c r="L13" s="41"/>
       <c r="M13" s="18"/>
       <c r="N13" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S13" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="T13" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="U13" s="18"/>
       <c r="V13" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>72</v>
+      <c r="A14" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>43</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -12250,29 +12632,22 @@
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
-      <c r="L14" s="45"/>
+      <c r="L14" s="41"/>
       <c r="M14" s="18"/>
       <c r="N14" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S14" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="T14" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="U14" s="18"/>
       <c r="V14" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>74</v>
+      <c r="A15" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -12283,29 +12658,22 @@
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="45"/>
+      <c r="L15" s="41"/>
       <c r="M15" s="18"/>
       <c r="N15" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S15" s="32" t="s">
+      <c r="V15" t="s">
         <v>34</v>
       </c>
-      <c r="T15" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="U15" s="18"/>
-      <c r="V15" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>76</v>
+      <c r="A16" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>93</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -12322,23 +12690,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S16" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="T16" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="U16" s="18"/>
       <c r="V16" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>78</v>
+      <c r="A17" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>47</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -12355,20 +12716,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S17" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="T17" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="U17" s="18"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>80</v>
+      <c r="A18" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>49</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -12379,29 +12733,22 @@
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="45"/>
+      <c r="L18" s="41"/>
       <c r="M18" s="18"/>
       <c r="N18" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S18" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="T18" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="U18" s="18"/>
       <c r="V18" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>82</v>
+      <c r="A19" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>51</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -12412,7 +12759,7 @@
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="45"/>
+      <c r="L19" s="41"/>
       <c r="M19" s="18"/>
       <c r="N19" s="28">
         <f t="shared" si="0"/>
@@ -12420,11 +12767,11 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="74" t="s">
         <v>83</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>84</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -12435,7 +12782,7 @@
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
-      <c r="L20" s="45"/>
+      <c r="L20" s="41"/>
       <c r="M20" s="18"/>
       <c r="N20" s="28">
         <f t="shared" si="0"/>
@@ -12443,11 +12790,11 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>86</v>
+      <c r="A21" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>53</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -12458,7 +12805,7 @@
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
-      <c r="L21" s="45"/>
+      <c r="L21" s="41"/>
       <c r="M21" s="18"/>
       <c r="N21" s="28">
         <f t="shared" si="0"/>
@@ -12466,11 +12813,11 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>88</v>
+      <c r="A22" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>55</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -12481,7 +12828,7 @@
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
-      <c r="L22" s="45"/>
+      <c r="L22" s="41"/>
       <c r="M22" s="18"/>
       <c r="N22" s="28">
         <f t="shared" si="0"/>
@@ -12489,11 +12836,11 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>90</v>
+      <c r="A23" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>57</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -12504,7 +12851,7 @@
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="45"/>
+      <c r="L23" s="41"/>
       <c r="M23" s="18"/>
       <c r="N23" s="28">
         <f t="shared" si="0"/>
@@ -12512,11 +12859,11 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>92</v>
+      <c r="A24" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="74" t="s">
+        <v>59</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -12527,7 +12874,7 @@
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
-      <c r="L24" s="45"/>
+      <c r="L24" s="41"/>
       <c r="M24" s="18"/>
       <c r="N24" s="28">
         <f t="shared" si="0"/>
@@ -12535,11 +12882,11 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>94</v>
+      <c r="A25" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="74" t="s">
+        <v>85</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -12550,7 +12897,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
-      <c r="L25" s="45"/>
+      <c r="L25" s="41"/>
       <c r="M25" s="18"/>
       <c r="N25" s="28">
         <f t="shared" si="0"/>
@@ -12558,11 +12905,11 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>96</v>
+      <c r="A26" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="74" t="s">
+        <v>87</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -12573,19 +12920,19 @@
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
-      <c r="L26" s="45"/>
+      <c r="L26" s="41"/>
       <c r="M26" s="18"/>
       <c r="N26" s="28">
-        <f t="shared" ref="N26:N35" si="1">SUM(C26:M26)</f>
+        <f t="shared" ref="N26:N34" si="1">SUM(C26:M26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>98</v>
+      <c r="A27" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>61</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -12604,11 +12951,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>100</v>
+      <c r="A28" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>63</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -12627,11 +12974,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>102</v>
+      <c r="A29" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="74" t="s">
+        <v>65</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -12650,11 +12997,11 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>104</v>
+      <c r="A30" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>67</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -12673,11 +13020,11 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>106</v>
+      <c r="A31" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="74" t="s">
+        <v>69</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -12696,11 +13043,11 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>108</v>
+      <c r="A32" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="74" t="s">
+        <v>71</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -12719,11 +13066,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>110</v>
+      <c r="A33" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="74" t="s">
+        <v>73</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -12742,11 +13089,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="48" t="s">
-        <v>112</v>
+      <c r="A34" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="74" t="s">
+        <v>75</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
@@ -12764,29 +13111,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12794,10 +13118,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6285C8A1-0556-984B-B67F-D2ED9F008451}">
-  <dimension ref="A4:U35"/>
+  <dimension ref="A4:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12805,468 +13129,1335 @@
     <col min="1" max="1" width="14.6640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" customWidth="1"/>
     <col min="3" max="4" width="19" customWidth="1"/>
+    <col min="17" max="17" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
+      <c r="E5" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>189</v>
+      </c>
       <c r="N5" s="24"/>
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="57"/>
       <c r="B6" s="31"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="E6" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>183</v>
+      </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="T6" s="11"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="O6" t="s">
+        <v>185</v>
+      </c>
+      <c r="P6" t="s">
+        <v>190</v>
+      </c>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="T7" s="11"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="O7" s="78">
+        <f>COUNTIF(E7:M7, "P (2/2)")</f>
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <f>O7/4 * 100</f>
+        <v>100</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>191</v>
+      </c>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="O8">
+        <f t="shared" ref="O8:O36" si="0">COUNTIF(E8:M8, "P (2/2)")</f>
+        <v>1</v>
+      </c>
+      <c r="P8" s="81">
+        <f>O8/6 * 100</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P9" s="81">
+        <f t="shared" ref="P9:P36" si="1">O9/6 * 100</f>
+        <v>100</v>
+      </c>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P10" s="81">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="T11" s="11"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P11" s="81">
+        <f t="shared" si="1"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>192</v>
+      </c>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="T12" s="11"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P12" s="81">
+        <f t="shared" si="1"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P13" s="81">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="T14" s="11"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P14" s="81">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="R14" s="11"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P15" s="81">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" s="78">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P16" s="81">
+        <f>O16/5 * 100</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P17" s="81">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P18" s="81">
+        <f t="shared" si="1"/>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P19" s="81">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P20" s="81">
+        <f t="shared" si="1"/>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P21" s="81">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P22" s="81">
+        <f t="shared" si="1"/>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P23" s="81">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P24" s="81">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O25" s="78">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P25" s="81">
+        <f>O25/5 * 100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O26" s="78">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P26" s="81">
+        <f>O26/5 * 100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P27" s="81">
+        <f t="shared" si="1"/>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P28" s="81">
+        <f t="shared" si="1"/>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P29" s="81">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P30" s="81">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P31" s="81">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="C32" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P32" s="81">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="63" t="s">
+      <c r="B33" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="C33" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P33" s="81">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="63" t="s">
+      <c r="B34" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="C34" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P34" s="81">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="63" t="s">
+      <c r="B35" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="C35" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P35" s="81">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="63" t="s">
+      <c r="B36" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="63" t="s">
+      <c r="C36" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P36" s="81">
+        <f t="shared" si="1"/>
         <v>100</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="63" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="63" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="64" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="64" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
